--- a/documentos/Dicionario_de_dados_planilha.xlsx
+++ b/documentos/Dicionario_de_dados_planilha.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$F$45</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="672">
   <si>
     <t>Nome do Campo</t>
   </si>
@@ -358,13 +361,1687 @@
   </si>
   <si>
     <t>NM_BAIRRO</t>
+  </si>
+  <si>
+    <t>26-Logradouro (Rua, Avenida, etc.)</t>
+  </si>
+  <si>
+    <t>NM_LOGRADO</t>
+  </si>
+  <si>
+    <t>Logradouro (rua, avenida, quadra, travessa, etc.) do endereço de residência do paciente</t>
+  </si>
+  <si>
+    <t>27-Nº</t>
+  </si>
+  <si>
+    <t>28-Complemento (apto, casa, etc.)</t>
+  </si>
+  <si>
+    <t>29-(DDD) Telefone</t>
+  </si>
+  <si>
+    <t>30-Zona</t>
+  </si>
+  <si>
+    <t>31-País (se residente fora do Brasil)</t>
+  </si>
+  <si>
+    <t>NM_NUMERO</t>
+  </si>
+  <si>
+    <t>NM_COMPLEM</t>
+  </si>
+  <si>
+    <t>NU_TELEFON</t>
+  </si>
+  <si>
+    <t>CS_ZONA</t>
+  </si>
+  <si>
+    <t>ID_PAIS</t>
+  </si>
+  <si>
+    <t>CO_PAIS</t>
+  </si>
+  <si>
+    <t>Nº do logradouro (nº da casa ou do edifício).</t>
+  </si>
+  <si>
+    <t>Complemento do logradouro (bloco, apto, casa, etc.).</t>
+  </si>
+  <si>
+    <t>Código DDD e número de telefone para contato do paciente</t>
+  </si>
+  <si>
+    <t>Zona geográfica do endereço de residência do paciente</t>
+  </si>
+  <si>
+    <t>País de residência do paciente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DT_NOTIFIC: chr  "03/01/2023" "02/01/2023" "05/01/2023" "05/01/2023" ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ SEM_NOT   : int  1 1 1 1 1 2 1 2 2 2 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ DT_SIN_PRI: chr  "02/01/2023" "01/01/2023" "01/01/2023" "03/01/2023" ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ SEM_PRI   : int  1 1 1 1 1 2 1 1 1 2 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ SG_UF_NOT : chr  "BA" "MG" "ES" "AM" ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ ID_REGIONA: chr  "NUCLEO REGIONAL DE SAUDE CENTRO NORTE" "UBA" "METROPOLITANA" "ENTORNO DE MANAUS E RIO NEGRO" ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ CO_REGIONA: int  1394 1464 1510 5584 1364 1481 5584 1333 1342 NA ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ ID_MUNICIP: chr  "XIQUE-XIQUE" "MURIAE" "VITORIA" "MANAUS" ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ CO_MUN_NOT: int  293360 314390 320530 130260 410480 110040 130260 351880 350950 330455 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ ID_UNIDADE: chr  "HOSPITAL JULIETA VIANA" "CASA DE SAUDE SANTA LUCIA LTDA" "HOSPITAL INFANTIL NOSSA SENHORA DA GLORIA" "HOSPITAL E PRONTO SOCORRO DA ZONA NORTE DELPHINA AZIZ" ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ CO_UNI_NOT: int  2601729 2162377 11800 7564546 3293262 2808676 5222710 2080427 2078376 2295407 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ CS_SEXO   : chr  "M" "F" "F" "F" ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ DT_NASC   : chr  "06/01/1985" "17/11/1973" "24/10/2022" "10/02/1954" ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ NU_IDADE_N: int  37 49 3 68 73 62 20 3 7 56 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ TP_IDADE  : int  3 3 2 3 3 3 3 3 2 3 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ COD_IDADE : chr  "3037" "3049" "2003" "3068" ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ CS_GESTANT: int  6 5 6 5 6 5 5 6 6 6 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ CS_RACA   : int  4 1 1 4 1 4 4 4 1 4 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ CS_ESCOL_N: int  1 NA 5 NA NA NA 3 NA 5 9 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ ID_PAIS   : chr  "BRASIL" "BRASIL" "BRASIL" "BRASIL" ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ CO_PAIS   : int  1 1 1 1 1 1 1 1 1 1 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ SG_UF     : chr  "BA" "MG" "ES" "AM" ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ ID_RG_RESI: chr  "NUCLEO REGIONAL DE SAUDE CENTRO NORTE" "UBA" "METROPOLITANA" "BAIXO AMAZONAS" ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ CO_RG_RESI: int  1394 1464 1510 5589 1364 1481 5584 1333 1342 NA ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ ID_MN_RESI: chr  "XIQUE-XIQUE" "VISCONDE DO RIO BRANCO" "CARIACICA" "PARINTINS" ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ CO_MUN_RES: int  293360 317200 320130 130340 410480 110040 130260 351880 350950 330455 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ CS_ZONA   : int  1 1 1 1 NA NA 1 1 1 1 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ SURTO_SG  : logi  NA NA NA NA NA NA ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ NOSOCOMIAL: int  2 2 2 2 2 NA 2 2 2 2 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ AVE_SUINO : int  2 2 2 2 2 NA 2 2 2 9 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ FEBRE     : int  2 2 1 1 2 NA 2 1 1 2 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ TOSSE     : int  2 1 1 1 2 NA 1 1 1 1 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ GARGANTA  : int  2 1 NA 1 2 NA 2 2 2 2 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ DISPNEIA  : int  1 2 1 1 2 NA 1 2 2 1 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ DESC_RESP : int  1 2 1 NA 2 NA 1 2 1 2 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ SATURACAO : int  1 2 1 1 2 NA 1 2 1 2 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ DIARREIA  : int  2 2 NA 2 2 NA 2 2 2 2 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ VOMITO    : int  2 2 NA 1 2 NA 2 2 2 2 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ OUTRO_SIN : int  2 2 NA NA 1 NA 2 2 2 2 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ OUTRO_DES : chr  "" "" "" "" ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ PUERPERA  : int  NA NA NA NA NA NA 2 NA NA NA ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ FATOR_RISC: int  2 2 2 2 2 2 1 2 2 2 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ CARDIOPATI: int  NA NA NA NA NA NA 2 NA NA NA ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ HEMATOLOGI: int  NA NA NA NA NA NA 2 NA NA NA ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ SIND_DOWN : int  NA NA NA NA NA NA 2 NA NA NA ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ HEPATICA  : int  NA NA NA NA NA NA 2 NA NA NA ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ ASMA      : int  NA NA NA NA NA NA 1 NA NA NA ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ DIABETES  : int  NA NA NA NA NA NA 2 NA NA NA ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ NEUROLOGIC: int  NA NA NA NA NA NA 1 NA NA NA ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ PNEUMOPATI: int  NA NA NA NA NA NA 2 NA NA NA ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ IMUNODEPRE: int  NA NA NA NA NA NA 2 NA NA NA ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ RENAL     : int  NA NA NA NA NA NA 2 NA NA NA ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ OBESIDADE : int  NA NA NA NA NA NA 2 NA NA NA ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ OBES_IMC  : chr  "" "" "" "" ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ OUT_MORBI : int  NA NA NA NA NA NA 2 NA NA NA ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ MORB_DESC : chr  "" "" "" "" ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ VACINA    : int  2 NA NA 2 NA NA 2 NA 2 NA ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ DT_UT_DOSE: chr  "" "" "" "" ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ MAE_VAC   : int  NA NA NA NA NA NA NA NA NA NA ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ DT_VAC_MAE: chr  "" "" "" "" ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ M_AMAMENTA: int  NA NA NA NA NA NA NA NA NA NA ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ DT_DOSEUNI: chr  "" "" "" "" ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ DT_1_DOSE : chr  "" "" "" "" ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ DT_2_DOSE : chr  "" "" "" "" ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ ANTIVIRAL : int  2 2 2 2 2 NA 2 2 1 9 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ TP_ANTIVIR: int  NA NA NA NA NA NA NA NA 1 NA ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ OUT_ANTIV : chr  "" "" "" "" ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ DT_ANTIVIR: chr  "" "" "" "" ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ HOSPITAL  : int  NA 1 1 1 1 NA 1 1 1 1 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ DT_INTERNA: chr  "" "02/01/2023" "04/01/2023" "05/01/2023" ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ SG_UF_INTE: chr  "" "MG" "ES" "AM" ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ ID_RG_INTE: chr  "" "UBA" "METROPOLITANA" "ENTORNO DE MANAUS E RIO NEGRO" ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ CO_RG_INTE: int  NA 1464 1510 5584 1364 NA 5584 1333 1342 NA ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ ID_MN_INTE: chr  "" "MURIAE" "VITORIA" "MANAUS" ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ CO_MU_INTE: int  NA 314390 320530 130260 410480 NA 130260 351880 350950 330455 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ UTI       : int  2 2 1 1 2 NA 2 NA 1 2 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ DT_ENTUTI : chr  "" "" "04/01/2023" "05/01/2023" ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ DT_SAIDUTI: chr  "" "" "" "" ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ SUPORT_VEN: int  NA 3 2 1 3 NA 2 NA 2 2 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ RAIOX_RES : int  NA 6 2 NA NA NA NA NA 6 2 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ RAIOX_OUT : chr  "" "" "" "" ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ DT_RAIOX  : chr  "" "" "04/01/2023" "" ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ AMOSTRA   : int  2 1 1 1 1 NA 1 1 1 1 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ DT_COLETA : chr  "" "03/01/2023" "04/01/2023" "05/01/2023" ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ TP_AMOSTRA: int  NA 4 1 1 1 NA 1 1 1 1 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ OUT_AMOST : chr  "" "TESTE RAPIDO" "" "" ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ PCR_RESUL : int  NA 4 1 2 4 NA 2 2 4 2 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ DT_PCR    : chr  "" "" "04/01/2023" "09/01/2023" ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ POS_PCRFLU: int  NA NA 2 NA NA NA NA NA NA NA ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ TP_FLU_PCR: int  NA NA NA NA NA NA NA NA NA NA ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ PCR_FLUASU: int  NA NA NA NA NA NA NA NA NA NA ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ FLUASU_OUT: chr  "" "" "" "" ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ PCR_FLUBLI: int  NA NA NA NA NA NA NA NA NA NA ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ FLUBLI_OUT: chr  "" "" "" "" ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ POS_PCROUT: int  NA NA 1 NA NA NA NA NA NA NA ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ PCR_VSR   : int  NA NA NA NA NA NA NA NA NA NA ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ PCR_PARA1 : int  NA NA NA NA NA NA NA NA NA NA ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ PCR_PARA2 : int  NA NA NA NA NA NA NA NA NA NA ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ PCR_PARA3 : int  NA NA NA NA NA NA NA NA NA NA ..</t>
+  </si>
+  <si>
+    <t>LINHA</t>
+  </si>
+  <si>
+    <t>32-Trata-se de caso nosocomial (infecção adquirida no hospital)?</t>
+  </si>
+  <si>
+    <t>NOSOCOMIAL</t>
+  </si>
+  <si>
+    <t>Caso de SRAG com infecção adquirida após internação.</t>
+  </si>
+  <si>
+    <t>33- Paciente trabalha ou tem contato direto com aves, suínos, ou outro animal?</t>
+  </si>
+  <si>
+    <t>AVE_SUINO</t>
+  </si>
+  <si>
+    <t>Caso com contato direto com aves ou suínos.</t>
+  </si>
+  <si>
+    <t>33-Paciente trabalha ou tem contato direto com aves, suínos/Outro animal (especificar)</t>
+  </si>
+  <si>
+    <t>OUT_ANIM</t>
+  </si>
+  <si>
+    <t>Informar o animal que o paciente teve contato se selecionado a opção 3.</t>
+  </si>
+  <si>
+    <t>34-Sinais e Sintomas/Febre</t>
+  </si>
+  <si>
+    <t>Paciente apresentou febre?</t>
+  </si>
+  <si>
+    <t>FEBRE</t>
+  </si>
+  <si>
+    <t>34-Sinais e Sintomas/Tosse</t>
+  </si>
+  <si>
+    <t>TOSSE</t>
+  </si>
+  <si>
+    <t>Paciente apresentou tosse?</t>
+  </si>
+  <si>
+    <t>34-Sinais e Sintomas/Dor de Garganta</t>
+  </si>
+  <si>
+    <t>GARGANTA</t>
+  </si>
+  <si>
+    <t>Paciente apresentou dor de garganta?</t>
+  </si>
+  <si>
+    <t>34-Sinais e Sintomas/Dispneia</t>
+  </si>
+  <si>
+    <t>34-Sinais e Sintomas/Desconforto Respiratório</t>
+  </si>
+  <si>
+    <t>34-Sinais e Sintomas/Saturação O2&lt; 95%</t>
+  </si>
+  <si>
+    <t>34-Sinais e Sintomas/Diarreia</t>
+  </si>
+  <si>
+    <t>34-Sinais e Sintomas/Vômito</t>
+  </si>
+  <si>
+    <t>34-Sinais e Sintomas/Dor abdominal</t>
+  </si>
+  <si>
+    <t>34-Sinais e Sintomas/Fadiga</t>
+  </si>
+  <si>
+    <t>34-Sinais e Sintomas/Perda do Olfato</t>
+  </si>
+  <si>
+    <t>34-Sinais e Sintomas/Perda do Paladar</t>
+  </si>
+  <si>
+    <t>34-Sinais e Sintomas/Outros</t>
+  </si>
+  <si>
+    <t>34-Sinais e Sintomas/Outros (Descriçao)</t>
+  </si>
+  <si>
+    <t>DISPNEIA</t>
+  </si>
+  <si>
+    <t>DESC_RESP</t>
+  </si>
+  <si>
+    <t>SATURACAO</t>
+  </si>
+  <si>
+    <t>DIARREIA</t>
+  </si>
+  <si>
+    <t>VOMITO</t>
+  </si>
+  <si>
+    <t>DOR_ABD</t>
+  </si>
+  <si>
+    <t>FADIGA</t>
+  </si>
+  <si>
+    <t>PERD_OLFT</t>
+  </si>
+  <si>
+    <t>PERD_PALA</t>
+  </si>
+  <si>
+    <t>OUTROS_SIN</t>
+  </si>
+  <si>
+    <t>OUTROS_DES</t>
+  </si>
+  <si>
+    <t>Paciente apresentou dispneia?</t>
+  </si>
+  <si>
+    <t>Paciente apresentou desconforto respiratório?</t>
+  </si>
+  <si>
+    <t>Paciente apresentou saturação O2&lt; 95%?</t>
+  </si>
+  <si>
+    <t>Paciente apresentou diarreia?</t>
+  </si>
+  <si>
+    <t>Paciente apresentou vômito?</t>
+  </si>
+  <si>
+    <t>Paciente apresentou dor abdominal?</t>
+  </si>
+  <si>
+    <t>Paciente apresentou fadiga?</t>
+  </si>
+  <si>
+    <t>Paciente apresentou perda do olfato?</t>
+  </si>
+  <si>
+    <t>Paciente apresentou perda do paladar?</t>
+  </si>
+  <si>
+    <t>Paciente apresentou outro(s) sintoma(s)?</t>
+  </si>
+  <si>
+    <t>Listar outros sinais C</t>
+  </si>
+  <si>
+    <t>35-Fatores de risco</t>
+  </si>
+  <si>
+    <t>35-Fatores de risco/ Puérpera</t>
+  </si>
+  <si>
+    <t>35-Fatores de risco/ Doença Cardiovascular Crônica</t>
+  </si>
+  <si>
+    <t>35-Fatores de risco/ Doença Hematológica Crônica</t>
+  </si>
+  <si>
+    <t>35-Fatores de risco/ Síndrome de Down</t>
+  </si>
+  <si>
+    <t>35-Fatores de risco/ Doença Hepática Crônica</t>
+  </si>
+  <si>
+    <t>35-Fatores de risco/ Asma</t>
+  </si>
+  <si>
+    <t>35-Fatores de risco/ Diabetes mellitus</t>
+  </si>
+  <si>
+    <t>35-Fatores de risco/ Doença Neurológica Crônica</t>
+  </si>
+  <si>
+    <t>35-Fatores de risco/ Outra Pneumatopatia Crônica</t>
+  </si>
+  <si>
+    <t>35-Fatores de risco/ Imunodeficiência ou Imunodepressão</t>
+  </si>
+  <si>
+    <t>35-Fatores de risco/ Doença Renal Crônica</t>
+  </si>
+  <si>
+    <t>35-Fatores de risco/ Obesidade</t>
+  </si>
+  <si>
+    <t>35-Fatores de risco/ Obesidade (Descrição IMC)</t>
+  </si>
+  <si>
+    <t>35-Fatores de risco/ Outros</t>
+  </si>
+  <si>
+    <t>35-Fatores de risco/ Outros (Descrição)</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>36- Recebeu vacina COVID-19?</t>
+  </si>
+  <si>
+    <t>Informar se o paciente recebeu vacina COVID-19, após verificar a documentação / caderneta.</t>
+  </si>
+  <si>
+    <t>VACINA_COV</t>
+  </si>
+  <si>
+    <t>FATOR_RISC</t>
+  </si>
+  <si>
+    <t>PUERPERA</t>
+  </si>
+  <si>
+    <t>CARDIOPAT</t>
+  </si>
+  <si>
+    <t>HEMATOLOGI</t>
+  </si>
+  <si>
+    <t>SIND_DOWN</t>
+  </si>
+  <si>
+    <t>HEPATICA</t>
+  </si>
+  <si>
+    <t>ASMA</t>
+  </si>
+  <si>
+    <t>DIABETES</t>
+  </si>
+  <si>
+    <t>NEUROLOGIC</t>
+  </si>
+  <si>
+    <t>PNEUMOPATI</t>
+  </si>
+  <si>
+    <t>IMUNODEPRE</t>
+  </si>
+  <si>
+    <t>RENAL</t>
+  </si>
+  <si>
+    <t>OBESIDADE</t>
+  </si>
+  <si>
+    <t>OBES_IMC</t>
+  </si>
+  <si>
+    <t>OUT_MORBI</t>
+  </si>
+  <si>
+    <t>MORD_DESC</t>
+  </si>
+  <si>
+    <t>Paciente apresenta algum fator de risco</t>
+  </si>
+  <si>
+    <t>Paciente é puérpera ou parturiente (mulher que pariu recentemente – até 45 dias do parto)?</t>
+  </si>
+  <si>
+    <t>Paciente possui Doença Cardiovascular Crônica?</t>
+  </si>
+  <si>
+    <t>Paciente possui Doença Hematológica Crônica?</t>
+  </si>
+  <si>
+    <t>Paciente possui Síndrome de Down?</t>
+  </si>
+  <si>
+    <t>Paciente possui Doença Hepática Crônica?</t>
+  </si>
+  <si>
+    <t>Paciente possui Asma?</t>
+  </si>
+  <si>
+    <t>Paciente possui Diabetes mellitus?</t>
+  </si>
+  <si>
+    <t>Paciente possui Doença Neurológica?</t>
+  </si>
+  <si>
+    <t>Paciente possui outra pneumopatia crônica?</t>
+  </si>
+  <si>
+    <t>Paciente possui Imunodeficiência ou Imunodepressão (diminuição da função do sistema imunológico)?</t>
+  </si>
+  <si>
+    <t>Paciente possui Doença Renal Crônica?</t>
+  </si>
+  <si>
+    <t>Paciente possui obesidade?</t>
+  </si>
+  <si>
+    <t>Valor do IMC (Índice de Massa Corporal) do paciente calculado pelo profissional de saúde.</t>
+  </si>
+  <si>
+    <t>Paciente possui outro(s) fator(es) de risco?</t>
+  </si>
+  <si>
+    <t>Listar outro(s) fator(es) de risco do paciente.</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>37- Data 1ª dose da vacina COVID-19 V</t>
+  </si>
+  <si>
+    <t>37- Data 2ª dose da vacina COVID-19</t>
+  </si>
+  <si>
+    <t>37- Data da dose reforço da vacina COVID-19</t>
+  </si>
+  <si>
+    <t>37- Data da 2ª dose reforço da vacina COVID-19</t>
+  </si>
+  <si>
+    <t>38- Fabricante 1ª dose da vacina COVID-19</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>DOSE_1_COV</t>
+  </si>
+  <si>
+    <t>DOSE_2_COV</t>
+  </si>
+  <si>
+    <t>DOSE_REF</t>
+  </si>
+  <si>
+    <t>DOSE_2_REF</t>
+  </si>
+  <si>
+    <t>Informar a data em que o paciente recebeu a 1ª dose da vacina COVID-19</t>
+  </si>
+  <si>
+    <t>Informar a data em que o paciente recebeu a 2ª dose da vacina COVID-19</t>
+  </si>
+  <si>
+    <t>Informar a data em que o paciente recebeu a dose reforço</t>
+  </si>
+  <si>
+    <t>Informar a data em que o paciente recebeu a 2ª dose reforço</t>
+  </si>
+  <si>
+    <t>Informar o fabricante da vacina, que o paciente recebeu na primeira dose</t>
+  </si>
+  <si>
+    <t>FAB_COV1</t>
+  </si>
+  <si>
+    <t>38- Fabricante 2ª dose da vacina COVID-19</t>
+  </si>
+  <si>
+    <t>38- Fabricante dose reforço da vacina COVID-19</t>
+  </si>
+  <si>
+    <t>38- Fabricante 2ª dose reforço da vacina COVID-19</t>
+  </si>
+  <si>
+    <t>FAB_COVRF</t>
+  </si>
+  <si>
+    <t>FAB_COV2</t>
+  </si>
+  <si>
+    <t>FAB_COVRF2</t>
+  </si>
+  <si>
+    <t>Informar o fabricante da vacina, que o paciente recebeu na segunda dose</t>
+  </si>
+  <si>
+    <t>Informar o fabricante da vacina, que o paciente recebeu na dose reforço</t>
+  </si>
+  <si>
+    <t>Informar o fabricante da vacina, que o paciente recebeu na 2ª dose reforço</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>39- Lote da vacina COVID-19: Lote 1ª Dose</t>
+  </si>
+  <si>
+    <t>39- Lote da vacina COVID-19: Lote 2ª Dose</t>
+  </si>
+  <si>
+    <t>39- Lote da vacina COVID-19: Lote dose reforço</t>
+  </si>
+  <si>
+    <t>39- Lote da vacina COVID-19: Lote 2ª dose reforço</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>LOTE_1_COV</t>
+  </si>
+  <si>
+    <t>LOTE_2_COV</t>
+  </si>
+  <si>
+    <t>LOT_REF</t>
+  </si>
+  <si>
+    <t>LOT_REF2</t>
+  </si>
+  <si>
+    <t>Informar o Lote da 1ª dose da vacina COVID-19, que o paciente recebeu</t>
+  </si>
+  <si>
+    <t>Informar o Lote da 2ª dose da vacina COVID-19, que o paciente recebeu</t>
+  </si>
+  <si>
+    <t>Informar o Lote da dose reforço da vacina COVID-19, que o paciente recebeu</t>
+  </si>
+  <si>
+    <t>Informar o Lote da 2ª dose reforço da vacina COVID-19, que o paciente recebeu</t>
+  </si>
+  <si>
+    <t>39- Fonte dos dados/informação sobre a vacina COVID-19</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>FNT_IN_COV</t>
+  </si>
+  <si>
+    <t>Campo preenchido de acordo com a fonte dos dados/informação sobre a vacina COVID-19, se foi digitada manualmente ou recuperada via integração com a Base Nacional de Vacinação.</t>
+  </si>
+  <si>
+    <t>40-Recebeu vacina contra Gripe na última campanha?</t>
+  </si>
+  <si>
+    <t>Informar se o paciente foi vacinado contra gripe na última campanha, após verificar a documentação / caderneta.</t>
+  </si>
+  <si>
+    <t>VACINA</t>
+  </si>
+  <si>
+    <t>41-Data da vacinação</t>
+  </si>
+  <si>
+    <t>DT_UT_DOSE</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>Data da última dose de vacina contra gripe que o paciente tomou.</t>
+  </si>
+  <si>
+    <t>Se &lt; 6 meses: a mãe recebeu a vacina?</t>
+  </si>
+  <si>
+    <t>MAE_VAC</t>
+  </si>
+  <si>
+    <t>Se paciente &lt; 6 meses, a mãe recebeu vacina?</t>
+  </si>
+  <si>
+    <t>Se sim, data</t>
+  </si>
+  <si>
+    <t>Se a mãe recebeu vacina, qual a data?</t>
+  </si>
+  <si>
+    <t>DT_VAC_MAE</t>
+  </si>
+  <si>
+    <t>Se &lt; 6 meses: a mãe amamenta a criança?</t>
+  </si>
+  <si>
+    <t>Se paciente &lt; 6 meses, a mãe amamenta a criança?</t>
+  </si>
+  <si>
+    <t>M_AMAMENTA</t>
+  </si>
+  <si>
+    <t>Se &gt;= 6 meses e &lt;= 8 anos: Data da dose única 1/1</t>
+  </si>
+  <si>
+    <t>Se &gt;= 6 meses e &lt;= 8 anos: Data da 1ª dose</t>
+  </si>
+  <si>
+    <t>Se &gt;= 6 meses e &lt;= 8 anos: Data da 2ª dose</t>
+  </si>
+  <si>
+    <t>Se &gt;= 6 meses e &lt;= 8 anos, data da dose única para crianças vacinadas em campanhas de anos anteriores</t>
+  </si>
+  <si>
+    <t>Se &gt;= 6 meses e &lt;= 8 anos, data da 1ª dose para crianças vacinadas pela primeira vez</t>
+  </si>
+  <si>
+    <t>Se &gt;= 6 meses e &lt;= 8 anos data da 2ª dose para crianças vacinadas pela primeira vez</t>
+  </si>
+  <si>
+    <t>DT_DOSEUNI</t>
+  </si>
+  <si>
+    <t>DT_1_DOSE</t>
+  </si>
+  <si>
+    <t>DR_2_DOSE</t>
+  </si>
+  <si>
+    <t>42-Usou antiviral para gripe?</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>Fez uso de antiviral para tratamento da doença?</t>
+  </si>
+  <si>
+    <t>ANTIVIRAL</t>
+  </si>
+  <si>
+    <t>43-Qual antiviral?</t>
+  </si>
+  <si>
+    <t>Qual antiviral utilizado?</t>
+  </si>
+  <si>
+    <t>TP_ANTIVIR</t>
+  </si>
+  <si>
+    <t>Qual antiviral /Outro, especifique</t>
+  </si>
+  <si>
+    <t>Se o antiviral utilizado não foi Oseltamivir ou Zanamivir, informar qual antiviral foi utilizado.</t>
+  </si>
+  <si>
+    <t>OUT_ANTIV</t>
+  </si>
+  <si>
+    <t>44-Data do início do tratamento</t>
+  </si>
+  <si>
+    <t>DT_ANTIVIR</t>
+  </si>
+  <si>
+    <t>Data em que foi iniciado o tratamento com o antiviral.</t>
+  </si>
+  <si>
+    <t>45- Recebeu tratamento antiviral para covid-19?</t>
+  </si>
+  <si>
+    <t>Fez uso de antiviral para tratamento de covid-19?</t>
+  </si>
+  <si>
+    <t>TRAT_COV</t>
+  </si>
+  <si>
+    <t>46- Qual antiviral?</t>
+  </si>
+  <si>
+    <t>Se foi feito uso de antiviral para tratamento de covid-19, informar qual, conforme relação disponível</t>
+  </si>
+  <si>
+    <t>TIPO_TRAT</t>
+  </si>
+  <si>
+    <t>Se o antiviral utilizado não foi, 1- Nirmatrevir/ritonav ir (Paxlovid ®) 2- Molnupiravir (Lagevrio®) 3- Baricitinibe (Olumiant®), informar qual antiviral foi utilizado.</t>
+  </si>
+  <si>
+    <t>OUT_TRAT</t>
+  </si>
+  <si>
+    <t>47- Data do início do tratamento</t>
+  </si>
+  <si>
+    <t>Data em que foi iniciado o tratamento com o antiviral, para tratamento de covid-19</t>
+  </si>
+  <si>
+    <t>DT_TRT_COV</t>
+  </si>
+  <si>
+    <t>48-Houve internação?</t>
+  </si>
+  <si>
+    <t>O paciente foi internado?</t>
+  </si>
+  <si>
+    <t>HOSPITAL</t>
+  </si>
+  <si>
+    <t>49-Data da internação por SRAG</t>
+  </si>
+  <si>
+    <t>Data em que o paciente foi hospitalizado.</t>
+  </si>
+  <si>
+    <t>DT_INTERNA</t>
+  </si>
+  <si>
+    <t>50-UF de internação</t>
+  </si>
+  <si>
+    <t>Unidade Federativa de internação do paciente</t>
+  </si>
+  <si>
+    <t>SG_UF_INTE</t>
+  </si>
+  <si>
+    <t>Regional de Saúde de Internação Código (IBGE)</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>ID_RG_INTE</t>
+  </si>
+  <si>
+    <t>CO_RF_INTE</t>
+  </si>
+  <si>
+    <t>Regional de Saúde de Internação</t>
+  </si>
+  <si>
+    <t>Regional de Saúde onde está localizado o Município de internação do paciente.</t>
+  </si>
+  <si>
+    <t>51-Município de internação/ Código(IBGE)</t>
+  </si>
+  <si>
+    <t>51-Município de internação</t>
+  </si>
+  <si>
+    <t>ID_MN_INTE</t>
+  </si>
+  <si>
+    <t>CO_MU_INTE</t>
+  </si>
+  <si>
+    <t>Município onde está localizado a Unidade de Saúde onde o paciente internou.</t>
+  </si>
+  <si>
+    <t>52-Unidade de Saúde de internação/ Código CNES</t>
+  </si>
+  <si>
+    <t>52-Unidade de Saúde de internação</t>
+  </si>
+  <si>
+    <t>ID_UN_INTE</t>
+  </si>
+  <si>
+    <t>CO_UN_INTE</t>
+  </si>
+  <si>
+    <t>Unidade que realizou a internação do paciente.</t>
+  </si>
+  <si>
+    <t>53-Internado em UTI?</t>
+  </si>
+  <si>
+    <t>O paciente foi internado em UTI?</t>
+  </si>
+  <si>
+    <t>UTI</t>
+  </si>
+  <si>
+    <t>54-Data da entrada na UTI</t>
+  </si>
+  <si>
+    <t>DT_ENTUTI</t>
+  </si>
+  <si>
+    <t>Data de entrada do paciente na unidade de Terapia intensiva (UTI).</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>55-Data da saída da UTI</t>
+  </si>
+  <si>
+    <t>DT_SAIDUTI</t>
+  </si>
+  <si>
+    <t>Data em que o paciente saiu da Unidade de Terapia intensiva (UTI).</t>
+  </si>
+  <si>
+    <t>56-Uso de suporte ventilatório?</t>
+  </si>
+  <si>
+    <t>SUPORT_VEN</t>
+  </si>
+  <si>
+    <t>O paciente fez uso de suporte ventilatório?</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>57- Raio X de Tórax</t>
+  </si>
+  <si>
+    <t>Informar resultado de Raio X de Tórax.</t>
+  </si>
+  <si>
+    <t>RAIOX_RES</t>
+  </si>
+  <si>
+    <t>Raio X de Tórax/ Outro (especificar)</t>
+  </si>
+  <si>
+    <t>RAIOX_OUT</t>
+  </si>
+  <si>
+    <t>Informar o resultado do RX de tórax se selecionado a opção 5-Outro</t>
+  </si>
+  <si>
+    <t>58-Data do Raio X</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>Se realizou RX de Tórax, especificar a data do exame.</t>
+  </si>
+  <si>
+    <t>DT_RAIOX</t>
+  </si>
+  <si>
+    <t>59- Aspecto Tomografia</t>
+  </si>
+  <si>
+    <t>Informar o resultado da tomografia.</t>
+  </si>
+  <si>
+    <t>TOMO_RES</t>
+  </si>
+  <si>
+    <t>Aspecto Tomografia/Outro (especificar)</t>
+  </si>
+  <si>
+    <t>Informar o resultado da tomografia se selecionado a opção 5-Outro</t>
+  </si>
+  <si>
+    <t>TOMO_OUT</t>
+  </si>
+  <si>
+    <t>60- Data da Tomografia</t>
+  </si>
+  <si>
+    <t>Se realizou tomografia, especificar a data do exame.</t>
+  </si>
+  <si>
+    <t>DT_TOMO</t>
+  </si>
+  <si>
+    <t>61-Coletou amostra?</t>
+  </si>
+  <si>
+    <t>Foi realizado coleta de amostra para realização de teste diagnóstico?</t>
+  </si>
+  <si>
+    <t>AMOSTRA</t>
+  </si>
+  <si>
+    <t>62-Data da Coleta</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>Data da coleta da amostra para realização do teste diagnóstico.</t>
+  </si>
+  <si>
+    <t>DT_COLETA</t>
+  </si>
+  <si>
+    <t>63-Tipo de amostra</t>
+  </si>
+  <si>
+    <t>Tipo de amostra/Outra</t>
+  </si>
+  <si>
+    <t>Tipo da amostra clínica coletada para o teste diagnóstico.</t>
+  </si>
+  <si>
+    <t>TP_AMOSTRA</t>
+  </si>
+  <si>
+    <t>Descrição do tipo da amostra clínica, caso diferente das listadas nas categorias do campo.</t>
+  </si>
+  <si>
+    <t>OUT_AMOST</t>
+  </si>
+  <si>
+    <t>64-Nº da Requisição do GAL</t>
+  </si>
+  <si>
+    <t>Número da requisição de exames gerado pelo sistema GAL.</t>
+  </si>
+  <si>
+    <t>REQUI_GAL</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>65- Tipo do Teste antigênico</t>
+  </si>
+  <si>
+    <t>Tipo do teste antigênico que foi realizado.</t>
+  </si>
+  <si>
+    <t>TP_TES_AN</t>
+  </si>
+  <si>
+    <t>66- Data do resultado teste Antigênico</t>
+  </si>
+  <si>
+    <t>Data do resultado do teste antigênico.</t>
+  </si>
+  <si>
+    <t>DT_RES_AN</t>
+  </si>
+  <si>
+    <t>67- Resultado do Teste Antigênico</t>
+  </si>
+  <si>
+    <t>Resultado do Teste Antigênico</t>
+  </si>
+  <si>
+    <t>RES_AN</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>68-Laboratório que realizou o Teste antigênico</t>
+  </si>
+  <si>
+    <t>LAB_AN</t>
+  </si>
+  <si>
+    <t>CO_LAB_AN</t>
+  </si>
+  <si>
+    <t>Laboratório responsável pela liberação do resultado do teste antigênico.</t>
+  </si>
+  <si>
+    <t>69-Agente etiológico – Teste Antigênico. Positivo para Influenza?</t>
+  </si>
+  <si>
+    <t>69-Agente etiológico – Teste Antigênico. Se sim, qual Influenza?</t>
+  </si>
+  <si>
+    <t>69-Agente etiológico – Teste Antigênico. Positivo para outros vírus?</t>
+  </si>
+  <si>
+    <t>69-Agente etiológico – Teste Antigênico. SARS-CoV-2</t>
+  </si>
+  <si>
+    <t>69-Agente etiológico – Teste Antigênico. VSR</t>
+  </si>
+  <si>
+    <t>69-Agente etiológico – Teste Antigênico. Parainfluenza 1</t>
+  </si>
+  <si>
+    <t>69-Agente etiológico – Teste Antigênico. Parainfluenza 2</t>
+  </si>
+  <si>
+    <t>69-Agente etiológico – Teste Antigênico. Parainfluenza 3</t>
+  </si>
+  <si>
+    <t>69-Agente etiológico – Teste Antigênico. Adenovírus</t>
+  </si>
+  <si>
+    <t>69- Agente etiológico – Teste Antigênico. Outro vírus respiratório</t>
+  </si>
+  <si>
+    <t>69- Agente etiológico – Teste Antigênico. Outro vírus respiratório (Descrição)</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>POS_AN_FLU</t>
+  </si>
+  <si>
+    <t>TP_FLU_AN</t>
+  </si>
+  <si>
+    <t>POS_AN_OUT</t>
+  </si>
+  <si>
+    <t>AN_SARS2</t>
+  </si>
+  <si>
+    <t>AN_VSR</t>
+  </si>
+  <si>
+    <t>AN_PARA1</t>
+  </si>
+  <si>
+    <t>AN_PARA2</t>
+  </si>
+  <si>
+    <t>AN_PARA3</t>
+  </si>
+  <si>
+    <t>AN_ADENO</t>
+  </si>
+  <si>
+    <t>AN_OUTRO</t>
+  </si>
+  <si>
+    <t>DS_AN_OUT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,13 +2049,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -393,8 +2102,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -689,609 +2411,2843 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:H148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="C148" sqref="C148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="60.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="168" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
       <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
+      <c r="H4" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
       <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
+      <c r="H5" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
       <c r="E7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B8" t="s">
         <v>32</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>27</v>
       </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
       <c r="E8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>29</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>30</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>31</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
+      <c r="H9" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B10" t="s">
         <v>37</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>39</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>35</v>
       </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
       <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
+      <c r="H10" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B11" t="s">
         <v>33</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>40</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>30</v>
       </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
       <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
+      <c r="H11" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B12" t="s">
         <v>42</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>34</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>38</v>
       </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
       <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
+      <c r="H12" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B13" t="s">
         <v>42</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>36</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>41</v>
       </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
       <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
+      <c r="H13" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B14" t="s">
         <v>43</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>44</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>45</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B15" t="s">
         <v>46</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>47</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>48</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B16" t="s">
         <v>49</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>50</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>51</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B17" t="s">
         <v>52</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>53</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>54</v>
-      </c>
-      <c r="D17" t="s">
-        <v>8</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
+      <c r="F17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B18" t="s">
         <v>55</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>57</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>56</v>
-      </c>
-      <c r="D18" t="s">
-        <v>8</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
+      <c r="F18" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B19" t="s">
         <v>58</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>60</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>59</v>
       </c>
-      <c r="D19" t="s">
-        <v>11</v>
-      </c>
       <c r="E19" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B20" t="s">
         <v>61</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>62</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>63</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>31</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
+      <c r="H20" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B21" t="s">
         <v>64</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>65</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>66</v>
       </c>
-      <c r="D21" t="s">
-        <v>11</v>
-      </c>
       <c r="E21" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B22" t="s">
         <v>67</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>68</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>69</v>
       </c>
-      <c r="D22" t="s">
-        <v>11</v>
-      </c>
       <c r="E22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
+      <c r="H22" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B23" t="s">
         <v>70</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>71</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>72</v>
       </c>
-      <c r="D23" t="s">
-        <v>11</v>
-      </c>
       <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
+      <c r="H23" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B24" t="s">
         <v>73</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>74</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>75</v>
       </c>
-      <c r="D24" t="s">
-        <v>11</v>
-      </c>
       <c r="E24" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B25" t="s">
         <v>76</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>77</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>78</v>
-      </c>
-      <c r="D25" t="s">
-        <v>8</v>
       </c>
       <c r="E25" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
+      <c r="F25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B26" t="s">
         <v>79</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>80</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>81</v>
-      </c>
-      <c r="D26" t="s">
-        <v>8</v>
       </c>
       <c r="E26" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
+      <c r="F26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B27" t="s">
         <v>82</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>83</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>84</v>
-      </c>
-      <c r="D27" t="s">
-        <v>8</v>
       </c>
       <c r="E27" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
+      <c r="F27" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B28" t="s">
         <v>85</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>86</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>87</v>
       </c>
-      <c r="D28" t="s">
-        <v>11</v>
-      </c>
       <c r="E28" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B29" t="s">
         <v>88</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>89</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="B30" t="s">
         <v>88</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>91</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B31" t="s">
         <v>92</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>93</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B32" t="s">
         <v>95</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>96</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B33" t="s">
         <v>98</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>99</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B34" t="s">
         <v>101</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>103</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B35" t="s">
         <v>104</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>105</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
+      <c r="E35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="B36" t="s">
         <v>106</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>108</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
+      <c r="E36" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B37" t="s">
         <v>110</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>109</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
+      <c r="E37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B38" t="s">
         <v>111</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>113</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>112</v>
       </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="B39" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" t="s">
+        <v>116</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B40" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" t="s">
+        <v>122</v>
+      </c>
+      <c r="D40" t="s">
+        <v>128</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" t="s">
+        <v>123</v>
+      </c>
+      <c r="D41" t="s">
+        <v>129</v>
+      </c>
+      <c r="E41" t="s">
+        <v>8</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="B42" t="s">
+        <v>119</v>
+      </c>
+      <c r="C42" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" t="s">
+        <v>130</v>
+      </c>
+      <c r="E42" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B43" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43" t="s">
+        <v>131</v>
+      </c>
+      <c r="E43" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B44" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" t="s">
+        <v>126</v>
+      </c>
+      <c r="D44" t="s">
+        <v>132</v>
+      </c>
+      <c r="E44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B45" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" t="s">
+        <v>127</v>
+      </c>
+      <c r="D45" t="s">
+        <v>132</v>
+      </c>
+      <c r="E45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="B46" t="s">
+        <v>233</v>
+      </c>
+      <c r="C46" t="s">
+        <v>234</v>
+      </c>
+      <c r="D46" t="s">
+        <v>235</v>
+      </c>
+      <c r="E46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B47" t="s">
+        <v>236</v>
+      </c>
+      <c r="C47" t="s">
+        <v>237</v>
+      </c>
+      <c r="D47" t="s">
+        <v>238</v>
+      </c>
+      <c r="E47" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="B48" t="s">
+        <v>239</v>
+      </c>
+      <c r="C48" t="s">
+        <v>240</v>
+      </c>
+      <c r="D48" t="s">
+        <v>241</v>
+      </c>
+      <c r="E48" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="B79" t="s">
+        <v>377</v>
+      </c>
+      <c r="C79" t="s">
+        <v>379</v>
+      </c>
+      <c r="D79" t="s">
+        <v>378</v>
+      </c>
+      <c r="E79" t="s">
+        <v>8</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B80" t="s">
+        <v>413</v>
+      </c>
+      <c r="C80" t="s">
+        <v>423</v>
+      </c>
+      <c r="D80" t="s">
+        <v>427</v>
+      </c>
+      <c r="E80" t="s">
+        <v>8</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="B81" t="s">
+        <v>414</v>
+      </c>
+      <c r="C81" t="s">
+        <v>424</v>
+      </c>
+      <c r="D81" t="s">
+        <v>428</v>
+      </c>
+      <c r="E81" t="s">
+        <v>8</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="B82" t="s">
+        <v>415</v>
+      </c>
+      <c r="C82" t="s">
+        <v>425</v>
+      </c>
+      <c r="D82" t="s">
+        <v>429</v>
+      </c>
+      <c r="E82" t="s">
+        <v>8</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="B83" t="s">
+        <v>416</v>
+      </c>
+      <c r="C83" t="s">
+        <v>426</v>
+      </c>
+      <c r="D83" t="s">
+        <v>430</v>
+      </c>
+      <c r="E83" t="s">
+        <v>8</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="B84" t="s">
+        <v>417</v>
+      </c>
+      <c r="C84" t="s">
+        <v>432</v>
+      </c>
+      <c r="D84" t="s">
+        <v>431</v>
+      </c>
+      <c r="E84" t="s">
+        <v>8</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="B85" t="s">
+        <v>433</v>
+      </c>
+      <c r="C85" t="s">
+        <v>437</v>
+      </c>
+      <c r="D85" t="s">
+        <v>439</v>
+      </c>
+      <c r="E85" t="s">
+        <v>8</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="B86" t="s">
+        <v>434</v>
+      </c>
+      <c r="C86" t="s">
+        <v>436</v>
+      </c>
+      <c r="D86" t="s">
+        <v>440</v>
+      </c>
+      <c r="E86" t="s">
+        <v>8</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="B87" t="s">
+        <v>435</v>
+      </c>
+      <c r="C87" t="s">
+        <v>438</v>
+      </c>
+      <c r="D87" t="s">
+        <v>441</v>
+      </c>
+      <c r="E87" t="s">
+        <v>8</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="B88" t="s">
+        <v>445</v>
+      </c>
+      <c r="C88" t="s">
+        <v>453</v>
+      </c>
+      <c r="D88" t="s">
+        <v>457</v>
+      </c>
+      <c r="E88" t="s">
+        <v>8</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="B89" t="s">
+        <v>446</v>
+      </c>
+      <c r="C89" t="s">
+        <v>454</v>
+      </c>
+      <c r="D89" t="s">
+        <v>458</v>
+      </c>
+      <c r="E89" t="s">
+        <v>8</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="B90" t="s">
+        <v>447</v>
+      </c>
+      <c r="C90" t="s">
+        <v>455</v>
+      </c>
+      <c r="D90" t="s">
+        <v>459</v>
+      </c>
+      <c r="E90" t="s">
+        <v>8</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="B91" t="s">
+        <v>448</v>
+      </c>
+      <c r="C91" t="s">
+        <v>456</v>
+      </c>
+      <c r="D91" t="s">
+        <v>460</v>
+      </c>
+      <c r="E91" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="B92" t="s">
+        <v>461</v>
+      </c>
+      <c r="C92" t="s">
+        <v>463</v>
+      </c>
+      <c r="D92" t="s">
+        <v>464</v>
+      </c>
+      <c r="E92" t="s">
+        <v>8</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="B93" t="s">
+        <v>465</v>
+      </c>
+      <c r="C93" t="s">
+        <v>467</v>
+      </c>
+      <c r="D93" t="s">
+        <v>466</v>
+      </c>
+      <c r="E93" t="s">
+        <v>11</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="B94" t="s">
+        <v>468</v>
+      </c>
+      <c r="C94" t="s">
+        <v>469</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="E94" t="s">
+        <v>11</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="B95" t="s">
+        <v>473</v>
+      </c>
+      <c r="C95" t="s">
+        <v>474</v>
+      </c>
+      <c r="D95" t="s">
+        <v>475</v>
+      </c>
+      <c r="E95" t="s">
+        <v>11</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="B96" t="s">
+        <v>476</v>
+      </c>
+      <c r="C96" t="s">
+        <v>478</v>
+      </c>
+      <c r="D96" t="s">
+        <v>477</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="B97" t="s">
+        <v>479</v>
+      </c>
+      <c r="C97" t="s">
+        <v>481</v>
+      </c>
+      <c r="D97" t="s">
+        <v>480</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="B98" t="s">
+        <v>482</v>
+      </c>
+      <c r="C98" t="s">
+        <v>488</v>
+      </c>
+      <c r="D98" t="s">
+        <v>485</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="B99" t="s">
+        <v>483</v>
+      </c>
+      <c r="C99" t="s">
+        <v>489</v>
+      </c>
+      <c r="D99" t="s">
+        <v>486</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="B100" t="s">
+        <v>484</v>
+      </c>
+      <c r="C100" t="s">
+        <v>490</v>
+      </c>
+      <c r="D100" t="s">
+        <v>487</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="B101" t="s">
+        <v>491</v>
+      </c>
+      <c r="C101" t="s">
+        <v>510</v>
+      </c>
+      <c r="D101" t="s">
+        <v>509</v>
+      </c>
+      <c r="E101" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="B102" t="s">
+        <v>511</v>
+      </c>
+      <c r="C102" t="s">
+        <v>513</v>
+      </c>
+      <c r="D102" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="B103" t="s">
+        <v>514</v>
+      </c>
+      <c r="C103" t="s">
+        <v>516</v>
+      </c>
+      <c r="D103" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="B104" t="s">
+        <v>517</v>
+      </c>
+      <c r="C104" t="s">
+        <v>518</v>
+      </c>
+      <c r="D104" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="B105" t="s">
+        <v>520</v>
+      </c>
+      <c r="C105" t="s">
+        <v>522</v>
+      </c>
+      <c r="D105" t="s">
+        <v>521</v>
+      </c>
+      <c r="E105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="B106" t="s">
+        <v>523</v>
+      </c>
+      <c r="C106" t="s">
+        <v>525</v>
+      </c>
+      <c r="D106" t="s">
+        <v>524</v>
+      </c>
+      <c r="E106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="B107" t="s">
+        <v>514</v>
+      </c>
+      <c r="C107" t="s">
+        <v>527</v>
+      </c>
+      <c r="D107" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="B108" t="s">
+        <v>528</v>
+      </c>
+      <c r="C108" t="s">
+        <v>530</v>
+      </c>
+      <c r="D108" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="B109" t="s">
+        <v>531</v>
+      </c>
+      <c r="C109" t="s">
+        <v>533</v>
+      </c>
+      <c r="D109" t="s">
+        <v>532</v>
+      </c>
+      <c r="E109" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="B110" t="s">
+        <v>534</v>
+      </c>
+      <c r="C110" t="s">
+        <v>536</v>
+      </c>
+      <c r="D110" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="B111" t="s">
+        <v>537</v>
+      </c>
+      <c r="C111" t="s">
+        <v>539</v>
+      </c>
+      <c r="D111" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="B112" t="s">
+        <v>550</v>
+      </c>
+      <c r="C112" t="s">
+        <v>548</v>
+      </c>
+      <c r="D112" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="B113" t="s">
+        <v>540</v>
+      </c>
+      <c r="C113" t="s">
+        <v>549</v>
+      </c>
+      <c r="D113" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="B114" t="s">
+        <v>553</v>
+      </c>
+      <c r="C114" t="s">
+        <v>554</v>
+      </c>
+      <c r="D114" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="B115" t="s">
+        <v>552</v>
+      </c>
+      <c r="C115" t="s">
+        <v>555</v>
+      </c>
+      <c r="D115" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="B116" t="s">
+        <v>558</v>
+      </c>
+      <c r="C116" t="s">
+        <v>559</v>
+      </c>
+      <c r="D116" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="B117" t="s">
+        <v>557</v>
+      </c>
+      <c r="C117" t="s">
+        <v>560</v>
+      </c>
+      <c r="D117" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="B118" t="s">
+        <v>562</v>
+      </c>
+      <c r="C118" t="s">
+        <v>564</v>
+      </c>
+      <c r="D118" t="s">
+        <v>563</v>
+      </c>
+      <c r="E118" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="B119" t="s">
+        <v>565</v>
+      </c>
+      <c r="C119" t="s">
+        <v>566</v>
+      </c>
+      <c r="D119" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="B120" t="s">
+        <v>570</v>
+      </c>
+      <c r="C120" t="s">
+        <v>571</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="B121" t="s">
+        <v>573</v>
+      </c>
+      <c r="C121" t="s">
+        <v>574</v>
+      </c>
+      <c r="D121" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="B122" t="s">
+        <v>578</v>
+      </c>
+      <c r="C122" t="s">
+        <v>580</v>
+      </c>
+      <c r="D122" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="B123" t="s">
+        <v>581</v>
+      </c>
+      <c r="C123" t="s">
+        <v>582</v>
+      </c>
+      <c r="D123" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="B124" t="s">
+        <v>584</v>
+      </c>
+      <c r="C124" t="s">
+        <v>592</v>
+      </c>
+      <c r="D124" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="B125" t="s">
+        <v>593</v>
+      </c>
+      <c r="C125" t="s">
+        <v>595</v>
+      </c>
+      <c r="D125" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="B126" t="s">
+        <v>596</v>
+      </c>
+      <c r="C126" t="s">
+        <v>598</v>
+      </c>
+      <c r="D126" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="B127" t="s">
+        <v>599</v>
+      </c>
+      <c r="C127" t="s">
+        <v>601</v>
+      </c>
+      <c r="D127" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="B128" t="s">
+        <v>602</v>
+      </c>
+      <c r="C128" t="s">
+        <v>604</v>
+      </c>
+      <c r="D128" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="B129" t="s">
+        <v>605</v>
+      </c>
+      <c r="C129" t="s">
+        <v>608</v>
+      </c>
+      <c r="D129" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="B130" t="s">
+        <v>609</v>
+      </c>
+      <c r="C130" t="s">
+        <v>612</v>
+      </c>
+      <c r="D130" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="B131" t="s">
+        <v>610</v>
+      </c>
+      <c r="C131" t="s">
+        <v>614</v>
+      </c>
+      <c r="D131" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="B132" t="s">
+        <v>615</v>
+      </c>
+      <c r="C132" t="s">
+        <v>617</v>
+      </c>
+      <c r="D132" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="B133" t="s">
+        <v>625</v>
+      </c>
+      <c r="C133" t="s">
+        <v>627</v>
+      </c>
+      <c r="D133" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="B134" t="s">
+        <v>628</v>
+      </c>
+      <c r="C134" t="s">
+        <v>630</v>
+      </c>
+      <c r="D134" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="B135" t="s">
+        <v>631</v>
+      </c>
+      <c r="C135" t="s">
+        <v>633</v>
+      </c>
+      <c r="D135" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="B136" t="s">
+        <v>638</v>
+      </c>
+      <c r="C136" t="s">
+        <v>639</v>
+      </c>
+      <c r="D136" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="B137" t="s">
+        <v>638</v>
+      </c>
+      <c r="C137" t="s">
+        <v>640</v>
+      </c>
+      <c r="D137" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="B138" t="s">
+        <v>642</v>
+      </c>
+      <c r="C138" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="B139" t="s">
+        <v>643</v>
+      </c>
+      <c r="C139" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="B140" t="s">
+        <v>644</v>
+      </c>
+      <c r="C140" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="B141" t="s">
+        <v>645</v>
+      </c>
+      <c r="C141" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="B142" t="s">
+        <v>646</v>
+      </c>
+      <c r="C142" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="B143" t="s">
+        <v>647</v>
+      </c>
+      <c r="C143" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="B144" t="s">
+        <v>648</v>
+      </c>
+      <c r="C144" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="B145" t="s">
+        <v>649</v>
+      </c>
+      <c r="C145" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="B146" t="s">
+        <v>650</v>
+      </c>
+      <c r="C146" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="B147" t="s">
+        <v>651</v>
+      </c>
+      <c r="C147" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="B148" t="s">
+        <v>652</v>
+      </c>
+      <c r="C148" t="s">
+        <v>671</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F45">
+    <sortState ref="A2:F45">
+      <sortCondition ref="A1:A45"/>
+    </sortState>
+  </autoFilter>
+  <sortState ref="H2:H100">
+    <sortCondition ref="H2:H100"/>
+  </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/documentos/Dicionario_de_dados_planilha.xlsx
+++ b/documentos/Dicionario_de_dados_planilha.xlsx
@@ -7,19 +7,19 @@
     <workbookView xWindow="0" yWindow="75" windowWidth="38355" windowHeight="12600"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="TODAS_VARIAVEIS" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$F$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TODAS_VARIAVEIS!$A$1:$F$45</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="852">
   <si>
     <t>Nome do Campo</t>
   </si>
@@ -2035,6 +2035,546 @@
   </si>
   <si>
     <t>DS_AN_OUT</t>
+  </si>
+  <si>
+    <t>68-Laboratório que realizou o Teste antigênico (CNES)</t>
+  </si>
+  <si>
+    <t>Resultado do Teste Antigênico que foi positivo para Influenza</t>
+  </si>
+  <si>
+    <t>Resultado do Teste Antigênico, para o tipo de Influenza.</t>
+  </si>
+  <si>
+    <t>Resultado do Teste Antigênico, que foi positivo para outro vírus respiratório.</t>
+  </si>
+  <si>
+    <t>Resultado do Teste Antigênico, para SARS-CoV-2.</t>
+  </si>
+  <si>
+    <t>Resultado do Teste Antigênico, para VSR.</t>
+  </si>
+  <si>
+    <t>Resultado do Teste Antigênico, para Parainfluenza 1.</t>
+  </si>
+  <si>
+    <t>Resultado do Teste Antigênico. Parainfluenza 2</t>
+  </si>
+  <si>
+    <t>Resultado do Teste Antigênico. Parainfluenza 3</t>
+  </si>
+  <si>
+    <t>Resultado do Teste Antigênico. Adenovírus.</t>
+  </si>
+  <si>
+    <t>Resultado do Teste Antigênico.Outro vírus respiratório</t>
+  </si>
+  <si>
+    <t>Nome do outro vírus respiratório identificado pelo Teste Antigênico.</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>70-Resultado da RT-PCR/outro método por Biologia Molecular</t>
+  </si>
+  <si>
+    <t>PCR_RESUL</t>
+  </si>
+  <si>
+    <t>Resultado do teste de RT-PCR/outro método por Biologia Molecular</t>
+  </si>
+  <si>
+    <t>71-Data do Resultado RT-PCR/outro método por Biologia Molecular</t>
+  </si>
+  <si>
+    <t>DT_PCR</t>
+  </si>
+  <si>
+    <t>Data do Resultado RT-PCR/outro método por Biologia Molecular</t>
+  </si>
+  <si>
+    <t>72- Agente etiológico – RT-PCR/outro método por Biologia Molecular: Positivo para Influenza?</t>
+  </si>
+  <si>
+    <t>72- Agente etiológico – RT-PCR/outro método por Biologia Molecular: Se sim, qual Influenza?</t>
+  </si>
+  <si>
+    <t>72- Agente etiológico – RT-PCR/outro método por Biologia Molecular: Se Influenza A, qual subtipo?</t>
+  </si>
+  <si>
+    <t>72- Agente etiológico – RT-PCR/outro método por Biologia Molecular: Se Influenza A, qual subtipo? Outro, especifique:</t>
+  </si>
+  <si>
+    <t>72- Agente etiológico – RT-PCR/outro método por Biologia Molecular: Se Influenza B, qual linhagem?</t>
+  </si>
+  <si>
+    <t>72- Agente etiológico – RT-PCR/outro método por Biologia Molecular: Se Influenza B, qual linhagem? Outro, especifique:</t>
+  </si>
+  <si>
+    <t>72- Agente etiológico – RT-PCR/outro método por Biologia Molecular: Positivo para outros vírus?</t>
+  </si>
+  <si>
+    <t>72- Agente etiológico – RT-PCR/outro método por Biologia Molecular: SARS-CoV-2</t>
+  </si>
+  <si>
+    <t>72- Agente etiológico – RT-PCR/outro método por Biologia Molecular: VSR</t>
+  </si>
+  <si>
+    <t>72- Agente etiológico – RT-PCR/outro método por Biologia Molecular: Parainfluenza 1</t>
+  </si>
+  <si>
+    <t>72- Agente etiológico – RT-PCR/outro método por Biologia Molecular: Parainfluenza 2</t>
+  </si>
+  <si>
+    <t>72- Agente etiológico – RT-PCR/outro método por Biologia Molecular: Parainfluenza 3</t>
+  </si>
+  <si>
+    <t>72- Agente etiológico – RT-PCR/outro método por Biologia Molecular: Parainfluenza 4</t>
+  </si>
+  <si>
+    <t>72- Agente etiológico – RT-PCR/outro método por Biologia Molecular: Adenovírus</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>72- Agente etiológico – RT-PCR/outro método por Biologia Molecular: Metapneumovírus</t>
+  </si>
+  <si>
+    <t>72- Agente etiológico – RT-PCR/outro método por Biologia Molecular: Bocavírus</t>
+  </si>
+  <si>
+    <t>72- Agente etiológico – RT-PCR/outro método por Biologia Molecular: Rinovírus</t>
+  </si>
+  <si>
+    <t>72- Agente etiológico – RT-PCR/outro método por Biologia Molecular: Outro vírus respiratório, especifique:</t>
+  </si>
+  <si>
+    <t>POS_PCRFLU</t>
+  </si>
+  <si>
+    <t>TP_FLU_PCR</t>
+  </si>
+  <si>
+    <t>PCR_FLUASU</t>
+  </si>
+  <si>
+    <t>FLUASU_OUT</t>
+  </si>
+  <si>
+    <t>PCR_FLUBLI</t>
+  </si>
+  <si>
+    <t>FLUBLI_OUT</t>
+  </si>
+  <si>
+    <t>POS_PCROUT</t>
+  </si>
+  <si>
+    <t>PCR_ SARS2</t>
+  </si>
+  <si>
+    <t>PCR_VSR</t>
+  </si>
+  <si>
+    <t>PCR_PARA1</t>
+  </si>
+  <si>
+    <t>PCR_PARA2</t>
+  </si>
+  <si>
+    <t>PCR_PARA3</t>
+  </si>
+  <si>
+    <t>PCR_PARA4</t>
+  </si>
+  <si>
+    <t>PCR_ADENO</t>
+  </si>
+  <si>
+    <t>PCR_METAP</t>
+  </si>
+  <si>
+    <t>PCR_BOCA</t>
+  </si>
+  <si>
+    <t>PCR_RINO</t>
+  </si>
+  <si>
+    <t>PCR_OUTRO</t>
+  </si>
+  <si>
+    <t>DS_PCR_OUT</t>
+  </si>
+  <si>
+    <t>Resultado da RTPCR foi positivo para Influenza</t>
+  </si>
+  <si>
+    <t>Resultado diagnóstico do RTPCR para o tipo de Influenza.</t>
+  </si>
+  <si>
+    <t>Subtipo para Influenza A.</t>
+  </si>
+  <si>
+    <t>Outro subtipo para Influenza A.</t>
+  </si>
+  <si>
+    <t>Linhagem para Influenza B.</t>
+  </si>
+  <si>
+    <t>Outra linhagem para Influenza B</t>
+  </si>
+  <si>
+    <t>Resultado da RTPCR foi positivo para outro vírus respiratório</t>
+  </si>
+  <si>
+    <t>Resultado diagnóstico do RTPCR para (SARS-CoV2).</t>
+  </si>
+  <si>
+    <t>Resultado diagnóstico do RTPCR para (VSR).</t>
+  </si>
+  <si>
+    <t>Resultado diagnóstico do RTPCR para Parainfluenza 1.</t>
+  </si>
+  <si>
+    <t>Resultado diagnóstico do RTPCR para Parainfluenza 2.</t>
+  </si>
+  <si>
+    <t>Resultado diagnóstico do RTPCR para Parainfluenza 3.</t>
+  </si>
+  <si>
+    <t>Resultado diagnóstico do RTPCR para Parainfluenza 4.</t>
+  </si>
+  <si>
+    <t>Resultado diagnóstico do RTPCR para Adenovírus.</t>
+  </si>
+  <si>
+    <t>Resultado diagnóstico do RTPCR para Metapneumovírus.</t>
+  </si>
+  <si>
+    <t>Resultado diagnóstico do RTPCR para Bocavírus.</t>
+  </si>
+  <si>
+    <t>Resultado diagnóstico do RTPCR para Rinovírus.</t>
+  </si>
+  <si>
+    <t>Resultado diagnóstico do RTPCR para Outro vírus respiratório.</t>
+  </si>
+  <si>
+    <t>Nome do outro vírus respiratório identificado pelo RT-PCR.</t>
+  </si>
+  <si>
+    <t>73-Laboratório que realizou RTPCR/outro método por Biologia Molecular Código (CNES)</t>
+  </si>
+  <si>
+    <t>Laboratório responsável pela liberação do resultado do teste diagnóstico (RTPCR) da amostra do paciente</t>
+  </si>
+  <si>
+    <t>LAB_PCR</t>
+  </si>
+  <si>
+    <t>CO_LAB_PCR</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>74- Tipo de Amostra Sorológica para SARS-Cov-2</t>
+  </si>
+  <si>
+    <t>Tipo de amostra sorológica que foi coletada</t>
+  </si>
+  <si>
+    <t>TP_AM_SOR</t>
+  </si>
+  <si>
+    <t>Tipo de Amostra Sorológica para SARSCov-2/Outra, qual?</t>
+  </si>
+  <si>
+    <t>SOR_OUT</t>
+  </si>
+  <si>
+    <t>Descrição do tipo da amostra clínica, caso diferente das listadas na categoria um (1) do campo.</t>
+  </si>
+  <si>
+    <t>75- Data da coleta</t>
+  </si>
+  <si>
+    <t>DT_CO_SOR</t>
+  </si>
+  <si>
+    <t>Data da coleta do material para diagnóstico por Sorologia.</t>
+  </si>
+  <si>
+    <t>76- Tipo de Sorologia para SARS-Cov-2</t>
+  </si>
+  <si>
+    <t>Tipo do Teste Sorológico que foi realizado</t>
+  </si>
+  <si>
+    <t>TP_SOR</t>
+  </si>
+  <si>
+    <t>Descrição do tipo de Teste Sorológico</t>
+  </si>
+  <si>
+    <t>OUT_SOR</t>
+  </si>
+  <si>
+    <t>76- Tipo de Sorologia para SARS-Cov2/Outro, qual?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76- Resultado do Teste Sorológico para SARS-CoV-2: </t>
+  </si>
+  <si>
+    <t>76- Resultado do Teste Sorológico para SARS-CoV-2:</t>
+  </si>
+  <si>
+    <t>RES_IGA</t>
+  </si>
+  <si>
+    <t>Resultado da Sorologia para SARS-CoV-2</t>
+  </si>
+  <si>
+    <t>RES_IGM</t>
+  </si>
+  <si>
+    <t>RES_IGG</t>
+  </si>
+  <si>
+    <t>Outro tipo de amostra Sorológica</t>
+  </si>
+  <si>
+    <t>77- Data do Resultado</t>
+  </si>
+  <si>
+    <t>Data do Resultado do Teste Sorológico</t>
+  </si>
+  <si>
+    <t>DT_RES</t>
+  </si>
+  <si>
+    <t>78-Classificação final do caso</t>
+  </si>
+  <si>
+    <t>Diagnóstico final do caso. Se tiver resultados divergentes entre as metodologias laboratoriais, priorizar o resultado do RTPCR.</t>
+  </si>
+  <si>
+    <t>CLASSI_FIN</t>
+  </si>
+  <si>
+    <t>78-Classificação final do caso 3-SRAG por outra causa , qual:</t>
+  </si>
+  <si>
+    <t>CLASSI_OUT</t>
+  </si>
+  <si>
+    <t>Descrição de qual outro agente etiológico foi identificado</t>
+  </si>
+  <si>
+    <t>79–Critério de Encerramento</t>
+  </si>
+  <si>
+    <t>Indicar qual o critério de confirmação</t>
+  </si>
+  <si>
+    <t>CRITERIO</t>
+  </si>
+  <si>
+    <t>80–Evolução do caso</t>
+  </si>
+  <si>
+    <t>Evolução do caso</t>
+  </si>
+  <si>
+    <t>EVOLUCAO</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>81–Data da alta ou óbito</t>
+  </si>
+  <si>
+    <t>Data da alta ou óbito</t>
+  </si>
+  <si>
+    <t>DT_EVOLUCA</t>
+  </si>
+  <si>
+    <t>82-Data do Encerramento</t>
+  </si>
+  <si>
+    <t>DT_ENCERRA</t>
+  </si>
+  <si>
+    <t>Data do encerramento do caso.</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>83- Número D.O</t>
+  </si>
+  <si>
+    <t>NU_DO</t>
+  </si>
+  <si>
+    <t>Número da Declaração de Óbito</t>
+  </si>
+  <si>
+    <t>84-Observações</t>
+  </si>
+  <si>
+    <t>Outras observações sobre o paciente consideradas pertinentes.</t>
+  </si>
+  <si>
+    <t>OBSERVA</t>
+  </si>
+  <si>
+    <t>85-Profissional de Saúde Responsável</t>
+  </si>
+  <si>
+    <t>Nome completo do profissional de saúde (sem abreviações) responsável pela notificação.</t>
+  </si>
+  <si>
+    <t>NOME_PROF</t>
+  </si>
+  <si>
+    <t>86-Registro Conselho/Matrícula</t>
+  </si>
+  <si>
+    <t>REG_PROF</t>
+  </si>
+  <si>
+    <t>Número do conselho ou matrícula do profissional de saúde responsável pela notificação (Ex: CRM/RJ 1234)</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>Data da digitação</t>
+  </si>
+  <si>
+    <t>DT_DIGITA</t>
+  </si>
+  <si>
+    <t>Data de inclusão do registro no sistema</t>
   </si>
 </sst>
 </file>
@@ -2411,18 +2951,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H148"/>
+  <dimension ref="A1:H194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="C148" sqref="C148"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="B197" sqref="B197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="80.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.140625" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="168" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="116.28515625" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
@@ -5107,7 +5647,7 @@
         <v>634</v>
       </c>
       <c r="B137" t="s">
-        <v>638</v>
+        <v>672</v>
       </c>
       <c r="C137" t="s">
         <v>640</v>
@@ -5126,6 +5666,9 @@
       <c r="C138" t="s">
         <v>661</v>
       </c>
+      <c r="D138" t="s">
+        <v>673</v>
+      </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="4" t="s">
@@ -5137,6 +5680,9 @@
       <c r="C139" t="s">
         <v>662</v>
       </c>
+      <c r="D139" t="s">
+        <v>674</v>
+      </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="4" t="s">
@@ -5148,6 +5694,9 @@
       <c r="C140" t="s">
         <v>663</v>
       </c>
+      <c r="D140" t="s">
+        <v>675</v>
+      </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="4" t="s">
@@ -5159,6 +5708,9 @@
       <c r="C141" t="s">
         <v>664</v>
       </c>
+      <c r="D141" t="s">
+        <v>676</v>
+      </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="4" t="s">
@@ -5170,6 +5722,9 @@
       <c r="C142" t="s">
         <v>665</v>
       </c>
+      <c r="D142" t="s">
+        <v>677</v>
+      </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="4" t="s">
@@ -5181,6 +5736,9 @@
       <c r="C143" t="s">
         <v>666</v>
       </c>
+      <c r="D143" t="s">
+        <v>678</v>
+      </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="4" t="s">
@@ -5192,8 +5750,11 @@
       <c r="C144" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="145" spans="1:3">
+      <c r="D144" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
       <c r="A145" s="4" t="s">
         <v>657</v>
       </c>
@@ -5203,8 +5764,11 @@
       <c r="C145" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="146" spans="1:3">
+      <c r="D145" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
       <c r="A146" s="4" t="s">
         <v>658</v>
       </c>
@@ -5214,8 +5778,11 @@
       <c r="C146" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="147" spans="1:3">
+      <c r="D146" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
       <c r="A147" s="4" t="s">
         <v>659</v>
       </c>
@@ -5225,8 +5792,11 @@
       <c r="C147" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="148" spans="1:3">
+      <c r="D147" s="7" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
       <c r="A148" s="4" t="s">
         <v>660</v>
       </c>
@@ -5236,6 +5806,631 @@
       <c r="C148" t="s">
         <v>671</v>
       </c>
+      <c r="D148" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="B149" t="s">
+        <v>699</v>
+      </c>
+      <c r="C149" t="s">
+        <v>700</v>
+      </c>
+      <c r="D149" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="B150" t="s">
+        <v>702</v>
+      </c>
+      <c r="C150" t="s">
+        <v>703</v>
+      </c>
+      <c r="D150" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="B151" t="s">
+        <v>705</v>
+      </c>
+      <c r="C151" t="s">
+        <v>730</v>
+      </c>
+      <c r="D151" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="B152" t="s">
+        <v>706</v>
+      </c>
+      <c r="C152" t="s">
+        <v>731</v>
+      </c>
+      <c r="D152" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="B153" t="s">
+        <v>707</v>
+      </c>
+      <c r="C153" t="s">
+        <v>732</v>
+      </c>
+      <c r="D153" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="B154" t="s">
+        <v>708</v>
+      </c>
+      <c r="C154" t="s">
+        <v>733</v>
+      </c>
+      <c r="D154" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="B155" t="s">
+        <v>709</v>
+      </c>
+      <c r="C155" t="s">
+        <v>734</v>
+      </c>
+      <c r="D155" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="B156" t="s">
+        <v>710</v>
+      </c>
+      <c r="C156" t="s">
+        <v>735</v>
+      </c>
+      <c r="D156" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="B157" t="s">
+        <v>711</v>
+      </c>
+      <c r="C157" t="s">
+        <v>736</v>
+      </c>
+      <c r="D157" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="B158" t="s">
+        <v>712</v>
+      </c>
+      <c r="C158" t="s">
+        <v>737</v>
+      </c>
+      <c r="D158" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="B159" t="s">
+        <v>713</v>
+      </c>
+      <c r="C159" t="s">
+        <v>738</v>
+      </c>
+      <c r="D159" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="B160" t="s">
+        <v>714</v>
+      </c>
+      <c r="C160" t="s">
+        <v>739</v>
+      </c>
+      <c r="D160" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="B161" t="s">
+        <v>715</v>
+      </c>
+      <c r="C161" t="s">
+        <v>740</v>
+      </c>
+      <c r="D161" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="B162" t="s">
+        <v>716</v>
+      </c>
+      <c r="C162" t="s">
+        <v>741</v>
+      </c>
+      <c r="D162" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="B163" t="s">
+        <v>717</v>
+      </c>
+      <c r="C163" t="s">
+        <v>742</v>
+      </c>
+      <c r="D163" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="B164" t="s">
+        <v>718</v>
+      </c>
+      <c r="C164" t="s">
+        <v>743</v>
+      </c>
+      <c r="D164" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="B165" t="s">
+        <v>726</v>
+      </c>
+      <c r="C165" t="s">
+        <v>744</v>
+      </c>
+      <c r="D165" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="B166" t="s">
+        <v>727</v>
+      </c>
+      <c r="C166" t="s">
+        <v>745</v>
+      </c>
+      <c r="D166" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="B167" t="s">
+        <v>728</v>
+      </c>
+      <c r="C167" t="s">
+        <v>746</v>
+      </c>
+      <c r="D167" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="B168" t="s">
+        <v>729</v>
+      </c>
+      <c r="C168" t="s">
+        <v>747</v>
+      </c>
+      <c r="D168" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="B169" t="s">
+        <v>729</v>
+      </c>
+      <c r="C169" t="s">
+        <v>748</v>
+      </c>
+      <c r="D169" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="B170" t="s">
+        <v>768</v>
+      </c>
+      <c r="C170" t="s">
+        <v>770</v>
+      </c>
+      <c r="D170" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="B171" t="s">
+        <v>768</v>
+      </c>
+      <c r="C171" t="s">
+        <v>771</v>
+      </c>
+      <c r="D171" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="B172" t="s">
+        <v>786</v>
+      </c>
+      <c r="C172" t="s">
+        <v>788</v>
+      </c>
+      <c r="D172" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="B173" t="s">
+        <v>789</v>
+      </c>
+      <c r="C173" t="s">
+        <v>790</v>
+      </c>
+      <c r="D173" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="B174" t="s">
+        <v>792</v>
+      </c>
+      <c r="C174" t="s">
+        <v>793</v>
+      </c>
+      <c r="D174" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="B175" t="s">
+        <v>795</v>
+      </c>
+      <c r="C175" t="s">
+        <v>797</v>
+      </c>
+      <c r="D175" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="B176" t="s">
+        <v>795</v>
+      </c>
+      <c r="C176" t="s">
+        <v>799</v>
+      </c>
+      <c r="D176" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="B177" t="s">
+        <v>800</v>
+      </c>
+      <c r="C177" t="s">
+        <v>790</v>
+      </c>
+      <c r="D177" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="C178" t="s">
+        <v>806</v>
+      </c>
+      <c r="D178" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="B179" t="s">
+        <v>802</v>
+      </c>
+      <c r="C179" t="s">
+        <v>805</v>
+      </c>
+      <c r="D179" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="B180" t="s">
+        <v>802</v>
+      </c>
+      <c r="C180" t="s">
+        <v>803</v>
+      </c>
+      <c r="D180" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="B181" t="s">
+        <v>808</v>
+      </c>
+      <c r="C181" t="s">
+        <v>810</v>
+      </c>
+      <c r="D181" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="B182" t="s">
+        <v>811</v>
+      </c>
+      <c r="C182" t="s">
+        <v>813</v>
+      </c>
+      <c r="D182" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="B183" t="s">
+        <v>814</v>
+      </c>
+      <c r="C183" t="s">
+        <v>815</v>
+      </c>
+      <c r="D183" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="B184" t="s">
+        <v>817</v>
+      </c>
+      <c r="C184" t="s">
+        <v>819</v>
+      </c>
+      <c r="D184" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="B185" t="s">
+        <v>820</v>
+      </c>
+      <c r="C185" t="s">
+        <v>822</v>
+      </c>
+      <c r="D185" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="B186" t="s">
+        <v>825</v>
+      </c>
+      <c r="C186" t="s">
+        <v>827</v>
+      </c>
+      <c r="D186" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="B187" t="s">
+        <v>828</v>
+      </c>
+      <c r="C187" t="s">
+        <v>829</v>
+      </c>
+      <c r="D187" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="B188" t="s">
+        <v>835</v>
+      </c>
+      <c r="C188" t="s">
+        <v>836</v>
+      </c>
+      <c r="D188" s="7" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="B189" t="s">
+        <v>838</v>
+      </c>
+      <c r="C189" t="s">
+        <v>840</v>
+      </c>
+      <c r="D189" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="B190" t="s">
+        <v>841</v>
+      </c>
+      <c r="C190" t="s">
+        <v>843</v>
+      </c>
+      <c r="D190" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="B191" t="s">
+        <v>844</v>
+      </c>
+      <c r="C191" t="s">
+        <v>845</v>
+      </c>
+      <c r="D191" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="B192" t="s">
+        <v>849</v>
+      </c>
+      <c r="C192" t="s">
+        <v>850</v>
+      </c>
+      <c r="D192" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="4"/>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F45">

--- a/documentos/Dicionario_de_dados_planilha.xlsx
+++ b/documentos/Dicionario_de_dados_planilha.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TODAS_VARIAVEIS!$A$1:$F$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TODAS_VARIAVEIS!$A$1:$H$194</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="852">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="742">
   <si>
     <t>Nome do Campo</t>
   </si>
@@ -921,237 +921,6 @@
     <t>35-Fatores de risco/ Outros (Descrição)</t>
   </si>
   <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
     <t>36- Recebeu vacina COVID-19?</t>
   </si>
   <si>
@@ -1257,9 +1026,6 @@
     <t>Listar outro(s) fator(es) de risco do paciente.</t>
   </si>
   <si>
-    <t>78</t>
-  </si>
-  <si>
     <t>37- Data 1ª dose da vacina COVID-19 V</t>
   </si>
   <si>
@@ -1275,21 +1041,6 @@
     <t>38- Fabricante 1ª dose da vacina COVID-19</t>
   </si>
   <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
     <t>DOSE_1_COV</t>
   </si>
   <si>
@@ -1347,15 +1098,6 @@
     <t>Informar o fabricante da vacina, que o paciente recebeu na 2ª dose reforço</t>
   </si>
   <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
     <t>39- Lote da vacina COVID-19: Lote 1ª Dose</t>
   </si>
   <si>
@@ -1368,18 +1110,6 @@
     <t>39- Lote da vacina COVID-19: Lote 2ª dose reforço</t>
   </si>
   <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
     <t>LOTE_1_COV</t>
   </si>
   <si>
@@ -1407,9 +1137,6 @@
     <t>39- Fonte dos dados/informação sobre a vacina COVID-19</t>
   </si>
   <si>
-    <t>91</t>
-  </si>
-  <si>
     <t>FNT_IN_COV</t>
   </si>
   <si>
@@ -1431,12 +1158,6 @@
     <t>DT_UT_DOSE</t>
   </si>
   <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
     <t>Data da última dose de vacina contra gripe que o paciente tomou.</t>
   </si>
   <si>
@@ -1491,63 +1212,12 @@
     <t>DT_1_DOSE</t>
   </si>
   <si>
-    <t>DR_2_DOSE</t>
-  </si>
-  <si>
     <t>42-Usou antiviral para gripe?</t>
   </si>
   <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
     <t>99</t>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
     <t>Fez uso de antiviral para tratamento da doença?</t>
   </si>
   <si>
@@ -1644,27 +1314,6 @@
     <t>Regional de Saúde de Internação Código (IBGE)</t>
   </si>
   <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
     <t>ID_RG_INTE</t>
   </si>
   <si>
@@ -1725,12 +1374,6 @@
     <t>Data de entrada do paciente na unidade de Terapia intensiva (UTI).</t>
   </si>
   <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
     <t>55-Data da saída da UTI</t>
   </si>
   <si>
@@ -1749,12 +1392,6 @@
     <t>O paciente fez uso de suporte ventilatório?</t>
   </si>
   <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
     <t>57- Raio X de Tórax</t>
   </si>
   <si>
@@ -1776,24 +1413,6 @@
     <t>58-Data do Raio X</t>
   </si>
   <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
     <t>Se realizou RX de Tórax, especificar a data do exame.</t>
   </si>
   <si>
@@ -1839,9 +1458,6 @@
     <t>62-Data da Coleta</t>
   </si>
   <si>
-    <t>128</t>
-  </si>
-  <si>
     <t>Data da coleta da amostra para realização do teste diagnóstico.</t>
   </si>
   <si>
@@ -1875,27 +1491,6 @@
     <t>REQUI_GAL</t>
   </si>
   <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
     <t>65- Tipo do Teste antigênico</t>
   </si>
   <si>
@@ -1923,18 +1518,6 @@
     <t>RES_AN</t>
   </si>
   <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>137</t>
-  </si>
-  <si>
-    <t>138</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
     <t>68-Laboratório que realizou o Teste antigênico</t>
   </si>
   <si>
@@ -1980,30 +1563,6 @@
     <t>69- Agente etiológico – Teste Antigênico. Outro vírus respiratório (Descrição)</t>
   </si>
   <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
     <t>POS_AN_FLU</t>
   </si>
   <si>
@@ -2073,51 +1632,6 @@
     <t>Nome do outro vírus respiratório identificado pelo Teste Antigênico.</t>
   </si>
   <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>154</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>156</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>162</t>
-  </si>
-  <si>
     <t>70-Resultado da RT-PCR/outro método por Biologia Molecular</t>
   </si>
   <si>
@@ -2178,27 +1692,6 @@
     <t>72- Agente etiológico – RT-PCR/outro método por Biologia Molecular: Adenovírus</t>
   </si>
   <si>
-    <t>163</t>
-  </si>
-  <si>
-    <t>164</t>
-  </si>
-  <si>
-    <t>165</t>
-  </si>
-  <si>
-    <t>166</t>
-  </si>
-  <si>
-    <t>167</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
     <t>72- Agente etiológico – RT-PCR/outro método por Biologia Molecular: Metapneumovírus</t>
   </si>
   <si>
@@ -2337,48 +1830,6 @@
     <t>CO_LAB_PCR</t>
   </si>
   <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>174</t>
-  </si>
-  <si>
-    <t>175</t>
-  </si>
-  <si>
-    <t>176</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>178</t>
-  </si>
-  <si>
-    <t>179</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>181</t>
-  </si>
-  <si>
-    <t>182</t>
-  </si>
-  <si>
-    <t>183</t>
-  </si>
-  <si>
     <t>74- Tipo de Amostra Sorológica para SARS-Cov-2</t>
   </si>
   <si>
@@ -2490,12 +1941,6 @@
     <t>EVOLUCAO</t>
   </si>
   <si>
-    <t>184</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
     <t>81–Data da alta ou óbito</t>
   </si>
   <si>
@@ -2514,18 +1959,6 @@
     <t>Data do encerramento do caso.</t>
   </si>
   <si>
-    <t>186</t>
-  </si>
-  <si>
-    <t>187</t>
-  </si>
-  <si>
-    <t>188</t>
-  </si>
-  <si>
-    <t>189</t>
-  </si>
-  <si>
     <t>83- Número D.O</t>
   </si>
   <si>
@@ -2562,12 +1995,6 @@
     <t>Número do conselho ou matrícula do profissional de saúde responsável pela notificação (Ex: CRM/RJ 1234)</t>
   </si>
   <si>
-    <t>190</t>
-  </si>
-  <si>
-    <t>191</t>
-  </si>
-  <si>
     <t>Data da digitação</t>
   </si>
   <si>
@@ -2575,13 +2002,259 @@
   </si>
   <si>
     <t>Data de inclusão do registro no sistema</t>
+  </si>
+  <si>
+    <t>DT_NOTIFIC: chr  "05/01/2021" "04/01/2021" "08/01/2021" "10/01/2021" ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ SEM_NOT   : int  1 1 1 2 2 2 1 2 2 2 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ DT_SIN_PRI: chr  "05/01/2021" "04/01/2021" "07/01/2021" "03/01/2021" ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ SEM_PRI   : int  1 1 1 1 1 1 1 1 2 1 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ SG_UF_NOT : chr  "BA" "MG" "SP" "SP" ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ ID_REGIONA: chr  "NUCLEO REGIONAL DE SAUDE LESTE" "SETE LAGOAS" "GVE X OSASCO" "GVE I CAPITAL" ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ CO_REGIONA: int  1380 1467 1335 1331 NA 1519 1335 1576 1398 1337 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ ID_MUNICIP: chr  "SALVADOR" "CURVELO" "TABOAO DA SERRA" "SAO PAULO" ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ CO_MUN_NOT: int  292740 312090 355280 355030 530010 230440 353440 355540 293330 355370 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ ID_UNIDADE: chr  "HOSPITAL ALIANCA" "HOSPITAL SANTO ANTONIO" "UNIDADE MISTA DE SAUDE DE TABOAO DA SERRA" "SAO LUIZ UNIDADE MORUMBI" ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ CO_UNI_NOT: int  2389746 2178559 2785188 3824802 10529 2611686 2079887 2702193 2402076 2078295 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ CS_SEXO   : chr  "F" "F" "M" "M" ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ DT_NASC   : chr  "08/12/1946" "09/03/1947" "26/05/2019" "29/09/1983" ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ NU_IDADE_N: int  74 73 1 37 62 68 54 45 47 66 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ TP_IDADE  : int  3 3 3 3 3 3 3 3 3 3 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ COD_IDADE : chr  "3074" "3073" "3001" "3037" ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ CS_GESTANT: int  6 5 6 6 6 6 6 6 6 5 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ CS_RACA   : int  9 4 4 1 9 4 1 1 4 1 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ CS_ESCOL_N: int  9 9 NA 9 NA 9 3 NA NA 4 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ SG_UF     : chr  "BA" "MG" "SP" "SP" ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ ID_RG_RESI: chr  "NUCLEO REGIONAL DE SAUDE LESTE" "SETE LAGOAS" "GVE X OSASCO" "GVE I CAPITAL" ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ CO_RG_RESI: int  1380 1467 1335 1331 6262 5584 1335 1576 1398 1337 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ ID_MN_RESI: chr  "SALVADOR" "CURVELO" "EMBU DAS ARTES" "SAO PAULO" ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ CO_MUN_RES: int  292740 312090 351500 355030 530120 130260 353440 355540 293330 355370 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ CS_ZONA   : int  1 1 1 NA 1 1 1 NA 2 1 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ SURTO_SG  : int  NA 2 NA 2 NA 9 NA 1 2 2 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ NOSOCOMIAL: int  2 2 2 2 9 9 2 NA 2 2 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ AVE_SUINO : int  NA 2 2 9 9 9 2 2 9 2 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ FEBRE     : int  1 2 1 1 1 1 1 1 2 1 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ TOSSE     : int  2 2 1 NA 1 1 1 1 2 1 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ GARGANTA  : int  2 2 9 NA 2 NA 2 NA 2 2 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ DISPNEIA  : int  2 1 1 NA 1 NA 1 1 2 1 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ DESC_RESP : int  2 1 1 NA 1 1 1 1 2 1 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ SATURACAO : int  2 2 1 1 1 NA 1 1 1 2 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ DIARREIA  : int  2 2 2 1 2 NA 2 NA 2 1 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ VOMITO    : int  2 2 1 NA 2 NA 2 NA 1 1 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ OUTRO_SIN : int  NA 2 1 1 2 NA 2 NA 1 1 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ OUTRO_DES : chr  "" "" "OTALGIA" "CALAFRIOS" ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ PUERPERA  : int  2 2 NA NA 2 NA NA NA 2 NA ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ FATOR_RISC: int  1 1 2 2 1 1 2 2 1 2 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ CARDIOPATI: int  1 1 NA NA 2 1 NA NA 2 NA ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ HEMATOLOGI: int  2 2 NA NA 2 NA NA NA 2 NA ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ SIND_DOWN : int  2 2 NA NA 2 NA NA NA 2 NA ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ HEPATICA  : int  2 2 NA NA 2 NA NA NA 2 NA ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ ASMA      : int  2 2 NA NA 1 NA NA NA 2 NA ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ DIABETES  : int  1 2 NA NA 2 NA NA NA 2 NA ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ NEUROLOGIC: int  2 1 NA NA 2 NA NA NA 2 NA ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ PNEUMOPATI: int  2 2 NA NA 2 NA NA NA 2 NA ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ IMUNODEPRE: int  2 2 NA NA 2 NA NA NA 2 NA ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ RENAL     : int  2 2 NA NA 2 NA NA NA 2 NA ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ OBESIDADE : int  2 2 NA NA 2 NA NA NA 2 NA ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ OUT_MORBI : int  1 2 NA NA 2 NA NA NA 1 NA ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ MORB_DESC : chr  "HAS,DLP,DAOP" "" "" "" ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ VACINA    : int  9 1 1 9 9 9 2 NA 2 NA ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ DT_UT_DOSE: chr  "" "30/04/2020" "" "" ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ ANTIVIRAL : int  9 2 1 2 2 2 2 NA NA 2 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ TP_ANTIVIR: int  NA NA 1 NA NA NA NA NA NA NA ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ DT_ANTIVIR: chr  "" "" "08/01/2021" "" ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ HOSPITAL  : int  1 1 1 1 1 1 1 1 1 1 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ DT_INTERNA: chr  "05/01/2021" "05/01/2021" "08/01/2021" "08/01/2021" ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ SG_UF_INTE: chr  "BA" "MG" "SP" "SP" ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ ID_RG_INTE: chr  "NUCLEO REGIONAL DE SAUDE LESTE" "SETE LAGOAS" "GVE X OSASCO" "GVE I CAPITAL" ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ CO_RG_INTE: int  1380 1467 1335 1331 NA 1519 1335 1576 1398 1337 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ ID_MN_INTE: chr  "SALVADOR" "CURVELO" "TABOAO DA SERRA" "SAO PAULO" ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ CO_MU_INTE: int  292740 312090 355280 355030 530010 230440 353440 355540 293330 355370 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ UTI       : int  1 1 2 2 2 1 1 2 NA 2 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ DT_ENTUTI : chr  "05/01/2021" "05/01/2021" "" "" ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ DT_SAIDUTI: chr  "11/01/2021" "" "" "" ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ SUPORT_VEN: int  1 2 2 3 2 2 2 2 3 NA ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ RAIOX_RES : int  9 2 3 NA 6 NA 5 NA NA 6 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ DT_RAIOX  : chr  "" "05/01/2021" "08/01/2021" "" ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ AMOSTRA   : int  1 1 1 1 1 1 1 1 1 1 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ DT_COLETA : chr  "06/01/2021" "05/01/2021" "08/01/2021" "07/01/2021" ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ TP_AMOSTRA: int  1 1 1 1 1 1 1 1 1 1 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ OUT_AMOST : chr  "" "" "" "" ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ PCR_RESUL : int  2 2 2 1 2 1 4 1 2 1 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ DT_PCR    : chr  "07/01/2021" "05/01/2021" "11/01/2021" "08/01/2021" ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ POS_PCRFLU: int  NA NA NA NA NA 9 NA NA NA NA ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ POS_PCROUT: int  NA NA NA 1 NA 1 NA 1 NA 1 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ PCR_PARA3</t>
+  </si>
+  <si>
+    <t>DT_2_DOSE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2600,6 +2273,19 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Lucida Console"/>
       <family val="3"/>
     </font>
@@ -2639,27 +2325,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Separador de milhares" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2951,24 +2641,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H194"/>
+  <dimension ref="A1:I194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="B197" sqref="B197"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="72.140625" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="116.28515625" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="7" t="s">
         <v>232</v>
       </c>
       <c r="B1" t="s">
@@ -2987,9 +2678,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="4" t="s">
-        <v>313</v>
+    <row r="2" spans="1:9">
+      <c r="A2" s="8">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -3006,13 +2697,13 @@
       <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="4" t="s">
-        <v>314</v>
+      <c r="I2" s="1" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="8">
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -3030,12 +2721,15 @@
         <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="4" t="s">
-        <v>315</v>
+        <v>133</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="8">
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -3053,12 +2747,15 @@
         <v>8</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="4" t="s">
-        <v>316</v>
+        <v>134</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="8">
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -3076,12 +2773,15 @@
         <v>19</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="4" t="s">
-        <v>317</v>
+        <v>135</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="8">
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -3099,12 +2799,15 @@
         <v>8</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="4" t="s">
-        <v>318</v>
+        <v>136</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="8">
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -3122,12 +2825,15 @@
         <v>11</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="4" t="s">
-        <v>319</v>
+        <v>137</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="8">
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>32</v>
@@ -3145,12 +2851,15 @@
         <v>11</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="4" t="s">
-        <v>320</v>
+        <v>140</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="8">
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -3168,12 +2877,15 @@
         <v>19</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="4" t="s">
-        <v>321</v>
+        <v>141</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="8">
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
@@ -3191,12 +2903,15 @@
         <v>19</v>
       </c>
       <c r="H10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="4" t="s">
-        <v>322</v>
+    <row r="11" spans="1:9">
+      <c r="A11" s="8">
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>33</v>
@@ -3216,10 +2931,13 @@
       <c r="H11" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="4" t="s">
-        <v>323</v>
+      <c r="I11" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="8">
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>42</v>
@@ -3237,12 +2955,15 @@
         <v>19</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="4" t="s">
-        <v>324</v>
+        <v>142</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="8">
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>42</v>
@@ -3260,12 +2981,15 @@
         <v>19</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="4" t="s">
-        <v>325</v>
+        <v>143</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="8">
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>43</v>
@@ -3282,13 +3006,16 @@
       <c r="F14" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="4" t="s">
-        <v>326</v>
+      <c r="H14" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="8">
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>46</v>
@@ -3305,13 +3032,13 @@
       <c r="F15" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="4" t="s">
-        <v>327</v>
+      <c r="I15" s="1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="8">
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>49</v>
@@ -3328,13 +3055,13 @@
       <c r="F16" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="4" t="s">
-        <v>328</v>
+      <c r="I16" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="8">
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>52</v>
@@ -3351,13 +3078,13 @@
       <c r="F17" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="4" t="s">
-        <v>329</v>
+      <c r="I17" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="8">
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
@@ -3374,13 +3101,13 @@
       <c r="F18" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="4" t="s">
-        <v>330</v>
+      <c r="I18" s="1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="8">
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -3400,10 +3127,13 @@
       <c r="H19" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="4" t="s">
-        <v>331</v>
+      <c r="I19" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="8">
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>61</v>
@@ -3421,12 +3151,15 @@
         <v>8</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="4" t="s">
-        <v>332</v>
+        <v>145</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="8">
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>64</v>
@@ -3444,12 +3177,15 @@
         <v>11</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="4" t="s">
-        <v>333</v>
+        <v>146</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="8">
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>67</v>
@@ -3467,12 +3203,15 @@
         <v>8</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="4" t="s">
-        <v>334</v>
+        <v>147</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="8">
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>70</v>
@@ -3490,12 +3229,15 @@
         <v>8</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="4" t="s">
-        <v>335</v>
+        <v>149</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="8">
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>73</v>
@@ -3513,12 +3255,15 @@
         <v>11</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="4" t="s">
-        <v>336</v>
+        <v>150</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="8">
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>76</v>
@@ -3535,13 +3280,13 @@
       <c r="F25" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="I25" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="4" t="s">
-        <v>337</v>
+    <row r="26" spans="1:9">
+      <c r="A26" s="8">
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>79</v>
@@ -3558,13 +3303,13 @@
       <c r="F26" t="s">
         <v>8</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="I26" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="4" t="s">
-        <v>338</v>
+    <row r="27" spans="1:9">
+      <c r="A27" s="8">
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>82</v>
@@ -3581,13 +3326,13 @@
       <c r="F27" t="s">
         <v>8</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="4" t="s">
-        <v>339</v>
+      <c r="I27" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="8">
+        <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>85</v>
@@ -3605,12 +3350,15 @@
         <v>11</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="4" t="s">
-        <v>340</v>
+        <v>151</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="8">
+        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>88</v>
@@ -3624,13 +3372,13 @@
       <c r="E29" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="4" t="s">
-        <v>341</v>
+    <row r="30" spans="1:9">
+      <c r="A30" s="8">
+        <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>88</v>
@@ -3644,13 +3392,13 @@
       <c r="E30" t="s">
         <v>8</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="4" t="s">
-        <v>342</v>
+      <c r="I30" s="1" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="8">
+        <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>92</v>
@@ -3664,13 +3412,13 @@
       <c r="E31" t="s">
         <v>8</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="4" t="s">
-        <v>343</v>
+      <c r="I31" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="8">
+        <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>95</v>
@@ -3684,13 +3432,13 @@
       <c r="E32" t="s">
         <v>8</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="4" t="s">
-        <v>344</v>
+      <c r="I32" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="8">
+        <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>98</v>
@@ -3705,12 +3453,15 @@
         <v>11</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="4" t="s">
-        <v>345</v>
+        <v>154</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="8">
+        <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>101</v>
@@ -3725,12 +3476,15 @@
         <v>11</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="4" t="s">
-        <v>346</v>
+        <v>155</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="8">
+        <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>104</v>
@@ -3745,12 +3499,15 @@
         <v>11</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="4" t="s">
-        <v>347</v>
+        <v>156</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="8">
+        <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>106</v>
@@ -3765,12 +3522,15 @@
         <v>11</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="4" t="s">
-        <v>348</v>
+        <v>157</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="8">
+        <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>110</v>
@@ -3785,12 +3545,15 @@
         <v>11</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="4" t="s">
-        <v>349</v>
+        <v>158</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="8">
+        <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>111</v>
@@ -3804,13 +3567,13 @@
       <c r="E38" t="s">
         <v>8</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="I38" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="4" t="s">
-        <v>350</v>
+    <row r="39" spans="1:9">
+      <c r="A39" s="8">
+        <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>114</v>
@@ -3824,13 +3587,13 @@
       <c r="E39" t="s">
         <v>8</v>
       </c>
-      <c r="H39" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="4" t="s">
-        <v>351</v>
+      <c r="I39" s="1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="8">
+        <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>117</v>
@@ -3844,13 +3607,13 @@
       <c r="E40" t="s">
         <v>8</v>
       </c>
-      <c r="H40" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="4" t="s">
-        <v>352</v>
+      <c r="I40" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="8">
+        <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>118</v>
@@ -3864,13 +3627,13 @@
       <c r="E41" t="s">
         <v>8</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="I41" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="4" t="s">
-        <v>353</v>
+    <row r="42" spans="1:9">
+      <c r="A42" s="8">
+        <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>119</v>
@@ -3884,13 +3647,13 @@
       <c r="E42" t="s">
         <v>8</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="I42" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="4" t="s">
-        <v>354</v>
+    <row r="43" spans="1:9">
+      <c r="A43" s="8">
+        <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>120</v>
@@ -3905,12 +3668,15 @@
         <v>11</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="4" t="s">
-        <v>355</v>
+        <v>159</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="8">
+        <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>121</v>
@@ -3925,12 +3691,15 @@
         <v>11</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="4" t="s">
-        <v>356</v>
+        <v>152</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="8">
+        <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>121</v>
@@ -3945,12 +3714,15 @@
         <v>11</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="4" t="s">
-        <v>357</v>
+        <v>153</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="8">
+        <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>233</v>
@@ -3965,12 +3737,15 @@
         <v>11</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="4" t="s">
-        <v>358</v>
+        <v>161</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="8">
+        <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>236</v>
@@ -3985,12 +3760,15 @@
         <v>11</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="4" t="s">
-        <v>359</v>
+        <v>162</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="8">
+        <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>239</v>
@@ -4004,13 +3782,13 @@
       <c r="E48" t="s">
         <v>8</v>
       </c>
-      <c r="H48" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="4" t="s">
-        <v>360</v>
+      <c r="I48" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="8">
+        <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>242</v>
@@ -4028,12 +3806,15 @@
         <v>11</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="4" t="s">
-        <v>361</v>
+        <v>163</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="8">
+        <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>245</v>
@@ -4051,12 +3832,15 @@
         <v>11</v>
       </c>
       <c r="H50" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I50" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="4" t="s">
-        <v>362</v>
+    <row r="51" spans="1:9">
+      <c r="A51" s="8">
+        <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>248</v>
@@ -4074,12 +3858,15 @@
         <v>11</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="4" t="s">
-        <v>363</v>
+        <v>165</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="8">
+        <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>251</v>
@@ -4097,12 +3884,15 @@
         <v>11</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="4" t="s">
-        <v>364</v>
+        <v>166</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="8">
+        <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>252</v>
@@ -4120,12 +3910,15 @@
         <v>11</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="4" t="s">
-        <v>365</v>
+        <v>167</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="8">
+        <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>253</v>
@@ -4143,12 +3936,15 @@
         <v>11</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="4" t="s">
-        <v>366</v>
+        <v>168</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="8">
+        <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>254</v>
@@ -4166,12 +3962,15 @@
         <v>11</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="4" t="s">
-        <v>367</v>
+        <v>169</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="8">
+        <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>255</v>
@@ -4189,12 +3988,15 @@
         <v>11</v>
       </c>
       <c r="H56" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I56" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="4" t="s">
-        <v>368</v>
+    <row r="57" spans="1:9">
+      <c r="A57" s="8">
+        <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>256</v>
@@ -4211,13 +4013,13 @@
       <c r="F57" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H57" s="1" t="s">
+      <c r="I57" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="4" t="s">
-        <v>369</v>
+    <row r="58" spans="1:9">
+      <c r="A58" s="8">
+        <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>257</v>
@@ -4234,13 +4036,13 @@
       <c r="F58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H58" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="4" t="s">
-        <v>370</v>
+      <c r="I58" s="1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="8">
+        <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>258</v>
@@ -4257,13 +4059,13 @@
       <c r="F59" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H59" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="4" t="s">
-        <v>371</v>
+      <c r="I59" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="8">
+        <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>259</v>
@@ -4280,13 +4082,13 @@
       <c r="F60" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H60" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="4" t="s">
-        <v>372</v>
+      <c r="I60" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="8">
+        <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>260</v>
@@ -4304,12 +4106,15 @@
         <v>11</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="4" t="s">
-        <v>373</v>
+        <v>171</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="8">
+        <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>261</v>
@@ -4327,2119 +4132,2326 @@
         <v>11</v>
       </c>
       <c r="H62" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I62" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="B63" s="6" t="s">
+    <row r="63" spans="1:9">
+      <c r="A63" s="9">
+        <v>62</v>
+      </c>
+      <c r="B63" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="C63" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F63" s="6" t="s">
+      <c r="C63" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H63" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="9">
+        <v>63</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="9">
+        <v>64</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="9">
+        <v>65</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="9">
+        <v>66</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="9">
+        <v>67</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="9">
+        <v>68</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="9">
+        <v>69</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="9">
+        <v>70</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="9">
+        <v>71</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="9">
+        <v>72</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="9">
+        <v>73</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="9">
+        <v>74</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H75" s="1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66" s="5" t="s">
+      <c r="I75" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="9">
+        <v>75</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="9">
+        <v>76</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="9">
+        <v>77</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="8">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
         <v>300</v>
       </c>
-      <c r="B66" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="5" t="s">
+      <c r="C79" t="s">
+        <v>302</v>
+      </c>
+      <c r="D79" t="s">
         <v>301</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F69" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="A73" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="A76" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F76" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F77" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="B79" t="s">
-        <v>377</v>
-      </c>
-      <c r="C79" t="s">
-        <v>379</v>
-      </c>
-      <c r="D79" t="s">
-        <v>378</v>
       </c>
       <c r="E79" t="s">
         <v>8</v>
       </c>
-      <c r="H79" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" s="4" t="s">
-        <v>418</v>
+      <c r="I79" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="8">
+        <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>413</v>
+        <v>335</v>
       </c>
       <c r="C80" t="s">
-        <v>423</v>
+        <v>340</v>
       </c>
       <c r="D80" t="s">
-        <v>427</v>
+        <v>344</v>
       </c>
       <c r="E80" t="s">
         <v>8</v>
       </c>
-      <c r="H80" s="1" t="s">
+      <c r="I80" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
-      <c r="A81" s="4" t="s">
-        <v>419</v>
+    <row r="81" spans="1:9">
+      <c r="A81" s="8">
+        <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>414</v>
+        <v>336</v>
       </c>
       <c r="C81" t="s">
-        <v>424</v>
+        <v>341</v>
       </c>
       <c r="D81" t="s">
-        <v>428</v>
+        <v>345</v>
       </c>
       <c r="E81" t="s">
         <v>8</v>
       </c>
-      <c r="H81" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="A82" s="4" t="s">
-        <v>420</v>
+      <c r="I81" s="1" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="8">
+        <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>415</v>
+        <v>337</v>
       </c>
       <c r="C82" t="s">
-        <v>425</v>
+        <v>342</v>
       </c>
       <c r="D82" t="s">
-        <v>429</v>
+        <v>346</v>
       </c>
       <c r="E82" t="s">
         <v>8</v>
       </c>
-      <c r="H82" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="A83" s="4" t="s">
-        <v>421</v>
+      <c r="I82" s="1" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="8">
+        <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>416</v>
+        <v>338</v>
       </c>
       <c r="C83" t="s">
-        <v>426</v>
+        <v>343</v>
       </c>
       <c r="D83" t="s">
-        <v>430</v>
+        <v>347</v>
       </c>
       <c r="E83" t="s">
         <v>8</v>
       </c>
-      <c r="H83" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="A84" s="4" t="s">
-        <v>422</v>
+      <c r="I83" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="8">
+        <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>417</v>
+        <v>339</v>
       </c>
       <c r="C84" t="s">
-        <v>432</v>
+        <v>349</v>
       </c>
       <c r="D84" t="s">
-        <v>431</v>
+        <v>348</v>
       </c>
       <c r="E84" t="s">
         <v>8</v>
       </c>
-      <c r="H84" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" s="4" t="s">
-        <v>442</v>
+      <c r="I84" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="8">
+        <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>433</v>
+        <v>350</v>
       </c>
       <c r="C85" t="s">
-        <v>437</v>
+        <v>354</v>
       </c>
       <c r="D85" t="s">
-        <v>439</v>
+        <v>356</v>
       </c>
       <c r="E85" t="s">
         <v>8</v>
       </c>
-      <c r="H85" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="A86" s="4" t="s">
-        <v>443</v>
+      <c r="I85" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="8">
+        <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>434</v>
+        <v>351</v>
       </c>
       <c r="C86" t="s">
-        <v>436</v>
+        <v>353</v>
       </c>
       <c r="D86" t="s">
-        <v>440</v>
+        <v>357</v>
       </c>
       <c r="E86" t="s">
         <v>8</v>
       </c>
-      <c r="H86" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="A87" s="4" t="s">
-        <v>444</v>
+      <c r="I86" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="8">
+        <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>435</v>
+        <v>352</v>
       </c>
       <c r="C87" t="s">
-        <v>438</v>
+        <v>355</v>
       </c>
       <c r="D87" t="s">
-        <v>441</v>
+        <v>358</v>
       </c>
       <c r="E87" t="s">
         <v>8</v>
       </c>
-      <c r="H87" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="A88" s="4" t="s">
-        <v>449</v>
+      <c r="I87" s="1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="8">
+        <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>445</v>
+        <v>359</v>
       </c>
       <c r="C88" t="s">
-        <v>453</v>
+        <v>363</v>
       </c>
       <c r="D88" t="s">
-        <v>457</v>
+        <v>367</v>
       </c>
       <c r="E88" t="s">
         <v>8</v>
       </c>
-      <c r="H88" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89" s="4" t="s">
-        <v>450</v>
+      <c r="I88" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="8">
+        <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>446</v>
+        <v>360</v>
       </c>
       <c r="C89" t="s">
-        <v>454</v>
+        <v>364</v>
       </c>
       <c r="D89" t="s">
-        <v>458</v>
+        <v>368</v>
       </c>
       <c r="E89" t="s">
         <v>8</v>
       </c>
-      <c r="H89" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="A90" s="4" t="s">
-        <v>451</v>
+      <c r="I89" s="1" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="8">
+        <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>447</v>
+        <v>361</v>
       </c>
       <c r="C90" t="s">
-        <v>455</v>
+        <v>365</v>
       </c>
       <c r="D90" t="s">
-        <v>459</v>
+        <v>369</v>
       </c>
       <c r="E90" t="s">
         <v>8</v>
       </c>
-      <c r="H90" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="A91" s="4" t="s">
-        <v>452</v>
+      <c r="I90" s="1" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="8">
+        <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>448</v>
+        <v>362</v>
       </c>
       <c r="C91" t="s">
-        <v>456</v>
+        <v>366</v>
       </c>
       <c r="D91" t="s">
-        <v>460</v>
+        <v>370</v>
       </c>
       <c r="E91" t="s">
         <v>8</v>
       </c>
-      <c r="H91" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92" s="4" t="s">
-        <v>462</v>
+      <c r="I91" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="8">
+        <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>461</v>
+        <v>371</v>
       </c>
       <c r="C92" t="s">
-        <v>463</v>
+        <v>372</v>
       </c>
       <c r="D92" t="s">
-        <v>464</v>
+        <v>373</v>
       </c>
       <c r="E92" t="s">
         <v>8</v>
       </c>
-      <c r="H92" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="A93" s="4" t="s">
-        <v>470</v>
+      <c r="I92" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="8">
+        <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>465</v>
+        <v>374</v>
       </c>
       <c r="C93" t="s">
-        <v>467</v>
+        <v>376</v>
       </c>
       <c r="D93" t="s">
-        <v>466</v>
+        <v>375</v>
       </c>
       <c r="E93" t="s">
         <v>11</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="A94" s="4" t="s">
-        <v>471</v>
+        <v>189</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="8">
+        <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>468</v>
+        <v>377</v>
       </c>
       <c r="C94" t="s">
-        <v>469</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>472</v>
+        <v>378</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>379</v>
       </c>
       <c r="E94" t="s">
         <v>11</v>
       </c>
       <c r="H94" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="8">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>380</v>
+      </c>
+      <c r="C95" t="s">
+        <v>381</v>
+      </c>
+      <c r="D95" t="s">
+        <v>382</v>
+      </c>
+      <c r="E95" t="s">
+        <v>11</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="8">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>383</v>
+      </c>
+      <c r="C96" t="s">
+        <v>385</v>
+      </c>
+      <c r="D96" t="s">
+        <v>384</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="8">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>386</v>
+      </c>
+      <c r="C97" t="s">
+        <v>388</v>
+      </c>
+      <c r="D97" t="s">
+        <v>387</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="8">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>389</v>
+      </c>
+      <c r="C98" t="s">
+        <v>395</v>
+      </c>
+      <c r="D98" t="s">
+        <v>392</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="8">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>390</v>
+      </c>
+      <c r="C99" t="s">
+        <v>396</v>
+      </c>
+      <c r="D99" t="s">
+        <v>393</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="8">
+        <v>100</v>
+      </c>
+      <c r="B100" t="s">
+        <v>397</v>
+      </c>
+      <c r="C100" t="s">
+        <v>400</v>
+      </c>
+      <c r="D100" t="s">
+        <v>399</v>
+      </c>
+      <c r="E100" t="s">
+        <v>11</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="8">
+        <v>101</v>
+      </c>
+      <c r="B101" t="s">
+        <v>401</v>
+      </c>
+      <c r="C101" t="s">
+        <v>403</v>
+      </c>
+      <c r="D101" t="s">
+        <v>402</v>
+      </c>
+      <c r="H101" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
-      <c r="A95" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="B95" t="s">
-        <v>473</v>
-      </c>
-      <c r="C95" t="s">
-        <v>474</v>
-      </c>
-      <c r="D95" t="s">
-        <v>475</v>
-      </c>
-      <c r="E95" t="s">
-        <v>11</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
-      <c r="A96" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="B96" t="s">
-        <v>476</v>
-      </c>
-      <c r="C96" t="s">
-        <v>478</v>
-      </c>
-      <c r="D96" t="s">
-        <v>477</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="A97" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="B97" t="s">
-        <v>479</v>
-      </c>
-      <c r="C97" t="s">
-        <v>481</v>
-      </c>
-      <c r="D97" t="s">
-        <v>480</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
-      <c r="A98" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="B98" t="s">
-        <v>482</v>
-      </c>
-      <c r="C98" t="s">
-        <v>488</v>
-      </c>
-      <c r="D98" t="s">
-        <v>485</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="A99" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="B99" t="s">
-        <v>483</v>
-      </c>
-      <c r="C99" t="s">
-        <v>489</v>
-      </c>
-      <c r="D99" t="s">
-        <v>486</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
-      <c r="A100" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="B100" t="s">
-        <v>484</v>
-      </c>
-      <c r="C100" t="s">
-        <v>490</v>
-      </c>
-      <c r="D100" t="s">
-        <v>487</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="A101" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="B101" t="s">
-        <v>491</v>
-      </c>
-      <c r="C101" t="s">
-        <v>510</v>
-      </c>
-      <c r="D101" t="s">
-        <v>509</v>
-      </c>
-      <c r="E101" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" s="4" t="s">
-        <v>499</v>
+    <row r="102" spans="1:9">
+      <c r="A102" s="8">
+        <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>511</v>
+        <v>404</v>
       </c>
       <c r="C102" t="s">
-        <v>513</v>
+        <v>406</v>
       </c>
       <c r="D102" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="A103" s="4" t="s">
-        <v>500</v>
+        <v>405</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="8">
+        <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>514</v>
+        <v>407</v>
       </c>
       <c r="C103" t="s">
-        <v>516</v>
+        <v>408</v>
       </c>
       <c r="D103" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
-      <c r="A104" s="4" t="s">
-        <v>501</v>
+        <v>409</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="8">
+        <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>517</v>
+        <v>410</v>
       </c>
       <c r="C104" t="s">
-        <v>518</v>
+        <v>412</v>
       </c>
       <c r="D104" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="A105" s="4" t="s">
-        <v>502</v>
+        <v>411</v>
+      </c>
+      <c r="E104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="8">
+        <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>520</v>
+        <v>413</v>
       </c>
       <c r="C105" t="s">
-        <v>522</v>
+        <v>415</v>
       </c>
       <c r="D105" t="s">
-        <v>521</v>
+        <v>414</v>
       </c>
       <c r="E105" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
-      <c r="A106" s="4" t="s">
+    <row r="106" spans="1:9">
+      <c r="A106" s="8">
+        <v>106</v>
+      </c>
+      <c r="B106" t="s">
+        <v>404</v>
+      </c>
+      <c r="C106" t="s">
+        <v>417</v>
+      </c>
+      <c r="D106" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="8">
+        <v>107</v>
+      </c>
+      <c r="B107" t="s">
+        <v>418</v>
+      </c>
+      <c r="C107" t="s">
+        <v>420</v>
+      </c>
+      <c r="D107" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="8">
+        <v>108</v>
+      </c>
+      <c r="B108" t="s">
+        <v>421</v>
+      </c>
+      <c r="C108" t="s">
+        <v>423</v>
+      </c>
+      <c r="D108" t="s">
+        <v>422</v>
+      </c>
+      <c r="E108" t="s">
+        <v>11</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="8">
+        <v>109</v>
+      </c>
+      <c r="B109" t="s">
+        <v>424</v>
+      </c>
+      <c r="C109" t="s">
+        <v>426</v>
+      </c>
+      <c r="D109" t="s">
+        <v>425</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="8">
+        <v>110</v>
+      </c>
+      <c r="B110" t="s">
+        <v>427</v>
+      </c>
+      <c r="C110" t="s">
+        <v>429</v>
+      </c>
+      <c r="D110" t="s">
+        <v>428</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="8">
+        <v>111</v>
+      </c>
+      <c r="B111" t="s">
+        <v>433</v>
+      </c>
+      <c r="C111" t="s">
+        <v>431</v>
+      </c>
+      <c r="D111" t="s">
+        <v>434</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="8">
+        <v>112</v>
+      </c>
+      <c r="B112" t="s">
+        <v>430</v>
+      </c>
+      <c r="C112" t="s">
+        <v>432</v>
+      </c>
+      <c r="D112" t="s">
+        <v>434</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="8">
+        <v>113</v>
+      </c>
+      <c r="B113" t="s">
+        <v>436</v>
+      </c>
+      <c r="C113" t="s">
+        <v>437</v>
+      </c>
+      <c r="D113" t="s">
+        <v>439</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="8">
+        <v>114</v>
+      </c>
+      <c r="B114" t="s">
+        <v>435</v>
+      </c>
+      <c r="C114" t="s">
+        <v>438</v>
+      </c>
+      <c r="D114" t="s">
+        <v>439</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="8">
+        <v>115</v>
+      </c>
+      <c r="B115" t="s">
+        <v>441</v>
+      </c>
+      <c r="C115" t="s">
+        <v>442</v>
+      </c>
+      <c r="D115" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="8">
+        <v>116</v>
+      </c>
+      <c r="B116" t="s">
+        <v>440</v>
+      </c>
+      <c r="C116" t="s">
+        <v>443</v>
+      </c>
+      <c r="D116" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="8">
+        <v>117</v>
+      </c>
+      <c r="B117" t="s">
+        <v>445</v>
+      </c>
+      <c r="C117" t="s">
+        <v>447</v>
+      </c>
+      <c r="D117" t="s">
+        <v>446</v>
+      </c>
+      <c r="E117" t="s">
+        <v>11</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="8">
+        <v>118</v>
+      </c>
+      <c r="B118" t="s">
+        <v>448</v>
+      </c>
+      <c r="C118" t="s">
+        <v>449</v>
+      </c>
+      <c r="D118" t="s">
+        <v>450</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="8">
+        <v>119</v>
+      </c>
+      <c r="B119" t="s">
+        <v>451</v>
+      </c>
+      <c r="C119" t="s">
+        <v>452</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="8">
+        <v>120</v>
+      </c>
+      <c r="B120" t="s">
+        <v>454</v>
+      </c>
+      <c r="C120" t="s">
+        <v>455</v>
+      </c>
+      <c r="D120" t="s">
+        <v>456</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="8">
+        <v>121</v>
+      </c>
+      <c r="B121" t="s">
+        <v>457</v>
+      </c>
+      <c r="C121" t="s">
+        <v>459</v>
+      </c>
+      <c r="D121" t="s">
+        <v>458</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="8">
+        <v>122</v>
+      </c>
+      <c r="B122" t="s">
+        <v>460</v>
+      </c>
+      <c r="C122" t="s">
+        <v>461</v>
+      </c>
+      <c r="D122" t="s">
+        <v>462</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="8">
+        <v>123</v>
+      </c>
+      <c r="B123" t="s">
+        <v>463</v>
+      </c>
+      <c r="C123" t="s">
+        <v>465</v>
+      </c>
+      <c r="D123" t="s">
+        <v>464</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="8">
+        <v>124</v>
+      </c>
+      <c r="B124" t="s">
+        <v>466</v>
+      </c>
+      <c r="C124" t="s">
+        <v>468</v>
+      </c>
+      <c r="D124" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="8">
+        <v>125</v>
+      </c>
+      <c r="B125" t="s">
+        <v>469</v>
+      </c>
+      <c r="C125" t="s">
+        <v>471</v>
+      </c>
+      <c r="D125" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="8">
+        <v>126</v>
+      </c>
+      <c r="B126" t="s">
+        <v>472</v>
+      </c>
+      <c r="C126" t="s">
+        <v>474</v>
+      </c>
+      <c r="D126" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="8">
+        <v>127</v>
+      </c>
+      <c r="B127" t="s">
+        <v>475</v>
+      </c>
+      <c r="C127" t="s">
+        <v>477</v>
+      </c>
+      <c r="D127" t="s">
+        <v>476</v>
+      </c>
+      <c r="E127" t="s">
+        <v>11</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="8">
+        <v>128</v>
+      </c>
+      <c r="B128" t="s">
+        <v>478</v>
+      </c>
+      <c r="C128" t="s">
+        <v>480</v>
+      </c>
+      <c r="D128" t="s">
+        <v>479</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="8">
+        <v>129</v>
+      </c>
+      <c r="B129" t="s">
+        <v>481</v>
+      </c>
+      <c r="C129" t="s">
+        <v>484</v>
+      </c>
+      <c r="D129" t="s">
+        <v>483</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="8">
+        <v>130</v>
+      </c>
+      <c r="B130" t="s">
+        <v>482</v>
+      </c>
+      <c r="C130" t="s">
+        <v>486</v>
+      </c>
+      <c r="D130" t="s">
+        <v>485</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="8">
+        <v>131</v>
+      </c>
+      <c r="B131" t="s">
+        <v>487</v>
+      </c>
+      <c r="C131" t="s">
+        <v>489</v>
+      </c>
+      <c r="D131" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="8">
+        <v>132</v>
+      </c>
+      <c r="B132" t="s">
+        <v>490</v>
+      </c>
+      <c r="C132" t="s">
+        <v>492</v>
+      </c>
+      <c r="D132" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="8">
+        <v>133</v>
+      </c>
+      <c r="B133" t="s">
+        <v>493</v>
+      </c>
+      <c r="C133" t="s">
+        <v>495</v>
+      </c>
+      <c r="D133" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="8">
+        <v>134</v>
+      </c>
+      <c r="B134" t="s">
+        <v>496</v>
+      </c>
+      <c r="C134" t="s">
+        <v>498</v>
+      </c>
+      <c r="D134" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="8">
+        <v>135</v>
+      </c>
+      <c r="B135" t="s">
+        <v>499</v>
+      </c>
+      <c r="C135" t="s">
+        <v>500</v>
+      </c>
+      <c r="D135" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="8">
+        <v>136</v>
+      </c>
+      <c r="B136" t="s">
+        <v>525</v>
+      </c>
+      <c r="C136" t="s">
+        <v>501</v>
+      </c>
+      <c r="D136" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" s="8">
+        <v>137</v>
+      </c>
+      <c r="B137" t="s">
         <v>503</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C137" t="s">
+        <v>514</v>
+      </c>
+      <c r="D137" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="8">
+        <v>138</v>
+      </c>
+      <c r="B138" t="s">
+        <v>504</v>
+      </c>
+      <c r="C138" t="s">
+        <v>515</v>
+      </c>
+      <c r="D138" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="8">
+        <v>139</v>
+      </c>
+      <c r="B139" t="s">
+        <v>505</v>
+      </c>
+      <c r="C139" t="s">
+        <v>516</v>
+      </c>
+      <c r="D139" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="8">
+        <v>140</v>
+      </c>
+      <c r="B140" t="s">
+        <v>506</v>
+      </c>
+      <c r="C140" t="s">
+        <v>517</v>
+      </c>
+      <c r="D140" t="s">
+        <v>529</v>
+      </c>
+      <c r="E140" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" s="8">
+        <v>141</v>
+      </c>
+      <c r="B141" t="s">
+        <v>507</v>
+      </c>
+      <c r="C141" t="s">
+        <v>518</v>
+      </c>
+      <c r="D141" t="s">
+        <v>530</v>
+      </c>
+      <c r="E141" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" s="8">
+        <v>142</v>
+      </c>
+      <c r="B142" t="s">
+        <v>508</v>
+      </c>
+      <c r="C142" t="s">
+        <v>519</v>
+      </c>
+      <c r="D142" t="s">
+        <v>531</v>
+      </c>
+      <c r="E142" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" s="8">
+        <v>143</v>
+      </c>
+      <c r="B143" t="s">
+        <v>509</v>
+      </c>
+      <c r="C143" t="s">
+        <v>520</v>
+      </c>
+      <c r="D143" t="s">
+        <v>532</v>
+      </c>
+      <c r="E143" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" s="8">
+        <v>144</v>
+      </c>
+      <c r="B144" t="s">
+        <v>510</v>
+      </c>
+      <c r="C144" t="s">
+        <v>521</v>
+      </c>
+      <c r="D144" t="s">
+        <v>533</v>
+      </c>
+      <c r="E144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" s="8">
+        <v>145</v>
+      </c>
+      <c r="B145" t="s">
+        <v>511</v>
+      </c>
+      <c r="C145" t="s">
+        <v>522</v>
+      </c>
+      <c r="D145" t="s">
+        <v>534</v>
+      </c>
+      <c r="E145" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" s="8">
+        <v>146</v>
+      </c>
+      <c r="B146" t="s">
+        <v>512</v>
+      </c>
+      <c r="C146" t="s">
         <v>523</v>
       </c>
-      <c r="C106" t="s">
-        <v>525</v>
-      </c>
-      <c r="D106" t="s">
+      <c r="D146" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="E146" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" s="8">
+        <v>147</v>
+      </c>
+      <c r="B147" t="s">
+        <v>513</v>
+      </c>
+      <c r="C147" t="s">
         <v>524</v>
       </c>
-      <c r="E106" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
-      <c r="A107" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="B107" t="s">
-        <v>514</v>
-      </c>
-      <c r="C107" t="s">
-        <v>527</v>
-      </c>
-      <c r="D107" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="A108" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="B108" t="s">
-        <v>528</v>
-      </c>
-      <c r="C108" t="s">
-        <v>530</v>
-      </c>
-      <c r="D108" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="A109" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="B109" t="s">
-        <v>531</v>
-      </c>
-      <c r="C109" t="s">
-        <v>533</v>
-      </c>
-      <c r="D109" t="s">
-        <v>532</v>
-      </c>
-      <c r="E109" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
-      <c r="A110" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="B110" t="s">
-        <v>534</v>
-      </c>
-      <c r="C110" t="s">
+      <c r="D147" t="s">
         <v>536</v>
       </c>
-      <c r="D110" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
-      <c r="A111" s="4" t="s">
-        <v>508</v>
-      </c>
-      <c r="B111" t="s">
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" s="8">
+        <v>148</v>
+      </c>
+      <c r="B148" t="s">
         <v>537</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C148" t="s">
+        <v>538</v>
+      </c>
+      <c r="D148" t="s">
         <v>539</v>
       </c>
-      <c r="D111" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
-      <c r="A112" s="4" t="s">
+      <c r="H148" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" s="8">
+        <v>149</v>
+      </c>
+      <c r="B149" t="s">
+        <v>540</v>
+      </c>
+      <c r="C149" t="s">
         <v>541</v>
       </c>
-      <c r="B112" t="s">
+      <c r="D149" t="s">
+        <v>542</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" s="8">
+        <v>150</v>
+      </c>
+      <c r="B150" t="s">
+        <v>543</v>
+      </c>
+      <c r="C150" t="s">
+        <v>561</v>
+      </c>
+      <c r="D150" t="s">
+        <v>580</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" s="8">
+        <v>151</v>
+      </c>
+      <c r="B151" t="s">
+        <v>544</v>
+      </c>
+      <c r="C151" t="s">
+        <v>562</v>
+      </c>
+      <c r="D151" t="s">
+        <v>581</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" s="8">
+        <v>152</v>
+      </c>
+      <c r="B152" t="s">
+        <v>545</v>
+      </c>
+      <c r="C152" t="s">
+        <v>563</v>
+      </c>
+      <c r="D152" t="s">
+        <v>582</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" s="8">
+        <v>153</v>
+      </c>
+      <c r="B153" t="s">
+        <v>546</v>
+      </c>
+      <c r="C153" t="s">
+        <v>564</v>
+      </c>
+      <c r="D153" t="s">
+        <v>583</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" s="8">
+        <v>154</v>
+      </c>
+      <c r="B154" t="s">
+        <v>547</v>
+      </c>
+      <c r="C154" t="s">
+        <v>565</v>
+      </c>
+      <c r="D154" t="s">
+        <v>584</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" s="8">
+        <v>155</v>
+      </c>
+      <c r="B155" t="s">
+        <v>548</v>
+      </c>
+      <c r="C155" t="s">
+        <v>566</v>
+      </c>
+      <c r="D155" t="s">
+        <v>585</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" s="8">
+        <v>156</v>
+      </c>
+      <c r="B156" t="s">
+        <v>549</v>
+      </c>
+      <c r="C156" t="s">
+        <v>567</v>
+      </c>
+      <c r="D156" t="s">
+        <v>586</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" s="8">
+        <v>157</v>
+      </c>
+      <c r="B157" t="s">
         <v>550</v>
       </c>
-      <c r="C112" t="s">
-        <v>548</v>
-      </c>
-      <c r="D112" t="s">
+      <c r="C157" t="s">
+        <v>568</v>
+      </c>
+      <c r="D157" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" s="8">
+        <v>158</v>
+      </c>
+      <c r="B158" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="4" t="s">
-        <v>542</v>
-      </c>
-      <c r="B113" t="s">
-        <v>540</v>
-      </c>
-      <c r="C113" t="s">
-        <v>549</v>
-      </c>
-      <c r="D113" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="4" t="s">
-        <v>543</v>
-      </c>
-      <c r="B114" t="s">
+      <c r="C158" t="s">
+        <v>569</v>
+      </c>
+      <c r="D158" t="s">
+        <v>588</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" s="8">
+        <v>159</v>
+      </c>
+      <c r="B159" t="s">
+        <v>552</v>
+      </c>
+      <c r="C159" t="s">
+        <v>570</v>
+      </c>
+      <c r="D159" t="s">
+        <v>589</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" s="8">
+        <v>160</v>
+      </c>
+      <c r="B160" t="s">
         <v>553</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C160" t="s">
+        <v>571</v>
+      </c>
+      <c r="D160" t="s">
+        <v>590</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" s="8">
+        <v>161</v>
+      </c>
+      <c r="B161" t="s">
         <v>554</v>
       </c>
-      <c r="D114" t="s">
+      <c r="C161" t="s">
+        <v>572</v>
+      </c>
+      <c r="D161" t="s">
+        <v>591</v>
+      </c>
+      <c r="H161" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" s="8">
+        <v>162</v>
+      </c>
+      <c r="B162" t="s">
+        <v>555</v>
+      </c>
+      <c r="C162" t="s">
+        <v>573</v>
+      </c>
+      <c r="D162" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" s="8">
+        <v>163</v>
+      </c>
+      <c r="B163" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="B115" t="s">
-        <v>552</v>
-      </c>
-      <c r="C115" t="s">
-        <v>555</v>
-      </c>
-      <c r="D115" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="B116" t="s">
+      <c r="C163" t="s">
+        <v>574</v>
+      </c>
+      <c r="D163" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" s="8">
+        <v>164</v>
+      </c>
+      <c r="B164" t="s">
+        <v>557</v>
+      </c>
+      <c r="C164" t="s">
+        <v>575</v>
+      </c>
+      <c r="D164" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" s="8">
+        <v>165</v>
+      </c>
+      <c r="B165" t="s">
         <v>558</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C165" t="s">
+        <v>576</v>
+      </c>
+      <c r="D165" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" s="8">
+        <v>166</v>
+      </c>
+      <c r="B166" t="s">
         <v>559</v>
       </c>
-      <c r="D116" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="B117" t="s">
-        <v>557</v>
-      </c>
-      <c r="C117" t="s">
+      <c r="C166" t="s">
+        <v>577</v>
+      </c>
+      <c r="D166" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" s="8">
+        <v>167</v>
+      </c>
+      <c r="B167" t="s">
         <v>560</v>
       </c>
-      <c r="D117" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" s="4" t="s">
-        <v>547</v>
-      </c>
-      <c r="B118" t="s">
-        <v>562</v>
-      </c>
-      <c r="C118" t="s">
-        <v>564</v>
-      </c>
-      <c r="D118" t="s">
-        <v>563</v>
-      </c>
-      <c r="E118" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119" s="4" t="s">
-        <v>568</v>
-      </c>
-      <c r="B119" t="s">
-        <v>565</v>
-      </c>
-      <c r="C119" t="s">
-        <v>566</v>
-      </c>
-      <c r="D119" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120" s="4" t="s">
-        <v>569</v>
-      </c>
-      <c r="B120" t="s">
-        <v>570</v>
-      </c>
-      <c r="C120" t="s">
-        <v>571</v>
-      </c>
-      <c r="D120" s="7" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121" s="4" t="s">
-        <v>576</v>
-      </c>
-      <c r="B121" t="s">
-        <v>573</v>
-      </c>
-      <c r="C121" t="s">
-        <v>574</v>
-      </c>
-      <c r="D121" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122" s="4" t="s">
-        <v>577</v>
-      </c>
-      <c r="B122" t="s">
+      <c r="C167" t="s">
         <v>578</v>
       </c>
-      <c r="C122" t="s">
-        <v>580</v>
-      </c>
-      <c r="D122" t="s">
+      <c r="D167" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" s="8">
+        <v>168</v>
+      </c>
+      <c r="B168" t="s">
+        <v>560</v>
+      </c>
+      <c r="C168" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="A123" s="4" t="s">
-        <v>585</v>
-      </c>
-      <c r="B123" t="s">
-        <v>581</v>
-      </c>
-      <c r="C123" t="s">
-        <v>582</v>
-      </c>
-      <c r="D123" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="A124" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="B124" t="s">
-        <v>584</v>
-      </c>
-      <c r="C124" t="s">
-        <v>592</v>
-      </c>
-      <c r="D124" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125" s="4" t="s">
-        <v>587</v>
-      </c>
-      <c r="B125" t="s">
-        <v>593</v>
-      </c>
-      <c r="C125" t="s">
-        <v>595</v>
-      </c>
-      <c r="D125" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="A126" s="4" t="s">
-        <v>588</v>
-      </c>
-      <c r="B126" t="s">
-        <v>596</v>
-      </c>
-      <c r="C126" t="s">
+      <c r="D168" t="s">
         <v>598</v>
       </c>
-      <c r="D126" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="A127" s="4" t="s">
-        <v>589</v>
-      </c>
-      <c r="B127" t="s">
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" s="8">
+        <v>169</v>
+      </c>
+      <c r="B169" t="s">
         <v>599</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C169" t="s">
         <v>601</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D169" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
-      <c r="A128" s="4" t="s">
-        <v>590</v>
-      </c>
-      <c r="B128" t="s">
+    <row r="170" spans="1:8">
+      <c r="A170" s="8">
+        <v>170</v>
+      </c>
+      <c r="B170" t="s">
+        <v>599</v>
+      </c>
+      <c r="C170" t="s">
         <v>602</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D170" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" s="8">
+        <v>171</v>
+      </c>
+      <c r="B171" t="s">
+        <v>603</v>
+      </c>
+      <c r="C171" t="s">
+        <v>605</v>
+      </c>
+      <c r="D171" t="s">
         <v>604</v>
       </c>
-      <c r="D128" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
-      <c r="A129" s="4" t="s">
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172" s="8">
+        <v>172</v>
+      </c>
+      <c r="B172" t="s">
         <v>606</v>
       </c>
-      <c r="B129" t="s">
-        <v>605</v>
-      </c>
-      <c r="C129" t="s">
+      <c r="C172" t="s">
+        <v>607</v>
+      </c>
+      <c r="D172" t="s">
         <v>608</v>
       </c>
-      <c r="D129" t="s">
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" s="8">
+        <v>173</v>
+      </c>
+      <c r="B173" t="s">
+        <v>609</v>
+      </c>
+      <c r="C173" t="s">
+        <v>610</v>
+      </c>
+      <c r="D173" t="s">
+        <v>611</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174" s="8">
+        <v>174</v>
+      </c>
+      <c r="B174" t="s">
+        <v>612</v>
+      </c>
+      <c r="C174" t="s">
+        <v>614</v>
+      </c>
+      <c r="D174" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" s="8">
+        <v>175</v>
+      </c>
+      <c r="B175" t="s">
+        <v>612</v>
+      </c>
+      <c r="C175" t="s">
+        <v>616</v>
+      </c>
+      <c r="D175" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176" s="8">
+        <v>176</v>
+      </c>
+      <c r="B176" t="s">
+        <v>617</v>
+      </c>
+      <c r="C176" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="A130" s="4" t="s">
+      <c r="D176" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177" s="8">
+        <v>177</v>
+      </c>
+      <c r="B177" s="5" t="s">
         <v>618</v>
       </c>
-      <c r="B130" t="s">
-        <v>609</v>
-      </c>
-      <c r="C130" t="s">
-        <v>612</v>
-      </c>
-      <c r="D130" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131" s="4" t="s">
+      <c r="C177" t="s">
+        <v>623</v>
+      </c>
+      <c r="D177" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178" s="8">
+        <v>178</v>
+      </c>
+      <c r="B178" t="s">
         <v>619</v>
       </c>
-      <c r="B131" t="s">
-        <v>610</v>
-      </c>
-      <c r="C131" t="s">
-        <v>614</v>
-      </c>
-      <c r="D131" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="A132" s="4" t="s">
+      <c r="C178" t="s">
+        <v>622</v>
+      </c>
+      <c r="D178" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179" s="8">
+        <v>179</v>
+      </c>
+      <c r="B179" t="s">
+        <v>619</v>
+      </c>
+      <c r="C179" t="s">
         <v>620</v>
       </c>
-      <c r="B132" t="s">
-        <v>615</v>
-      </c>
-      <c r="C132" t="s">
-        <v>617</v>
-      </c>
-      <c r="D132" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
-      <c r="A133" s="4" t="s">
+      <c r="D179" t="s">
         <v>621</v>
       </c>
-      <c r="B133" t="s">
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180" s="8">
+        <v>180</v>
+      </c>
+      <c r="B180" t="s">
         <v>625</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C180" t="s">
         <v>627</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D180" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
-      <c r="A134" s="4" t="s">
-        <v>622</v>
-      </c>
-      <c r="B134" t="s">
+    <row r="181" spans="1:8">
+      <c r="A181" s="8">
+        <v>181</v>
+      </c>
+      <c r="B181" t="s">
         <v>628</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C181" t="s">
         <v>630</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D181" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
-      <c r="A135" s="4" t="s">
-        <v>623</v>
-      </c>
-      <c r="B135" t="s">
+    <row r="182" spans="1:8">
+      <c r="A182" s="8">
+        <v>182</v>
+      </c>
+      <c r="B182" t="s">
         <v>631</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C182" t="s">
+        <v>632</v>
+      </c>
+      <c r="D182" t="s">
         <v>633</v>
       </c>
-      <c r="D135" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
-      <c r="A136" s="4" t="s">
-        <v>624</v>
-      </c>
-      <c r="B136" t="s">
+    </row>
+    <row r="183" spans="1:8">
+      <c r="A183" s="8">
+        <v>183</v>
+      </c>
+      <c r="B183" t="s">
+        <v>634</v>
+      </c>
+      <c r="C183" t="s">
+        <v>636</v>
+      </c>
+      <c r="D183" t="s">
+        <v>635</v>
+      </c>
+      <c r="H183" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184" s="8">
+        <v>184</v>
+      </c>
+      <c r="B184" t="s">
+        <v>637</v>
+      </c>
+      <c r="C184" t="s">
+        <v>639</v>
+      </c>
+      <c r="D184" t="s">
         <v>638</v>
       </c>
-      <c r="C136" t="s">
-        <v>639</v>
-      </c>
-      <c r="D136" t="s">
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185" s="8">
+        <v>185</v>
+      </c>
+      <c r="B185" t="s">
+        <v>640</v>
+      </c>
+      <c r="C185" t="s">
+        <v>642</v>
+      </c>
+      <c r="D185" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="4" t="s">
-        <v>634</v>
-      </c>
-      <c r="B137" t="s">
-        <v>672</v>
-      </c>
-      <c r="C137" t="s">
-        <v>640</v>
-      </c>
-      <c r="D137" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
-      <c r="A138" s="4" t="s">
-        <v>635</v>
-      </c>
-      <c r="B138" t="s">
-        <v>642</v>
-      </c>
-      <c r="C138" t="s">
-        <v>661</v>
-      </c>
-      <c r="D138" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
-      <c r="A139" s="4" t="s">
-        <v>636</v>
-      </c>
-      <c r="B139" t="s">
+    <row r="186" spans="1:8">
+      <c r="A186" s="8">
+        <v>186</v>
+      </c>
+      <c r="B186" t="s">
         <v>643</v>
       </c>
-      <c r="C139" t="s">
-        <v>662</v>
-      </c>
-      <c r="D139" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="A140" s="4" t="s">
-        <v>637</v>
-      </c>
-      <c r="B140" t="s">
+      <c r="C186" t="s">
         <v>644</v>
       </c>
-      <c r="C140" t="s">
-        <v>663</v>
-      </c>
-      <c r="D140" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="A141" s="4" t="s">
+      <c r="D186" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187" s="8">
+        <v>187</v>
+      </c>
+      <c r="B187" t="s">
+        <v>646</v>
+      </c>
+      <c r="C187" t="s">
+        <v>647</v>
+      </c>
+      <c r="D187" s="5" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188" s="8">
+        <v>188</v>
+      </c>
+      <c r="B188" t="s">
+        <v>649</v>
+      </c>
+      <c r="C188" t="s">
+        <v>651</v>
+      </c>
+      <c r="D188" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="A189" s="8">
+        <v>189</v>
+      </c>
+      <c r="B189" t="s">
+        <v>652</v>
+      </c>
+      <c r="C189" t="s">
+        <v>654</v>
+      </c>
+      <c r="D189" t="s">
         <v>653</v>
       </c>
-      <c r="B141" t="s">
-        <v>645</v>
-      </c>
-      <c r="C141" t="s">
-        <v>664</v>
-      </c>
-      <c r="D141" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="A142" s="4" t="s">
-        <v>654</v>
-      </c>
-      <c r="B142" t="s">
-        <v>646</v>
-      </c>
-      <c r="C142" t="s">
-        <v>665</v>
-      </c>
-      <c r="D142" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="A143" s="4" t="s">
+    </row>
+    <row r="190" spans="1:8">
+      <c r="A190" s="8">
+        <v>190</v>
+      </c>
+      <c r="B190" t="s">
         <v>655</v>
       </c>
-      <c r="B143" t="s">
-        <v>647</v>
-      </c>
-      <c r="C143" t="s">
-        <v>666</v>
-      </c>
-      <c r="D143" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144" s="4" t="s">
+      <c r="C190" t="s">
         <v>656</v>
       </c>
-      <c r="B144" t="s">
-        <v>648</v>
-      </c>
-      <c r="C144" t="s">
-        <v>667</v>
-      </c>
-      <c r="D144" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
-      <c r="A145" s="4" t="s">
+      <c r="D190" t="s">
         <v>657</v>
       </c>
-      <c r="B145" t="s">
-        <v>649</v>
-      </c>
-      <c r="C145" t="s">
-        <v>668</v>
-      </c>
-      <c r="D145" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
-      <c r="A146" s="4" t="s">
+    </row>
+    <row r="191" spans="1:8">
+      <c r="A191" s="8">
+        <v>191</v>
+      </c>
+      <c r="B191" t="s">
         <v>658</v>
       </c>
-      <c r="B146" t="s">
-        <v>650</v>
-      </c>
-      <c r="C146" t="s">
-        <v>669</v>
-      </c>
-      <c r="D146" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="A147" s="4" t="s">
+      <c r="C191" t="s">
         <v>659</v>
       </c>
-      <c r="B147" t="s">
-        <v>651</v>
-      </c>
-      <c r="C147" t="s">
-        <v>670</v>
-      </c>
-      <c r="D147" s="7" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="4" t="s">
+      <c r="D191" t="s">
         <v>660</v>
       </c>
-      <c r="B148" t="s">
-        <v>652</v>
-      </c>
-      <c r="C148" t="s">
-        <v>671</v>
-      </c>
-      <c r="D148" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="A149" s="4" t="s">
-        <v>684</v>
-      </c>
-      <c r="B149" t="s">
-        <v>699</v>
-      </c>
-      <c r="C149" t="s">
-        <v>700</v>
-      </c>
-      <c r="D149" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="4" t="s">
-        <v>685</v>
-      </c>
-      <c r="B150" t="s">
-        <v>702</v>
-      </c>
-      <c r="C150" t="s">
-        <v>703</v>
-      </c>
-      <c r="D150" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="A151" s="4" t="s">
-        <v>686</v>
-      </c>
-      <c r="B151" t="s">
-        <v>705</v>
-      </c>
-      <c r="C151" t="s">
-        <v>730</v>
-      </c>
-      <c r="D151" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
-      <c r="A152" s="4" t="s">
-        <v>687</v>
-      </c>
-      <c r="B152" t="s">
-        <v>706</v>
-      </c>
-      <c r="C152" t="s">
-        <v>731</v>
-      </c>
-      <c r="D152" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="4" t="s">
-        <v>688</v>
-      </c>
-      <c r="B153" t="s">
-        <v>707</v>
-      </c>
-      <c r="C153" t="s">
-        <v>732</v>
-      </c>
-      <c r="D153" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
-      <c r="A154" s="4" t="s">
-        <v>689</v>
-      </c>
-      <c r="B154" t="s">
-        <v>708</v>
-      </c>
-      <c r="C154" t="s">
-        <v>733</v>
-      </c>
-      <c r="D154" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
-      <c r="A155" s="4" t="s">
-        <v>690</v>
-      </c>
-      <c r="B155" t="s">
-        <v>709</v>
-      </c>
-      <c r="C155" t="s">
-        <v>734</v>
-      </c>
-      <c r="D155" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
-      <c r="A156" s="4" t="s">
-        <v>691</v>
-      </c>
-      <c r="B156" t="s">
-        <v>710</v>
-      </c>
-      <c r="C156" t="s">
-        <v>735</v>
-      </c>
-      <c r="D156" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
-      <c r="A157" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="B157" t="s">
-        <v>711</v>
-      </c>
-      <c r="C157" t="s">
-        <v>736</v>
-      </c>
-      <c r="D157" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
-      <c r="A158" s="4" t="s">
-        <v>693</v>
-      </c>
-      <c r="B158" t="s">
-        <v>712</v>
-      </c>
-      <c r="C158" t="s">
-        <v>737</v>
-      </c>
-      <c r="D158" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
-      <c r="A159" s="4" t="s">
-        <v>694</v>
-      </c>
-      <c r="B159" t="s">
-        <v>713</v>
-      </c>
-      <c r="C159" t="s">
-        <v>738</v>
-      </c>
-      <c r="D159" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
-      <c r="A160" s="4" t="s">
-        <v>695</v>
-      </c>
-      <c r="B160" t="s">
-        <v>714</v>
-      </c>
-      <c r="C160" t="s">
-        <v>739</v>
-      </c>
-      <c r="D160" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
-      <c r="A161" s="4" t="s">
-        <v>696</v>
-      </c>
-      <c r="B161" t="s">
-        <v>715</v>
-      </c>
-      <c r="C161" t="s">
-        <v>740</v>
-      </c>
-      <c r="D161" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
-      <c r="A162" s="4" t="s">
-        <v>697</v>
-      </c>
-      <c r="B162" t="s">
-        <v>716</v>
-      </c>
-      <c r="C162" t="s">
+    </row>
+    <row r="192" spans="1:8">
+      <c r="A192" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="B192" t="s">
+        <v>391</v>
+      </c>
+      <c r="C192" t="s">
         <v>741</v>
       </c>
-      <c r="D162" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
-      <c r="A163" s="4" t="s">
-        <v>698</v>
-      </c>
-      <c r="B163" t="s">
-        <v>717</v>
-      </c>
-      <c r="C163" t="s">
-        <v>742</v>
-      </c>
-      <c r="D163" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
-      <c r="A164" s="4" t="s">
-        <v>719</v>
-      </c>
-      <c r="B164" t="s">
-        <v>718</v>
-      </c>
-      <c r="C164" t="s">
-        <v>743</v>
-      </c>
-      <c r="D164" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
-      <c r="A165" s="4" t="s">
-        <v>720</v>
-      </c>
-      <c r="B165" t="s">
-        <v>726</v>
-      </c>
-      <c r="C165" t="s">
-        <v>744</v>
-      </c>
-      <c r="D165" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
-      <c r="A166" s="4" t="s">
-        <v>721</v>
-      </c>
-      <c r="B166" t="s">
-        <v>727</v>
-      </c>
-      <c r="C166" t="s">
-        <v>745</v>
-      </c>
-      <c r="D166" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
-      <c r="A167" s="4" t="s">
-        <v>722</v>
-      </c>
-      <c r="B167" t="s">
-        <v>728</v>
-      </c>
-      <c r="C167" t="s">
-        <v>746</v>
-      </c>
-      <c r="D167" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
-      <c r="A168" s="4" t="s">
-        <v>723</v>
-      </c>
-      <c r="B168" t="s">
-        <v>729</v>
-      </c>
-      <c r="C168" t="s">
-        <v>747</v>
-      </c>
-      <c r="D168" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
-      <c r="A169" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="B169" t="s">
-        <v>729</v>
-      </c>
-      <c r="C169" t="s">
-        <v>748</v>
-      </c>
-      <c r="D169" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
-      <c r="A170" s="4" t="s">
-        <v>725</v>
-      </c>
-      <c r="B170" t="s">
-        <v>768</v>
-      </c>
-      <c r="C170" t="s">
-        <v>770</v>
-      </c>
-      <c r="D170" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
-      <c r="A171" s="4" t="s">
-        <v>772</v>
-      </c>
-      <c r="B171" t="s">
-        <v>768</v>
-      </c>
-      <c r="C171" t="s">
-        <v>771</v>
-      </c>
-      <c r="D171" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
-      <c r="A172" s="4" t="s">
-        <v>773</v>
-      </c>
-      <c r="B172" t="s">
-        <v>786</v>
-      </c>
-      <c r="C172" t="s">
-        <v>788</v>
-      </c>
-      <c r="D172" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4">
-      <c r="A173" s="4" t="s">
-        <v>774</v>
-      </c>
-      <c r="B173" t="s">
-        <v>789</v>
-      </c>
-      <c r="C173" t="s">
-        <v>790</v>
-      </c>
-      <c r="D173" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
-      <c r="A174" s="4" t="s">
-        <v>775</v>
-      </c>
-      <c r="B174" t="s">
-        <v>792</v>
-      </c>
-      <c r="C174" t="s">
-        <v>793</v>
-      </c>
-      <c r="D174" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
-      <c r="A175" s="4" t="s">
-        <v>776</v>
-      </c>
-      <c r="B175" t="s">
-        <v>795</v>
-      </c>
-      <c r="C175" t="s">
-        <v>797</v>
-      </c>
-      <c r="D175" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
-      <c r="A176" s="4" t="s">
-        <v>777</v>
-      </c>
-      <c r="B176" t="s">
-        <v>795</v>
-      </c>
-      <c r="C176" t="s">
-        <v>799</v>
-      </c>
-      <c r="D176" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
-      <c r="A177" s="4" t="s">
-        <v>778</v>
-      </c>
-      <c r="B177" t="s">
-        <v>800</v>
-      </c>
-      <c r="C177" t="s">
-        <v>790</v>
-      </c>
-      <c r="D177" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4">
-      <c r="A178" s="4" t="s">
-        <v>779</v>
-      </c>
-      <c r="B178" s="7" t="s">
-        <v>801</v>
-      </c>
-      <c r="C178" t="s">
-        <v>806</v>
-      </c>
-      <c r="D178" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4">
-      <c r="A179" s="4" t="s">
-        <v>780</v>
-      </c>
-      <c r="B179" t="s">
-        <v>802</v>
-      </c>
-      <c r="C179" t="s">
-        <v>805</v>
-      </c>
-      <c r="D179" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4">
-      <c r="A180" s="4" t="s">
-        <v>781</v>
-      </c>
-      <c r="B180" t="s">
-        <v>802</v>
-      </c>
-      <c r="C180" t="s">
-        <v>803</v>
-      </c>
-      <c r="D180" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4">
-      <c r="A181" s="4" t="s">
-        <v>782</v>
-      </c>
-      <c r="B181" t="s">
-        <v>808</v>
-      </c>
-      <c r="C181" t="s">
-        <v>810</v>
-      </c>
-      <c r="D181" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4">
-      <c r="A182" s="4" t="s">
-        <v>783</v>
-      </c>
-      <c r="B182" t="s">
-        <v>811</v>
-      </c>
-      <c r="C182" t="s">
-        <v>813</v>
-      </c>
-      <c r="D182" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4">
-      <c r="A183" s="4" t="s">
-        <v>784</v>
-      </c>
-      <c r="B183" t="s">
-        <v>814</v>
-      </c>
-      <c r="C183" t="s">
-        <v>815</v>
-      </c>
-      <c r="D183" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4">
-      <c r="A184" s="4" t="s">
-        <v>785</v>
-      </c>
-      <c r="B184" t="s">
-        <v>817</v>
-      </c>
-      <c r="C184" t="s">
-        <v>819</v>
-      </c>
-      <c r="D184" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4">
-      <c r="A185" s="4" t="s">
-        <v>823</v>
-      </c>
-      <c r="B185" t="s">
-        <v>820</v>
-      </c>
-      <c r="C185" t="s">
-        <v>822</v>
-      </c>
-      <c r="D185" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4">
-      <c r="A186" s="4" t="s">
-        <v>824</v>
-      </c>
-      <c r="B186" t="s">
-        <v>825</v>
-      </c>
-      <c r="C186" t="s">
-        <v>827</v>
-      </c>
-      <c r="D186" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4">
-      <c r="A187" s="4" t="s">
-        <v>831</v>
-      </c>
-      <c r="B187" t="s">
-        <v>828</v>
-      </c>
-      <c r="C187" t="s">
-        <v>829</v>
-      </c>
-      <c r="D187" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4">
-      <c r="A188" s="4" t="s">
-        <v>832</v>
-      </c>
-      <c r="B188" t="s">
-        <v>835</v>
-      </c>
-      <c r="C188" t="s">
-        <v>836</v>
-      </c>
-      <c r="D188" s="7" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4">
-      <c r="A189" s="4" t="s">
-        <v>833</v>
-      </c>
-      <c r="B189" t="s">
-        <v>838</v>
-      </c>
-      <c r="C189" t="s">
-        <v>840</v>
-      </c>
-      <c r="D189" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4">
-      <c r="A190" s="4" t="s">
-        <v>834</v>
-      </c>
-      <c r="B190" t="s">
-        <v>841</v>
-      </c>
-      <c r="C190" t="s">
-        <v>843</v>
-      </c>
-      <c r="D190" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4">
-      <c r="A191" s="4" t="s">
-        <v>847</v>
-      </c>
-      <c r="B191" t="s">
-        <v>844</v>
-      </c>
-      <c r="C191" t="s">
-        <v>845</v>
-      </c>
-      <c r="D191" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4">
-      <c r="A192" s="4" t="s">
-        <v>848</v>
-      </c>
-      <c r="B192" t="s">
-        <v>849</v>
-      </c>
-      <c r="C192" t="s">
-        <v>850</v>
-      </c>
       <c r="D192" t="s">
-        <v>851</v>
+        <v>394</v>
+      </c>
+      <c r="H192" s="1" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="193" spans="1:1">
-      <c r="A193" s="4"/>
+      <c r="A193" s="8"/>
     </row>
     <row r="194" spans="1:1">
-      <c r="A194" s="4"/>
+      <c r="A194" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F45">
-    <sortState ref="A2:F45">
-      <sortCondition ref="A1:A45"/>
+  <autoFilter ref="A1:H194">
+    <sortState ref="A2:H194">
+      <sortCondition ref="A1:A194"/>
     </sortState>
   </autoFilter>
-  <sortState ref="H2:H100">
-    <sortCondition ref="H2:H100"/>
+  <sortState ref="I2:I100">
+    <sortCondition ref="I2:I100"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/documentos/Dicionario_de_dados_planilha.xlsx
+++ b/documentos/Dicionario_de_dados_planilha.xlsx
@@ -7,19 +7,19 @@
     <workbookView xWindow="0" yWindow="75" windowWidth="38355" windowHeight="12600"/>
   </bookViews>
   <sheets>
-    <sheet name="TODAS_VARIAVEIS" sheetId="1" r:id="rId1"/>
-    <sheet name="Plan2" sheetId="2" r:id="rId2"/>
+    <sheet name="VARIAVES_DATAFRAME" sheetId="2" r:id="rId1"/>
+    <sheet name="TODAS_VARIAVEIS" sheetId="1" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TODAS_VARIAVEIS!$A$1:$H$194</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TODAS_VARIAVEIS!$A$1:$H$194</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="584">
   <si>
     <t>Nome do Campo</t>
   </si>
@@ -420,303 +420,6 @@
     <t>País de residência do paciente.</t>
   </si>
   <si>
-    <t xml:space="preserve"> DT_NOTIFIC: chr  "03/01/2023" "02/01/2023" "05/01/2023" "05/01/2023" ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ SEM_NOT   : int  1 1 1 1 1 2 1 2 2 2 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ DT_SIN_PRI: chr  "02/01/2023" "01/01/2023" "01/01/2023" "03/01/2023" ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ SEM_PRI   : int  1 1 1 1 1 2 1 1 1 2 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ SG_UF_NOT : chr  "BA" "MG" "ES" "AM" ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ ID_REGIONA: chr  "NUCLEO REGIONAL DE SAUDE CENTRO NORTE" "UBA" "METROPOLITANA" "ENTORNO DE MANAUS E RIO NEGRO" ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ CO_REGIONA: int  1394 1464 1510 5584 1364 1481 5584 1333 1342 NA ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ ID_MUNICIP: chr  "XIQUE-XIQUE" "MURIAE" "VITORIA" "MANAUS" ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ CO_MUN_NOT: int  293360 314390 320530 130260 410480 110040 130260 351880 350950 330455 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ ID_UNIDADE: chr  "HOSPITAL JULIETA VIANA" "CASA DE SAUDE SANTA LUCIA LTDA" "HOSPITAL INFANTIL NOSSA SENHORA DA GLORIA" "HOSPITAL E PRONTO SOCORRO DA ZONA NORTE DELPHINA AZIZ" ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ CO_UNI_NOT: int  2601729 2162377 11800 7564546 3293262 2808676 5222710 2080427 2078376 2295407 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ CS_SEXO   : chr  "M" "F" "F" "F" ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ DT_NASC   : chr  "06/01/1985" "17/11/1973" "24/10/2022" "10/02/1954" ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ NU_IDADE_N: int  37 49 3 68 73 62 20 3 7 56 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ TP_IDADE  : int  3 3 2 3 3 3 3 3 2 3 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ COD_IDADE : chr  "3037" "3049" "2003" "3068" ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ CS_GESTANT: int  6 5 6 5 6 5 5 6 6 6 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ CS_RACA   : int  4 1 1 4 1 4 4 4 1 4 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ CS_ESCOL_N: int  1 NA 5 NA NA NA 3 NA 5 9 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ ID_PAIS   : chr  "BRASIL" "BRASIL" "BRASIL" "BRASIL" ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ CO_PAIS   : int  1 1 1 1 1 1 1 1 1 1 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ SG_UF     : chr  "BA" "MG" "ES" "AM" ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ ID_RG_RESI: chr  "NUCLEO REGIONAL DE SAUDE CENTRO NORTE" "UBA" "METROPOLITANA" "BAIXO AMAZONAS" ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ CO_RG_RESI: int  1394 1464 1510 5589 1364 1481 5584 1333 1342 NA ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ ID_MN_RESI: chr  "XIQUE-XIQUE" "VISCONDE DO RIO BRANCO" "CARIACICA" "PARINTINS" ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ CO_MUN_RES: int  293360 317200 320130 130340 410480 110040 130260 351880 350950 330455 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ CS_ZONA   : int  1 1 1 1 NA NA 1 1 1 1 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ SURTO_SG  : logi  NA NA NA NA NA NA ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ NOSOCOMIAL: int  2 2 2 2 2 NA 2 2 2 2 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ AVE_SUINO : int  2 2 2 2 2 NA 2 2 2 9 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ FEBRE     : int  2 2 1 1 2 NA 2 1 1 2 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ TOSSE     : int  2 1 1 1 2 NA 1 1 1 1 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ GARGANTA  : int  2 1 NA 1 2 NA 2 2 2 2 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ DISPNEIA  : int  1 2 1 1 2 NA 1 2 2 1 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ DESC_RESP : int  1 2 1 NA 2 NA 1 2 1 2 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ SATURACAO : int  1 2 1 1 2 NA 1 2 1 2 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ DIARREIA  : int  2 2 NA 2 2 NA 2 2 2 2 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ VOMITO    : int  2 2 NA 1 2 NA 2 2 2 2 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ OUTRO_SIN : int  2 2 NA NA 1 NA 2 2 2 2 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ OUTRO_DES : chr  "" "" "" "" ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ PUERPERA  : int  NA NA NA NA NA NA 2 NA NA NA ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ FATOR_RISC: int  2 2 2 2 2 2 1 2 2 2 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ CARDIOPATI: int  NA NA NA NA NA NA 2 NA NA NA ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ HEMATOLOGI: int  NA NA NA NA NA NA 2 NA NA NA ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ SIND_DOWN : int  NA NA NA NA NA NA 2 NA NA NA ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ HEPATICA  : int  NA NA NA NA NA NA 2 NA NA NA ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ ASMA      : int  NA NA NA NA NA NA 1 NA NA NA ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ DIABETES  : int  NA NA NA NA NA NA 2 NA NA NA ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ NEUROLOGIC: int  NA NA NA NA NA NA 1 NA NA NA ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ PNEUMOPATI: int  NA NA NA NA NA NA 2 NA NA NA ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ IMUNODEPRE: int  NA NA NA NA NA NA 2 NA NA NA ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ RENAL     : int  NA NA NA NA NA NA 2 NA NA NA ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ OBESIDADE : int  NA NA NA NA NA NA 2 NA NA NA ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ OBES_IMC  : chr  "" "" "" "" ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ OUT_MORBI : int  NA NA NA NA NA NA 2 NA NA NA ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ MORB_DESC : chr  "" "" "" "" ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ VACINA    : int  2 NA NA 2 NA NA 2 NA 2 NA ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ DT_UT_DOSE: chr  "" "" "" "" ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ MAE_VAC   : int  NA NA NA NA NA NA NA NA NA NA ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ DT_VAC_MAE: chr  "" "" "" "" ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ M_AMAMENTA: int  NA NA NA NA NA NA NA NA NA NA ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ DT_DOSEUNI: chr  "" "" "" "" ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ DT_1_DOSE : chr  "" "" "" "" ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ DT_2_DOSE : chr  "" "" "" "" ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ ANTIVIRAL : int  2 2 2 2 2 NA 2 2 1 9 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ TP_ANTIVIR: int  NA NA NA NA NA NA NA NA 1 NA ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ OUT_ANTIV : chr  "" "" "" "" ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ DT_ANTIVIR: chr  "" "" "" "" ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ HOSPITAL  : int  NA 1 1 1 1 NA 1 1 1 1 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ DT_INTERNA: chr  "" "02/01/2023" "04/01/2023" "05/01/2023" ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ SG_UF_INTE: chr  "" "MG" "ES" "AM" ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ ID_RG_INTE: chr  "" "UBA" "METROPOLITANA" "ENTORNO DE MANAUS E RIO NEGRO" ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ CO_RG_INTE: int  NA 1464 1510 5584 1364 NA 5584 1333 1342 NA ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ ID_MN_INTE: chr  "" "MURIAE" "VITORIA" "MANAUS" ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ CO_MU_INTE: int  NA 314390 320530 130260 410480 NA 130260 351880 350950 330455 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ UTI       : int  2 2 1 1 2 NA 2 NA 1 2 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ DT_ENTUTI : chr  "" "" "04/01/2023" "05/01/2023" ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ DT_SAIDUTI: chr  "" "" "" "" ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ SUPORT_VEN: int  NA 3 2 1 3 NA 2 NA 2 2 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ RAIOX_RES : int  NA 6 2 NA NA NA NA NA 6 2 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ RAIOX_OUT : chr  "" "" "" "" ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ DT_RAIOX  : chr  "" "" "04/01/2023" "" ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ AMOSTRA   : int  2 1 1 1 1 NA 1 1 1 1 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ DT_COLETA : chr  "" "03/01/2023" "04/01/2023" "05/01/2023" ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ TP_AMOSTRA: int  NA 4 1 1 1 NA 1 1 1 1 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ OUT_AMOST : chr  "" "TESTE RAPIDO" "" "" ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ PCR_RESUL : int  NA 4 1 2 4 NA 2 2 4 2 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ DT_PCR    : chr  "" "" "04/01/2023" "09/01/2023" ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ POS_PCRFLU: int  NA NA 2 NA NA NA NA NA NA NA ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ TP_FLU_PCR: int  NA NA NA NA NA NA NA NA NA NA ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ PCR_FLUASU: int  NA NA NA NA NA NA NA NA NA NA ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ FLUASU_OUT: chr  "" "" "" "" ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ PCR_FLUBLI: int  NA NA NA NA NA NA NA NA NA NA ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ FLUBLI_OUT: chr  "" "" "" "" ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ POS_PCROUT: int  NA NA 1 NA NA NA NA NA NA NA ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ PCR_VSR   : int  NA NA NA NA NA NA NA NA NA NA ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ PCR_PARA1 : int  NA NA NA NA NA NA NA NA NA NA ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ PCR_PARA2 : int  NA NA NA NA NA NA NA NA NA NA ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ PCR_PARA3 : int  NA NA NA NA NA NA NA NA NA NA ..</t>
-  </si>
-  <si>
     <t>LINHA</t>
   </si>
   <si>
@@ -2004,247 +1707,70 @@
     <t>Data de inclusão do registro no sistema</t>
   </si>
   <si>
-    <t>DT_NOTIFIC: chr  "05/01/2021" "04/01/2021" "08/01/2021" "10/01/2021" ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ SEM_NOT   : int  1 1 1 2 2 2 1 2 2 2 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ DT_SIN_PRI: chr  "05/01/2021" "04/01/2021" "07/01/2021" "03/01/2021" ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ SEM_PRI   : int  1 1 1 1 1 1 1 1 2 1 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ SG_UF_NOT : chr  "BA" "MG" "SP" "SP" ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ ID_REGIONA: chr  "NUCLEO REGIONAL DE SAUDE LESTE" "SETE LAGOAS" "GVE X OSASCO" "GVE I CAPITAL" ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ CO_REGIONA: int  1380 1467 1335 1331 NA 1519 1335 1576 1398 1337 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ ID_MUNICIP: chr  "SALVADOR" "CURVELO" "TABOAO DA SERRA" "SAO PAULO" ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ CO_MUN_NOT: int  292740 312090 355280 355030 530010 230440 353440 355540 293330 355370 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ ID_UNIDADE: chr  "HOSPITAL ALIANCA" "HOSPITAL SANTO ANTONIO" "UNIDADE MISTA DE SAUDE DE TABOAO DA SERRA" "SAO LUIZ UNIDADE MORUMBI" ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ CO_UNI_NOT: int  2389746 2178559 2785188 3824802 10529 2611686 2079887 2702193 2402076 2078295 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ CS_SEXO   : chr  "F" "F" "M" "M" ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ DT_NASC   : chr  "08/12/1946" "09/03/1947" "26/05/2019" "29/09/1983" ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ NU_IDADE_N: int  74 73 1 37 62 68 54 45 47 66 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ TP_IDADE  : int  3 3 3 3 3 3 3 3 3 3 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ COD_IDADE : chr  "3074" "3073" "3001" "3037" ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ CS_GESTANT: int  6 5 6 6 6 6 6 6 6 5 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ CS_RACA   : int  9 4 4 1 9 4 1 1 4 1 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ CS_ESCOL_N: int  9 9 NA 9 NA 9 3 NA NA 4 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ SG_UF     : chr  "BA" "MG" "SP" "SP" ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ ID_RG_RESI: chr  "NUCLEO REGIONAL DE SAUDE LESTE" "SETE LAGOAS" "GVE X OSASCO" "GVE I CAPITAL" ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ CO_RG_RESI: int  1380 1467 1335 1331 6262 5584 1335 1576 1398 1337 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ ID_MN_RESI: chr  "SALVADOR" "CURVELO" "EMBU DAS ARTES" "SAO PAULO" ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ CO_MUN_RES: int  292740 312090 351500 355030 530120 130260 353440 355540 293330 355370 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ CS_ZONA   : int  1 1 1 NA 1 1 1 NA 2 1 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ SURTO_SG  : int  NA 2 NA 2 NA 9 NA 1 2 2 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ NOSOCOMIAL: int  2 2 2 2 9 9 2 NA 2 2 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ AVE_SUINO : int  NA 2 2 9 9 9 2 2 9 2 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ FEBRE     : int  1 2 1 1 1 1 1 1 2 1 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ TOSSE     : int  2 2 1 NA 1 1 1 1 2 1 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ GARGANTA  : int  2 2 9 NA 2 NA 2 NA 2 2 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ DISPNEIA  : int  2 1 1 NA 1 NA 1 1 2 1 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ DESC_RESP : int  2 1 1 NA 1 1 1 1 2 1 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ SATURACAO : int  2 2 1 1 1 NA 1 1 1 2 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ DIARREIA  : int  2 2 2 1 2 NA 2 NA 2 1 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ VOMITO    : int  2 2 1 NA 2 NA 2 NA 1 1 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ OUTRO_SIN : int  NA 2 1 1 2 NA 2 NA 1 1 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ OUTRO_DES : chr  "" "" "OTALGIA" "CALAFRIOS" ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ PUERPERA  : int  2 2 NA NA 2 NA NA NA 2 NA ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ FATOR_RISC: int  1 1 2 2 1 1 2 2 1 2 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ CARDIOPATI: int  1 1 NA NA 2 1 NA NA 2 NA ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ HEMATOLOGI: int  2 2 NA NA 2 NA NA NA 2 NA ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ SIND_DOWN : int  2 2 NA NA 2 NA NA NA 2 NA ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ HEPATICA  : int  2 2 NA NA 2 NA NA NA 2 NA ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ ASMA      : int  2 2 NA NA 1 NA NA NA 2 NA ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ DIABETES  : int  1 2 NA NA 2 NA NA NA 2 NA ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ NEUROLOGIC: int  2 1 NA NA 2 NA NA NA 2 NA ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ PNEUMOPATI: int  2 2 NA NA 2 NA NA NA 2 NA ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ IMUNODEPRE: int  2 2 NA NA 2 NA NA NA 2 NA ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ RENAL     : int  2 2 NA NA 2 NA NA NA 2 NA ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ OBESIDADE : int  2 2 NA NA 2 NA NA NA 2 NA ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ OUT_MORBI : int  1 2 NA NA 2 NA NA NA 1 NA ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ MORB_DESC : chr  "HAS,DLP,DAOP" "" "" "" ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ VACINA    : int  9 1 1 9 9 9 2 NA 2 NA ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ DT_UT_DOSE: chr  "" "30/04/2020" "" "" ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ ANTIVIRAL : int  9 2 1 2 2 2 2 NA NA 2 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ TP_ANTIVIR: int  NA NA 1 NA NA NA NA NA NA NA ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ DT_ANTIVIR: chr  "" "" "08/01/2021" "" ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ HOSPITAL  : int  1 1 1 1 1 1 1 1 1 1 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ DT_INTERNA: chr  "05/01/2021" "05/01/2021" "08/01/2021" "08/01/2021" ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ SG_UF_INTE: chr  "BA" "MG" "SP" "SP" ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ ID_RG_INTE: chr  "NUCLEO REGIONAL DE SAUDE LESTE" "SETE LAGOAS" "GVE X OSASCO" "GVE I CAPITAL" ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ CO_RG_INTE: int  1380 1467 1335 1331 NA 1519 1335 1576 1398 1337 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ ID_MN_INTE: chr  "SALVADOR" "CURVELO" "TABOAO DA SERRA" "SAO PAULO" ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ CO_MU_INTE: int  292740 312090 355280 355030 530010 230440 353440 355540 293330 355370 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ UTI       : int  1 1 2 2 2 1 1 2 NA 2 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ DT_ENTUTI : chr  "05/01/2021" "05/01/2021" "" "" ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ DT_SAIDUTI: chr  "11/01/2021" "" "" "" ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ SUPORT_VEN: int  1 2 2 3 2 2 2 2 3 NA ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ RAIOX_RES : int  9 2 3 NA 6 NA 5 NA NA 6 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ DT_RAIOX  : chr  "" "05/01/2021" "08/01/2021" "" ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ AMOSTRA   : int  1 1 1 1 1 1 1 1 1 1 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ DT_COLETA : chr  "06/01/2021" "05/01/2021" "08/01/2021" "07/01/2021" ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ TP_AMOSTRA: int  1 1 1 1 1 1 1 1 1 1 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ OUT_AMOST : chr  "" "" "" "" ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ PCR_RESUL : int  2 2 2 1 2 1 4 1 2 1 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ DT_PCR    : chr  "07/01/2021" "05/01/2021" "11/01/2021" "08/01/2021" ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ POS_PCRFLU: int  NA NA NA NA NA 9 NA NA NA NA ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ POS_PCROUT: int  NA NA NA 1 NA 1 NA 1 NA 1 ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $ PCR_PARA3</t>
-  </si>
-  <si>
     <t>DT_2_DOSE</t>
+  </si>
+  <si>
+    <t>CARDIOPATI</t>
+  </si>
+  <si>
+    <t>CO_PS_VGM</t>
+  </si>
+  <si>
+    <t>CO_RG_INTE</t>
+  </si>
+  <si>
+    <t>COD_IDADE</t>
+  </si>
+  <si>
+    <t>DOSE_2REF</t>
+  </si>
+  <si>
+    <t>DT_RT_VGM</t>
+  </si>
+  <si>
+    <t>DT_VGM</t>
+  </si>
+  <si>
+    <t>FAB_COV_1</t>
+  </si>
+  <si>
+    <t>FAB_COV_2</t>
+  </si>
+  <si>
+    <t>FAB_COVREF</t>
+  </si>
+  <si>
+    <t>HISTO_VGM</t>
+  </si>
+  <si>
+    <t>LAB_PR_COV</t>
+  </si>
+  <si>
+    <t>LO_PS_VGM</t>
+  </si>
+  <si>
+    <t>LOTE_REF</t>
+  </si>
+  <si>
+    <t>LOTE_REF2</t>
+  </si>
+  <si>
+    <t>MORB_DESC</t>
+  </si>
+  <si>
+    <t>OUTRO_DES</t>
+  </si>
+  <si>
+    <t>OUTRO_SIN</t>
+  </si>
+  <si>
+    <t>PAIS_VGM</t>
+  </si>
+  <si>
+    <t>PCR_SARS2</t>
+  </si>
+  <si>
+    <t>SURTO_SG</t>
   </si>
 </sst>
 </file>
@@ -2641,10 +2167,893 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A173"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2660,7 +3069,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="7" t="s">
-        <v>232</v>
+        <v>133</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2697,9 +3106,7 @@
       <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>732</v>
-      </c>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="8">
@@ -2720,12 +3127,8 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>716</v>
-      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="8">
@@ -2746,12 +3149,8 @@
       <c r="F4" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>705</v>
-      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="8">
@@ -2772,12 +3171,8 @@
       <c r="F5" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>688</v>
-      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="8">
@@ -2798,12 +3193,8 @@
       <c r="F6" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>701</v>
-      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="8">
@@ -2824,12 +3215,8 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>725</v>
-      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="8">
@@ -2850,12 +3237,8 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>669</v>
-      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="8">
@@ -2876,12 +3259,8 @@
       <c r="F9" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>684</v>
-      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="8">
@@ -2902,12 +3281,8 @@
       <c r="F10" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>153</v>
-      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="8">
@@ -2928,12 +3303,8 @@
       <c r="F11" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>667</v>
-      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="8">
@@ -2954,12 +3325,8 @@
       <c r="F12" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>723</v>
-      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="8">
@@ -2980,12 +3347,8 @@
       <c r="F13" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>682</v>
-      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="8">
@@ -3006,12 +3369,8 @@
       <c r="F14" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>671</v>
-      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="8">
@@ -3032,9 +3391,7 @@
       <c r="F15" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>676</v>
-      </c>
+      <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="8">
@@ -3055,9 +3412,7 @@
       <c r="F16" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>679</v>
-      </c>
+      <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="8">
@@ -3078,9 +3433,7 @@
       <c r="F17" t="s">
         <v>8</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>677</v>
-      </c>
+      <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="8">
@@ -3101,9 +3454,7 @@
       <c r="F18" t="s">
         <v>8</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>678</v>
-      </c>
+      <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="8">
@@ -3124,12 +3475,8 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>672</v>
-      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="8">
@@ -3150,12 +3497,8 @@
       <c r="F20" t="s">
         <v>8</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>685</v>
-      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="8">
@@ -3176,12 +3519,8 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>693</v>
-      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="8">
@@ -3202,12 +3541,8 @@
       <c r="F22" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>706</v>
-      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="8">
@@ -3228,12 +3563,8 @@
       <c r="F23" t="s">
         <v>8</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>695</v>
-      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="8">
@@ -3254,12 +3585,8 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>692</v>
-      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="8">
@@ -3280,9 +3607,7 @@
       <c r="F25" t="s">
         <v>8</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>195</v>
-      </c>
+      <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="8">
@@ -3303,9 +3628,7 @@
       <c r="F26" t="s">
         <v>8</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>196</v>
-      </c>
+      <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="8">
@@ -3326,9 +3649,7 @@
       <c r="F27" t="s">
         <v>8</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>718</v>
-      </c>
+      <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="8">
@@ -3349,12 +3670,8 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>733</v>
-      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="8">
@@ -3372,9 +3689,7 @@
       <c r="E29" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>194</v>
-      </c>
+      <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="8">
@@ -3392,9 +3707,7 @@
       <c r="E30" t="s">
         <v>8</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>727</v>
-      </c>
+      <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="8">
@@ -3412,9 +3725,7 @@
       <c r="E31" t="s">
         <v>8</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>720</v>
-      </c>
+      <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="8">
@@ -3432,9 +3743,7 @@
       <c r="E32" t="s">
         <v>8</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>673</v>
-      </c>
+      <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="8">
@@ -3452,12 +3761,8 @@
       <c r="E33" t="s">
         <v>11</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>737</v>
-      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="8">
@@ -3475,12 +3780,8 @@
       <c r="E34" t="s">
         <v>11</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>731</v>
-      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="8">
@@ -3498,12 +3799,8 @@
       <c r="E35" t="s">
         <v>11</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>728</v>
-      </c>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="8">
@@ -3521,12 +3818,8 @@
       <c r="E36" t="s">
         <v>11</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>663</v>
-      </c>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="8">
@@ -3544,12 +3837,8 @@
       <c r="E37" t="s">
         <v>11</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>715</v>
-      </c>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="8">
@@ -3567,9 +3856,7 @@
       <c r="E38" t="s">
         <v>8</v>
       </c>
-      <c r="I38" s="1" t="s">
-        <v>192</v>
-      </c>
+      <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="8">
@@ -3587,9 +3874,7 @@
       <c r="E39" t="s">
         <v>8</v>
       </c>
-      <c r="I39" s="1" t="s">
-        <v>700</v>
-      </c>
+      <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="8">
@@ -3607,9 +3892,7 @@
       <c r="E40" t="s">
         <v>8</v>
       </c>
-      <c r="I40" s="1" t="s">
-        <v>689</v>
-      </c>
+      <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="8">
@@ -3627,9 +3910,7 @@
       <c r="E41" t="s">
         <v>8</v>
       </c>
-      <c r="I41" s="1" t="s">
-        <v>224</v>
-      </c>
+      <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="8">
@@ -3647,9 +3928,7 @@
       <c r="E42" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="1" t="s">
-        <v>226</v>
-      </c>
+      <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="8">
@@ -3667,12 +3946,8 @@
       <c r="E43" t="s">
         <v>11</v>
       </c>
-      <c r="H43" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>691</v>
-      </c>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="8">
@@ -3690,12 +3965,8 @@
       <c r="E44" t="s">
         <v>11</v>
       </c>
-      <c r="H44" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>702</v>
-      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="8">
@@ -3713,91 +3984,77 @@
       <c r="E45" t="s">
         <v>11</v>
       </c>
-      <c r="H45" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>704</v>
-      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="8">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>233</v>
+        <v>134</v>
       </c>
       <c r="C46" t="s">
-        <v>234</v>
+        <v>135</v>
       </c>
       <c r="D46" t="s">
-        <v>235</v>
+        <v>136</v>
       </c>
       <c r="E46" t="s">
         <v>11</v>
       </c>
-      <c r="H46" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>719</v>
-      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="8">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>236</v>
+        <v>137</v>
       </c>
       <c r="C47" t="s">
-        <v>237</v>
+        <v>138</v>
       </c>
       <c r="D47" t="s">
-        <v>238</v>
+        <v>139</v>
       </c>
       <c r="E47" t="s">
         <v>11</v>
       </c>
-      <c r="H47" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>724</v>
-      </c>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="8">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>239</v>
+        <v>140</v>
       </c>
       <c r="C48" t="s">
-        <v>240</v>
+        <v>141</v>
       </c>
       <c r="D48" t="s">
-        <v>241</v>
+        <v>142</v>
       </c>
       <c r="E48" t="s">
         <v>8</v>
       </c>
-      <c r="I48" s="1" t="s">
-        <v>683</v>
-      </c>
+      <c r="I48" s="1"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="8">
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>242</v>
+        <v>143</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>244</v>
+        <v>145</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>243</v>
+        <v>144</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>11</v>
@@ -3805,25 +4062,21 @@
       <c r="F49" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H49" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>668</v>
-      </c>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="8">
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>245</v>
+        <v>146</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>246</v>
+        <v>147</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>247</v>
+        <v>148</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>11</v>
@@ -3831,25 +4084,21 @@
       <c r="F50" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H50" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>152</v>
-      </c>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="8">
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>248</v>
+        <v>149</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>249</v>
+        <v>150</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>11</v>
@@ -3857,25 +4106,21 @@
       <c r="F51" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H51" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>666</v>
-      </c>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="8">
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>251</v>
+        <v>152</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>262</v>
+        <v>163</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>273</v>
+        <v>174</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>11</v>
@@ -3883,25 +4128,21 @@
       <c r="F52" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H52" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>722</v>
-      </c>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="8">
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>252</v>
+        <v>153</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>263</v>
+        <v>164</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>274</v>
+        <v>175</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>11</v>
@@ -3909,25 +4150,21 @@
       <c r="F53" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H53" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>681</v>
-      </c>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="8">
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>253</v>
+        <v>154</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>264</v>
+        <v>165</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>275</v>
+        <v>176</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>11</v>
@@ -3935,25 +4172,21 @@
       <c r="F54" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H54" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>670</v>
-      </c>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="8">
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>254</v>
+        <v>155</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>265</v>
+        <v>166</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>276</v>
+        <v>177</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>11</v>
@@ -3961,25 +4194,21 @@
       <c r="F55" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H55" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="8">
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>255</v>
+        <v>156</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>266</v>
+        <v>167</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>277</v>
+        <v>178</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>11</v>
@@ -3987,25 +4216,21 @@
       <c r="F56" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H56" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>193</v>
-      </c>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="8">
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>256</v>
+        <v>157</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>267</v>
+        <v>168</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>278</v>
+        <v>179</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>11</v>
@@ -4013,22 +4238,20 @@
       <c r="F57" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I57" s="1" t="s">
-        <v>191</v>
-      </c>
+      <c r="I57" s="1"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="8">
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>257</v>
+        <v>158</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>268</v>
+        <v>169</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>279</v>
+        <v>180</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>11</v>
@@ -4036,22 +4259,20 @@
       <c r="F58" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I58" s="1" t="s">
-        <v>713</v>
-      </c>
+      <c r="I58" s="1"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="8">
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>258</v>
+        <v>159</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>280</v>
+        <v>181</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>11</v>
@@ -4059,22 +4280,20 @@
       <c r="F59" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I59" s="1" t="s">
-        <v>707</v>
-      </c>
+      <c r="I59" s="1"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="8">
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>259</v>
+        <v>160</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>270</v>
+        <v>171</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>281</v>
+        <v>182</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>11</v>
@@ -4082,22 +4301,20 @@
       <c r="F60" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I60" s="1" t="s">
-        <v>687</v>
-      </c>
+      <c r="I60" s="1"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="8">
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>260</v>
+        <v>161</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>282</v>
+        <v>183</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>11</v>
@@ -4105,25 +4322,21 @@
       <c r="F61" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H61" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>674</v>
-      </c>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="8">
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>261</v>
+        <v>162</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>272</v>
+        <v>173</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>283</v>
+        <v>184</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>11</v>
@@ -4131,25 +4344,21 @@
       <c r="F62" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H62" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>186</v>
-      </c>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="9">
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>284</v>
+        <v>185</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>319</v>
+        <v>220</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>11</v>
@@ -4157,25 +4366,21 @@
       <c r="F63" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H63" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>711</v>
-      </c>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="9">
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>285</v>
+        <v>186</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>320</v>
+        <v>221</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>11</v>
@@ -4183,25 +4388,21 @@
       <c r="F64" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H64" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>735</v>
-      </c>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="9">
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>286</v>
+        <v>187</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>321</v>
+        <v>222</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>11</v>
@@ -4209,25 +4410,21 @@
       <c r="F65" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H65" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>199</v>
-      </c>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="9">
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>287</v>
+        <v>188</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>306</v>
+        <v>207</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>322</v>
+        <v>223</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>11</v>
@@ -4235,25 +4432,21 @@
       <c r="F66" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H66" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>712</v>
-      </c>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="9">
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>288</v>
+        <v>189</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>307</v>
+        <v>208</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>323</v>
+        <v>224</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>11</v>
@@ -4261,25 +4454,21 @@
       <c r="F67" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H67" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>698</v>
-      </c>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="9">
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>289</v>
+        <v>190</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>308</v>
+        <v>209</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>324</v>
+        <v>225</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>11</v>
@@ -4287,25 +4476,21 @@
       <c r="F68" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H68" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>697</v>
-      </c>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="9">
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>290</v>
+        <v>191</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>309</v>
+        <v>210</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>325</v>
+        <v>226</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>11</v>
@@ -4313,25 +4498,21 @@
       <c r="F69" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H69" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>223</v>
-      </c>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="9">
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>291</v>
+        <v>192</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>310</v>
+        <v>211</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>326</v>
+        <v>227</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>11</v>
@@ -4339,25 +4520,21 @@
       <c r="F70" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H70" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>225</v>
-      </c>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="9">
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>292</v>
+        <v>193</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>311</v>
+        <v>212</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>327</v>
+        <v>228</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>11</v>
@@ -4365,25 +4542,21 @@
       <c r="F71" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H71" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>229</v>
-      </c>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="9">
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>293</v>
+        <v>194</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>312</v>
+        <v>213</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>328</v>
+        <v>229</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>11</v>
@@ -4391,25 +4564,21 @@
       <c r="F72" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H72" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>230</v>
-      </c>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="9">
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>294</v>
+        <v>195</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>313</v>
+        <v>214</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>329</v>
+        <v>230</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>11</v>
@@ -4417,25 +4586,21 @@
       <c r="F73" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H73" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>740</v>
-      </c>
+      <c r="H73" s="1"/>
+      <c r="I73" s="2"/>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="9">
         <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>295</v>
+        <v>196</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>314</v>
+        <v>215</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>330</v>
+        <v>231</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>11</v>
@@ -4443,25 +4608,21 @@
       <c r="F74" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H74" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>736</v>
-      </c>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="9">
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>296</v>
+        <v>197</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>315</v>
+        <v>216</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>331</v>
+        <v>232</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>11</v>
@@ -4469,25 +4630,21 @@
       <c r="F75" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H75" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>228</v>
-      </c>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="9">
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>297</v>
+        <v>198</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>316</v>
+        <v>217</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>332</v>
+        <v>233</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>11</v>
@@ -4495,25 +4652,21 @@
       <c r="F76" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H76" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>708</v>
-      </c>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="9">
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>298</v>
+        <v>199</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>333</v>
+        <v>234</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>11</v>
@@ -4521,25 +4674,21 @@
       <c r="F77" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H77" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>738</v>
-      </c>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="9">
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>299</v>
+        <v>200</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>318</v>
+        <v>219</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>334</v>
+        <v>235</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>11</v>
@@ -4547,525 +4696,457 @@
       <c r="F78" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H78" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>739</v>
-      </c>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="8">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="C79" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="D79" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="E79" t="s">
         <v>8</v>
       </c>
-      <c r="I79" s="1" t="s">
-        <v>699</v>
-      </c>
+      <c r="I79" s="1"/>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="8">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>335</v>
+        <v>236</v>
       </c>
       <c r="C80" t="s">
-        <v>340</v>
+        <v>241</v>
       </c>
       <c r="D80" t="s">
-        <v>344</v>
+        <v>245</v>
       </c>
       <c r="E80" t="s">
         <v>8</v>
       </c>
-      <c r="I80" s="1" t="s">
-        <v>213</v>
-      </c>
+      <c r="I80" s="1"/>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="8">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>336</v>
+        <v>237</v>
       </c>
       <c r="C81" t="s">
-        <v>341</v>
+        <v>242</v>
       </c>
       <c r="D81" t="s">
-        <v>345</v>
+        <v>246</v>
       </c>
       <c r="E81" t="s">
         <v>8</v>
       </c>
-      <c r="I81" s="1" t="s">
-        <v>730</v>
-      </c>
+      <c r="I81" s="1"/>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="8">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>337</v>
+        <v>238</v>
       </c>
       <c r="C82" t="s">
-        <v>342</v>
+        <v>243</v>
       </c>
       <c r="D82" t="s">
-        <v>346</v>
+        <v>247</v>
       </c>
       <c r="E82" t="s">
         <v>8</v>
       </c>
-      <c r="I82" s="1" t="s">
-        <v>710</v>
-      </c>
+      <c r="I82" s="1"/>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="8">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>338</v>
+        <v>239</v>
       </c>
       <c r="C83" t="s">
-        <v>343</v>
+        <v>244</v>
       </c>
       <c r="D83" t="s">
-        <v>347</v>
+        <v>248</v>
       </c>
       <c r="E83" t="s">
         <v>8</v>
       </c>
-      <c r="I83" s="1" t="s">
-        <v>694</v>
-      </c>
+      <c r="I83" s="1"/>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="8">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>339</v>
+        <v>240</v>
       </c>
       <c r="C84" t="s">
-        <v>349</v>
+        <v>250</v>
       </c>
       <c r="D84" t="s">
-        <v>348</v>
+        <v>249</v>
       </c>
       <c r="E84" t="s">
         <v>8</v>
       </c>
-      <c r="I84" s="1" t="s">
-        <v>662</v>
-      </c>
+      <c r="I84" s="1"/>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="8">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>350</v>
+        <v>251</v>
       </c>
       <c r="C85" t="s">
-        <v>354</v>
+        <v>255</v>
       </c>
       <c r="D85" t="s">
-        <v>356</v>
+        <v>257</v>
       </c>
       <c r="E85" t="s">
         <v>8</v>
       </c>
-      <c r="I85" s="1" t="s">
-        <v>664</v>
-      </c>
+      <c r="I85" s="1"/>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="8">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>351</v>
+        <v>252</v>
       </c>
       <c r="C86" t="s">
-        <v>353</v>
+        <v>254</v>
       </c>
       <c r="D86" t="s">
-        <v>357</v>
+        <v>258</v>
       </c>
       <c r="E86" t="s">
         <v>8</v>
       </c>
-      <c r="I86" s="1" t="s">
-        <v>680</v>
-      </c>
+      <c r="I86" s="1"/>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="8">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>352</v>
+        <v>253</v>
       </c>
       <c r="C87" t="s">
-        <v>355</v>
+        <v>256</v>
       </c>
       <c r="D87" t="s">
-        <v>358</v>
+        <v>259</v>
       </c>
       <c r="E87" t="s">
         <v>8</v>
       </c>
-      <c r="I87" s="1" t="s">
-        <v>721</v>
-      </c>
+      <c r="I87" s="1"/>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="8">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>359</v>
+        <v>260</v>
       </c>
       <c r="C88" t="s">
-        <v>363</v>
+        <v>264</v>
       </c>
       <c r="D88" t="s">
-        <v>367</v>
+        <v>268</v>
       </c>
       <c r="E88" t="s">
         <v>8</v>
       </c>
-      <c r="I88" s="1" t="s">
-        <v>665</v>
-      </c>
+      <c r="I88" s="1"/>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="8">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>360</v>
+        <v>261</v>
       </c>
       <c r="C89" t="s">
-        <v>364</v>
+        <v>265</v>
       </c>
       <c r="D89" t="s">
-        <v>368</v>
+        <v>269</v>
       </c>
       <c r="E89" t="s">
         <v>8</v>
       </c>
-      <c r="I89" s="1" t="s">
-        <v>703</v>
-      </c>
+      <c r="I89" s="1"/>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="8">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>361</v>
+        <v>262</v>
       </c>
       <c r="C90" t="s">
-        <v>365</v>
+        <v>266</v>
       </c>
       <c r="D90" t="s">
-        <v>369</v>
+        <v>270</v>
       </c>
       <c r="E90" t="s">
         <v>8</v>
       </c>
-      <c r="I90" s="1" t="s">
-        <v>729</v>
-      </c>
+      <c r="I90" s="1"/>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="8">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>362</v>
+        <v>263</v>
       </c>
       <c r="C91" t="s">
-        <v>366</v>
+        <v>267</v>
       </c>
       <c r="D91" t="s">
-        <v>370</v>
+        <v>271</v>
       </c>
       <c r="E91" t="s">
         <v>8</v>
       </c>
-      <c r="I91" s="1" t="s">
-        <v>686</v>
-      </c>
+      <c r="I91" s="1"/>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="8">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>371</v>
+        <v>272</v>
       </c>
       <c r="C92" t="s">
-        <v>372</v>
+        <v>273</v>
       </c>
       <c r="D92" t="s">
-        <v>373</v>
+        <v>274</v>
       </c>
       <c r="E92" t="s">
         <v>8</v>
       </c>
-      <c r="I92" s="1" t="s">
-        <v>690</v>
-      </c>
+      <c r="I92" s="1"/>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="8">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>374</v>
+        <v>275</v>
       </c>
       <c r="C93" t="s">
-        <v>376</v>
+        <v>277</v>
       </c>
       <c r="D93" t="s">
-        <v>375</v>
+        <v>276</v>
       </c>
       <c r="E93" t="s">
         <v>11</v>
       </c>
-      <c r="H93" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>734</v>
-      </c>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="8">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>377</v>
+        <v>278</v>
       </c>
       <c r="C94" t="s">
-        <v>378</v>
+        <v>279</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>379</v>
+        <v>280</v>
       </c>
       <c r="E94" t="s">
         <v>11</v>
       </c>
-      <c r="H94" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>717</v>
-      </c>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="8">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>380</v>
+        <v>281</v>
       </c>
       <c r="C95" t="s">
-        <v>381</v>
+        <v>282</v>
       </c>
       <c r="D95" t="s">
-        <v>382</v>
+        <v>283</v>
       </c>
       <c r="E95" t="s">
         <v>11</v>
       </c>
-      <c r="H95" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>222</v>
-      </c>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="8">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>383</v>
+        <v>284</v>
       </c>
       <c r="C96" t="s">
-        <v>385</v>
+        <v>286</v>
       </c>
       <c r="D96" t="s">
-        <v>384</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>675</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="8">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>386</v>
+        <v>287</v>
       </c>
       <c r="C97" t="s">
-        <v>388</v>
+        <v>289</v>
       </c>
       <c r="D97" t="s">
-        <v>387</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>726</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="8">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>389</v>
+        <v>290</v>
       </c>
       <c r="C98" t="s">
-        <v>395</v>
+        <v>296</v>
       </c>
       <c r="D98" t="s">
-        <v>392</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>714</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="8">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>390</v>
+        <v>291</v>
       </c>
       <c r="C99" t="s">
-        <v>396</v>
+        <v>297</v>
       </c>
       <c r="D99" t="s">
-        <v>393</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>696</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="I99" s="1"/>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="8">
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>397</v>
+        <v>298</v>
       </c>
       <c r="C100" t="s">
-        <v>400</v>
+        <v>301</v>
       </c>
       <c r="D100" t="s">
-        <v>399</v>
+        <v>300</v>
       </c>
       <c r="E100" t="s">
         <v>11</v>
       </c>
-      <c r="H100" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>661</v>
-      </c>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="8">
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>401</v>
+        <v>302</v>
       </c>
       <c r="C101" t="s">
-        <v>403</v>
+        <v>304</v>
       </c>
       <c r="D101" t="s">
-        <v>402</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>198</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="H101" s="1"/>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="8">
         <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>404</v>
+        <v>305</v>
       </c>
       <c r="C102" t="s">
-        <v>406</v>
+        <v>307</v>
       </c>
       <c r="D102" t="s">
-        <v>405</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>199</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="H102" s="1"/>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="8">
         <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>407</v>
+        <v>308</v>
       </c>
       <c r="C103" t="s">
-        <v>408</v>
+        <v>309</v>
       </c>
       <c r="D103" t="s">
-        <v>409</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>196</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="H103" s="1"/>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="8">
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>410</v>
+        <v>311</v>
       </c>
       <c r="C104" t="s">
-        <v>412</v>
+        <v>313</v>
       </c>
       <c r="D104" t="s">
-        <v>411</v>
+        <v>312</v>
       </c>
       <c r="E104" t="s">
         <v>8</v>
@@ -5076,13 +5157,13 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>413</v>
+        <v>314</v>
       </c>
       <c r="C105" t="s">
-        <v>415</v>
+        <v>316</v>
       </c>
       <c r="D105" t="s">
-        <v>414</v>
+        <v>315</v>
       </c>
       <c r="E105" t="s">
         <v>8</v>
@@ -5093,13 +5174,13 @@
         <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>404</v>
+        <v>305</v>
       </c>
       <c r="C106" t="s">
-        <v>417</v>
+        <v>318</v>
       </c>
       <c r="D106" t="s">
-        <v>416</v>
+        <v>317</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -5107,13 +5188,13 @@
         <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>418</v>
+        <v>319</v>
       </c>
       <c r="C107" t="s">
-        <v>420</v>
+        <v>321</v>
       </c>
       <c r="D107" t="s">
-        <v>419</v>
+        <v>320</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -5121,135 +5202,121 @@
         <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>421</v>
+        <v>322</v>
       </c>
       <c r="C108" t="s">
-        <v>423</v>
+        <v>324</v>
       </c>
       <c r="D108" t="s">
-        <v>422</v>
+        <v>323</v>
       </c>
       <c r="E108" t="s">
         <v>11</v>
       </c>
-      <c r="H108" s="1" t="s">
-        <v>201</v>
-      </c>
+      <c r="H108" s="1"/>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="8">
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>424</v>
+        <v>325</v>
       </c>
       <c r="C109" t="s">
-        <v>426</v>
+        <v>327</v>
       </c>
       <c r="D109" t="s">
-        <v>425</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>202</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="H109" s="1"/>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="8">
         <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>427</v>
+        <v>328</v>
       </c>
       <c r="C110" t="s">
-        <v>429</v>
+        <v>330</v>
       </c>
       <c r="D110" t="s">
-        <v>428</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>203</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="H110" s="1"/>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="8">
         <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>433</v>
+        <v>334</v>
       </c>
       <c r="C111" t="s">
-        <v>431</v>
+        <v>332</v>
       </c>
       <c r="D111" t="s">
-        <v>434</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>204</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="H111" s="1"/>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="8">
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>430</v>
+        <v>331</v>
       </c>
       <c r="C112" t="s">
-        <v>432</v>
+        <v>333</v>
       </c>
       <c r="D112" t="s">
-        <v>434</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>205</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="H112" s="1"/>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="8">
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>436</v>
+        <v>337</v>
       </c>
       <c r="C113" t="s">
-        <v>437</v>
+        <v>338</v>
       </c>
       <c r="D113" t="s">
-        <v>439</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>206</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="H113" s="1"/>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="8">
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>435</v>
+        <v>336</v>
       </c>
       <c r="C114" t="s">
-        <v>438</v>
+        <v>339</v>
       </c>
       <c r="D114" t="s">
-        <v>439</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>207</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="H114" s="1"/>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="8">
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>441</v>
+        <v>342</v>
       </c>
       <c r="C115" t="s">
-        <v>442</v>
+        <v>343</v>
       </c>
       <c r="D115" t="s">
-        <v>444</v>
+        <v>345</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5257,13 +5324,13 @@
         <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>440</v>
+        <v>341</v>
       </c>
       <c r="C116" t="s">
-        <v>443</v>
+        <v>344</v>
       </c>
       <c r="D116" t="s">
-        <v>444</v>
+        <v>345</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5271,135 +5338,121 @@
         <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>445</v>
+        <v>346</v>
       </c>
       <c r="C117" t="s">
-        <v>447</v>
+        <v>348</v>
       </c>
       <c r="D117" t="s">
-        <v>446</v>
+        <v>347</v>
       </c>
       <c r="E117" t="s">
         <v>11</v>
       </c>
-      <c r="H117" s="1" t="s">
-        <v>208</v>
-      </c>
+      <c r="H117" s="1"/>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="8">
         <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>448</v>
+        <v>349</v>
       </c>
       <c r="C118" t="s">
-        <v>449</v>
+        <v>350</v>
       </c>
       <c r="D118" t="s">
-        <v>450</v>
-      </c>
-      <c r="H118" s="1" t="s">
-        <v>209</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="H118" s="1"/>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="8">
         <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>451</v>
+        <v>352</v>
       </c>
       <c r="C119" t="s">
-        <v>452</v>
+        <v>353</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="H119" s="1" t="s">
-        <v>210</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="H119" s="1"/>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="8">
         <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>454</v>
+        <v>355</v>
       </c>
       <c r="C120" t="s">
-        <v>455</v>
+        <v>356</v>
       </c>
       <c r="D120" t="s">
-        <v>456</v>
-      </c>
-      <c r="H120" s="1" t="s">
-        <v>211</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="H120" s="1"/>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="8">
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>457</v>
+        <v>358</v>
       </c>
       <c r="C121" t="s">
-        <v>459</v>
+        <v>360</v>
       </c>
       <c r="D121" t="s">
-        <v>458</v>
-      </c>
-      <c r="H121" s="1" t="s">
-        <v>212</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="H121" s="1"/>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="8">
         <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>460</v>
+        <v>361</v>
       </c>
       <c r="C122" t="s">
-        <v>461</v>
+        <v>362</v>
       </c>
       <c r="D122" t="s">
-        <v>462</v>
-      </c>
-      <c r="H122" s="1" t="s">
-        <v>213</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="H122" s="1"/>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="8">
         <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>463</v>
+        <v>364</v>
       </c>
       <c r="C123" t="s">
-        <v>465</v>
+        <v>366</v>
       </c>
       <c r="D123" t="s">
-        <v>464</v>
-      </c>
-      <c r="H123" s="1" t="s">
-        <v>214</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="H123" s="1"/>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="8">
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>466</v>
+        <v>367</v>
       </c>
       <c r="C124" t="s">
-        <v>468</v>
+        <v>369</v>
       </c>
       <c r="D124" t="s">
-        <v>467</v>
+        <v>368</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5407,13 +5460,13 @@
         <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>469</v>
+        <v>370</v>
       </c>
       <c r="C125" t="s">
-        <v>471</v>
+        <v>372</v>
       </c>
       <c r="D125" t="s">
-        <v>470</v>
+        <v>371</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5421,13 +5474,13 @@
         <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>472</v>
+        <v>373</v>
       </c>
       <c r="C126" t="s">
-        <v>474</v>
+        <v>375</v>
       </c>
       <c r="D126" t="s">
-        <v>473</v>
+        <v>374</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5435,84 +5488,76 @@
         <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>475</v>
+        <v>376</v>
       </c>
       <c r="C127" t="s">
-        <v>477</v>
+        <v>378</v>
       </c>
       <c r="D127" t="s">
-        <v>476</v>
+        <v>377</v>
       </c>
       <c r="E127" t="s">
         <v>11</v>
       </c>
-      <c r="H127" s="1" t="s">
-        <v>215</v>
-      </c>
+      <c r="H127" s="1"/>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="8">
         <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>478</v>
+        <v>379</v>
       </c>
       <c r="C128" t="s">
-        <v>480</v>
+        <v>381</v>
       </c>
       <c r="D128" t="s">
-        <v>479</v>
-      </c>
-      <c r="H128" s="1" t="s">
-        <v>216</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="H128" s="1"/>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="8">
         <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>481</v>
+        <v>382</v>
       </c>
       <c r="C129" t="s">
-        <v>484</v>
+        <v>385</v>
       </c>
       <c r="D129" t="s">
-        <v>483</v>
-      </c>
-      <c r="H129" s="1" t="s">
-        <v>217</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="H129" s="1"/>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="8">
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>482</v>
+        <v>383</v>
       </c>
       <c r="C130" t="s">
-        <v>486</v>
+        <v>387</v>
       </c>
       <c r="D130" t="s">
-        <v>485</v>
-      </c>
-      <c r="H130" s="1" t="s">
-        <v>218</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="H130" s="1"/>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="8">
         <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>487</v>
+        <v>388</v>
       </c>
       <c r="C131" t="s">
-        <v>489</v>
+        <v>390</v>
       </c>
       <c r="D131" t="s">
-        <v>488</v>
+        <v>389</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5520,13 +5565,13 @@
         <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>490</v>
+        <v>391</v>
       </c>
       <c r="C132" t="s">
-        <v>492</v>
+        <v>393</v>
       </c>
       <c r="D132" t="s">
-        <v>491</v>
+        <v>392</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5534,13 +5579,13 @@
         <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>493</v>
+        <v>394</v>
       </c>
       <c r="C133" t="s">
-        <v>495</v>
+        <v>396</v>
       </c>
       <c r="D133" t="s">
-        <v>494</v>
+        <v>395</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5548,13 +5593,13 @@
         <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>496</v>
+        <v>397</v>
       </c>
       <c r="C134" t="s">
-        <v>498</v>
+        <v>399</v>
       </c>
       <c r="D134" t="s">
-        <v>497</v>
+        <v>398</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5562,13 +5607,13 @@
         <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>499</v>
+        <v>400</v>
       </c>
       <c r="C135" t="s">
-        <v>500</v>
+        <v>401</v>
       </c>
       <c r="D135" t="s">
-        <v>502</v>
+        <v>403</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5576,13 +5621,13 @@
         <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>525</v>
+        <v>426</v>
       </c>
       <c r="C136" t="s">
-        <v>501</v>
+        <v>402</v>
       </c>
       <c r="D136" t="s">
-        <v>502</v>
+        <v>403</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5590,13 +5635,13 @@
         <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>503</v>
+        <v>404</v>
       </c>
       <c r="C137" t="s">
-        <v>514</v>
+        <v>415</v>
       </c>
       <c r="D137" t="s">
-        <v>526</v>
+        <v>427</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5604,13 +5649,13 @@
         <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>504</v>
+        <v>405</v>
       </c>
       <c r="C138" t="s">
-        <v>515</v>
+        <v>416</v>
       </c>
       <c r="D138" t="s">
-        <v>527</v>
+        <v>428</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5618,13 +5663,13 @@
         <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>505</v>
+        <v>406</v>
       </c>
       <c r="C139" t="s">
-        <v>516</v>
+        <v>417</v>
       </c>
       <c r="D139" t="s">
-        <v>528</v>
+        <v>429</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5632,13 +5677,13 @@
         <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>506</v>
+        <v>407</v>
       </c>
       <c r="C140" t="s">
-        <v>517</v>
+        <v>418</v>
       </c>
       <c r="D140" t="s">
-        <v>529</v>
+        <v>430</v>
       </c>
       <c r="E140" t="s">
         <v>8</v>
@@ -5649,13 +5694,13 @@
         <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>507</v>
+        <v>408</v>
       </c>
       <c r="C141" t="s">
-        <v>518</v>
+        <v>419</v>
       </c>
       <c r="D141" t="s">
-        <v>530</v>
+        <v>431</v>
       </c>
       <c r="E141" t="s">
         <v>8</v>
@@ -5666,13 +5711,13 @@
         <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>508</v>
+        <v>409</v>
       </c>
       <c r="C142" t="s">
-        <v>519</v>
+        <v>420</v>
       </c>
       <c r="D142" t="s">
-        <v>531</v>
+        <v>432</v>
       </c>
       <c r="E142" t="s">
         <v>8</v>
@@ -5683,13 +5728,13 @@
         <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>509</v>
+        <v>410</v>
       </c>
       <c r="C143" t="s">
-        <v>520</v>
+        <v>421</v>
       </c>
       <c r="D143" t="s">
-        <v>532</v>
+        <v>433</v>
       </c>
       <c r="E143" t="s">
         <v>8</v>
@@ -5700,13 +5745,13 @@
         <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>510</v>
+        <v>411</v>
       </c>
       <c r="C144" t="s">
-        <v>521</v>
+        <v>422</v>
       </c>
       <c r="D144" t="s">
-        <v>533</v>
+        <v>434</v>
       </c>
       <c r="E144" t="s">
         <v>8</v>
@@ -5717,13 +5762,13 @@
         <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>511</v>
+        <v>412</v>
       </c>
       <c r="C145" t="s">
-        <v>522</v>
+        <v>423</v>
       </c>
       <c r="D145" t="s">
-        <v>534</v>
+        <v>435</v>
       </c>
       <c r="E145" t="s">
         <v>8</v>
@@ -5734,13 +5779,13 @@
         <v>146</v>
       </c>
       <c r="B146" t="s">
-        <v>512</v>
+        <v>413</v>
       </c>
       <c r="C146" t="s">
-        <v>523</v>
+        <v>424</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>535</v>
+        <v>436</v>
       </c>
       <c r="E146" t="s">
         <v>8</v>
@@ -5751,13 +5796,13 @@
         <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>513</v>
+        <v>414</v>
       </c>
       <c r="C147" t="s">
-        <v>524</v>
+        <v>425</v>
       </c>
       <c r="D147" t="s">
-        <v>536</v>
+        <v>437</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5765,166 +5810,148 @@
         <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>537</v>
+        <v>438</v>
       </c>
       <c r="C148" t="s">
-        <v>538</v>
+        <v>439</v>
       </c>
       <c r="D148" t="s">
-        <v>539</v>
-      </c>
-      <c r="H148" s="1" t="s">
-        <v>219</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="H148" s="1"/>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="8">
         <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>540</v>
+        <v>441</v>
       </c>
       <c r="C149" t="s">
-        <v>541</v>
+        <v>442</v>
       </c>
       <c r="D149" t="s">
-        <v>542</v>
-      </c>
-      <c r="H149" s="1" t="s">
-        <v>220</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="H149" s="1"/>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="8">
         <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>543</v>
+        <v>444</v>
       </c>
       <c r="C150" t="s">
-        <v>561</v>
+        <v>462</v>
       </c>
       <c r="D150" t="s">
-        <v>580</v>
-      </c>
-      <c r="H150" s="1" t="s">
-        <v>221</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="H150" s="1"/>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="8">
         <v>151</v>
       </c>
       <c r="B151" t="s">
-        <v>544</v>
+        <v>445</v>
       </c>
       <c r="C151" t="s">
-        <v>562</v>
+        <v>463</v>
       </c>
       <c r="D151" t="s">
-        <v>581</v>
-      </c>
-      <c r="H151" s="1" t="s">
-        <v>222</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="H151" s="1"/>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="8">
         <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>545</v>
+        <v>446</v>
       </c>
       <c r="C152" t="s">
-        <v>563</v>
+        <v>464</v>
       </c>
       <c r="D152" t="s">
-        <v>582</v>
-      </c>
-      <c r="H152" s="1" t="s">
-        <v>223</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="H152" s="1"/>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="8">
         <v>153</v>
       </c>
       <c r="B153" t="s">
-        <v>546</v>
+        <v>447</v>
       </c>
       <c r="C153" t="s">
-        <v>564</v>
+        <v>465</v>
       </c>
       <c r="D153" t="s">
-        <v>583</v>
-      </c>
-      <c r="H153" s="1" t="s">
-        <v>224</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="H153" s="1"/>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="8">
         <v>154</v>
       </c>
       <c r="B154" t="s">
-        <v>547</v>
+        <v>448</v>
       </c>
       <c r="C154" t="s">
-        <v>565</v>
+        <v>466</v>
       </c>
       <c r="D154" t="s">
-        <v>584</v>
-      </c>
-      <c r="H154" s="1" t="s">
-        <v>225</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="H154" s="1"/>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="8">
         <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>548</v>
+        <v>449</v>
       </c>
       <c r="C155" t="s">
-        <v>566</v>
+        <v>467</v>
       </c>
       <c r="D155" t="s">
-        <v>585</v>
-      </c>
-      <c r="H155" s="1" t="s">
-        <v>226</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="H155" s="1"/>
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="8">
         <v>156</v>
       </c>
       <c r="B156" t="s">
-        <v>549</v>
+        <v>450</v>
       </c>
       <c r="C156" t="s">
-        <v>567</v>
+        <v>468</v>
       </c>
       <c r="D156" t="s">
-        <v>586</v>
-      </c>
-      <c r="H156" s="1" t="s">
-        <v>227</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="H156" s="1"/>
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="8">
         <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>550</v>
+        <v>451</v>
       </c>
       <c r="C157" t="s">
-        <v>568</v>
+        <v>469</v>
       </c>
       <c r="D157" t="s">
-        <v>587</v>
+        <v>488</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5932,81 +5959,73 @@
         <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>551</v>
+        <v>452</v>
       </c>
       <c r="C158" t="s">
-        <v>569</v>
+        <v>470</v>
       </c>
       <c r="D158" t="s">
-        <v>588</v>
-      </c>
-      <c r="H158" s="1" t="s">
-        <v>228</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="H158" s="1"/>
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="8">
         <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>552</v>
+        <v>453</v>
       </c>
       <c r="C159" t="s">
-        <v>570</v>
+        <v>471</v>
       </c>
       <c r="D159" t="s">
-        <v>589</v>
-      </c>
-      <c r="H159" s="1" t="s">
-        <v>229</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="H159" s="1"/>
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="8">
         <v>160</v>
       </c>
       <c r="B160" t="s">
-        <v>553</v>
+        <v>454</v>
       </c>
       <c r="C160" t="s">
-        <v>571</v>
+        <v>472</v>
       </c>
       <c r="D160" t="s">
-        <v>590</v>
-      </c>
-      <c r="H160" s="1" t="s">
-        <v>230</v>
-      </c>
+        <v>491</v>
+      </c>
+      <c r="H160" s="1"/>
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="8">
         <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>554</v>
+        <v>455</v>
       </c>
       <c r="C161" t="s">
-        <v>572</v>
+        <v>473</v>
       </c>
       <c r="D161" t="s">
-        <v>591</v>
-      </c>
-      <c r="H161" s="2" t="s">
-        <v>231</v>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="H161" s="2"/>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="8">
         <v>162</v>
       </c>
       <c r="B162" t="s">
-        <v>555</v>
+        <v>456</v>
       </c>
       <c r="C162" t="s">
-        <v>573</v>
+        <v>474</v>
       </c>
       <c r="D162" t="s">
-        <v>592</v>
+        <v>493</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6014,13 +6033,13 @@
         <v>163</v>
       </c>
       <c r="B163" t="s">
-        <v>556</v>
+        <v>457</v>
       </c>
       <c r="C163" t="s">
-        <v>574</v>
+        <v>475</v>
       </c>
       <c r="D163" t="s">
-        <v>593</v>
+        <v>494</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6028,13 +6047,13 @@
         <v>164</v>
       </c>
       <c r="B164" t="s">
-        <v>557</v>
+        <v>458</v>
       </c>
       <c r="C164" t="s">
-        <v>575</v>
+        <v>476</v>
       </c>
       <c r="D164" t="s">
-        <v>594</v>
+        <v>495</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6042,13 +6061,13 @@
         <v>165</v>
       </c>
       <c r="B165" t="s">
-        <v>558</v>
+        <v>459</v>
       </c>
       <c r="C165" t="s">
-        <v>576</v>
+        <v>477</v>
       </c>
       <c r="D165" t="s">
-        <v>595</v>
+        <v>496</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6056,13 +6075,13 @@
         <v>166</v>
       </c>
       <c r="B166" t="s">
-        <v>559</v>
+        <v>460</v>
       </c>
       <c r="C166" t="s">
-        <v>577</v>
+        <v>478</v>
       </c>
       <c r="D166" t="s">
-        <v>596</v>
+        <v>497</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6070,13 +6089,13 @@
         <v>167</v>
       </c>
       <c r="B167" t="s">
-        <v>560</v>
+        <v>461</v>
       </c>
       <c r="C167" t="s">
-        <v>578</v>
+        <v>479</v>
       </c>
       <c r="D167" t="s">
-        <v>597</v>
+        <v>498</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6084,13 +6103,13 @@
         <v>168</v>
       </c>
       <c r="B168" t="s">
-        <v>560</v>
+        <v>461</v>
       </c>
       <c r="C168" t="s">
-        <v>579</v>
+        <v>480</v>
       </c>
       <c r="D168" t="s">
-        <v>598</v>
+        <v>499</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6098,13 +6117,13 @@
         <v>169</v>
       </c>
       <c r="B169" t="s">
-        <v>599</v>
+        <v>500</v>
       </c>
       <c r="C169" t="s">
-        <v>601</v>
+        <v>502</v>
       </c>
       <c r="D169" t="s">
-        <v>600</v>
+        <v>501</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6112,13 +6131,13 @@
         <v>170</v>
       </c>
       <c r="B170" t="s">
-        <v>599</v>
+        <v>500</v>
       </c>
       <c r="C170" t="s">
-        <v>602</v>
+        <v>503</v>
       </c>
       <c r="D170" t="s">
-        <v>600</v>
+        <v>501</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6126,13 +6145,13 @@
         <v>171</v>
       </c>
       <c r="B171" t="s">
-        <v>603</v>
+        <v>504</v>
       </c>
       <c r="C171" t="s">
-        <v>605</v>
+        <v>506</v>
       </c>
       <c r="D171" t="s">
-        <v>604</v>
+        <v>505</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6140,13 +6159,13 @@
         <v>172</v>
       </c>
       <c r="B172" t="s">
-        <v>606</v>
+        <v>507</v>
       </c>
       <c r="C172" t="s">
-        <v>607</v>
+        <v>508</v>
       </c>
       <c r="D172" t="s">
-        <v>608</v>
+        <v>509</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6154,30 +6173,28 @@
         <v>173</v>
       </c>
       <c r="B173" t="s">
-        <v>609</v>
+        <v>510</v>
       </c>
       <c r="C173" t="s">
-        <v>610</v>
+        <v>511</v>
       </c>
       <c r="D173" t="s">
-        <v>611</v>
-      </c>
-      <c r="H173" s="1" t="s">
-        <v>200</v>
-      </c>
+        <v>512</v>
+      </c>
+      <c r="H173" s="1"/>
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="8">
         <v>174</v>
       </c>
       <c r="B174" t="s">
-        <v>612</v>
+        <v>513</v>
       </c>
       <c r="C174" t="s">
-        <v>614</v>
+        <v>515</v>
       </c>
       <c r="D174" t="s">
-        <v>613</v>
+        <v>514</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6185,13 +6202,13 @@
         <v>175</v>
       </c>
       <c r="B175" t="s">
-        <v>612</v>
+        <v>513</v>
       </c>
       <c r="C175" t="s">
-        <v>616</v>
+        <v>517</v>
       </c>
       <c r="D175" t="s">
-        <v>615</v>
+        <v>516</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6199,13 +6216,13 @@
         <v>176</v>
       </c>
       <c r="B176" t="s">
-        <v>617</v>
+        <v>518</v>
       </c>
       <c r="C176" t="s">
-        <v>607</v>
+        <v>508</v>
       </c>
       <c r="D176" t="s">
-        <v>624</v>
+        <v>525</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6213,13 +6230,13 @@
         <v>177</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>618</v>
+        <v>519</v>
       </c>
       <c r="C177" t="s">
-        <v>623</v>
+        <v>524</v>
       </c>
       <c r="D177" t="s">
-        <v>621</v>
+        <v>522</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6227,13 +6244,13 @@
         <v>178</v>
       </c>
       <c r="B178" t="s">
-        <v>619</v>
+        <v>520</v>
       </c>
       <c r="C178" t="s">
-        <v>622</v>
+        <v>523</v>
       </c>
       <c r="D178" t="s">
-        <v>621</v>
+        <v>522</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6241,13 +6258,13 @@
         <v>179</v>
       </c>
       <c r="B179" t="s">
-        <v>619</v>
+        <v>520</v>
       </c>
       <c r="C179" t="s">
-        <v>620</v>
+        <v>521</v>
       </c>
       <c r="D179" t="s">
-        <v>621</v>
+        <v>522</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6255,13 +6272,13 @@
         <v>180</v>
       </c>
       <c r="B180" t="s">
-        <v>625</v>
+        <v>526</v>
       </c>
       <c r="C180" t="s">
-        <v>627</v>
+        <v>528</v>
       </c>
       <c r="D180" t="s">
-        <v>626</v>
+        <v>527</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6269,13 +6286,13 @@
         <v>181</v>
       </c>
       <c r="B181" t="s">
-        <v>628</v>
+        <v>529</v>
       </c>
       <c r="C181" t="s">
-        <v>630</v>
+        <v>531</v>
       </c>
       <c r="D181" t="s">
-        <v>629</v>
+        <v>530</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6283,13 +6300,13 @@
         <v>182</v>
       </c>
       <c r="B182" t="s">
-        <v>631</v>
+        <v>532</v>
       </c>
       <c r="C182" t="s">
-        <v>632</v>
+        <v>533</v>
       </c>
       <c r="D182" t="s">
-        <v>633</v>
+        <v>534</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6297,30 +6314,28 @@
         <v>183</v>
       </c>
       <c r="B183" t="s">
-        <v>634</v>
+        <v>535</v>
       </c>
       <c r="C183" t="s">
-        <v>636</v>
+        <v>537</v>
       </c>
       <c r="D183" t="s">
-        <v>635</v>
-      </c>
-      <c r="H183" s="6" t="s">
-        <v>148</v>
-      </c>
+        <v>536</v>
+      </c>
+      <c r="H183" s="6"/>
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="8">
         <v>184</v>
       </c>
       <c r="B184" t="s">
-        <v>637</v>
+        <v>538</v>
       </c>
       <c r="C184" t="s">
-        <v>639</v>
+        <v>540</v>
       </c>
       <c r="D184" t="s">
-        <v>638</v>
+        <v>539</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6328,13 +6343,13 @@
         <v>185</v>
       </c>
       <c r="B185" t="s">
-        <v>640</v>
+        <v>541</v>
       </c>
       <c r="C185" t="s">
-        <v>642</v>
+        <v>543</v>
       </c>
       <c r="D185" t="s">
-        <v>641</v>
+        <v>542</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6342,13 +6357,13 @@
         <v>186</v>
       </c>
       <c r="B186" t="s">
-        <v>643</v>
+        <v>544</v>
       </c>
       <c r="C186" t="s">
-        <v>644</v>
+        <v>545</v>
       </c>
       <c r="D186" t="s">
-        <v>645</v>
+        <v>546</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6356,13 +6371,13 @@
         <v>187</v>
       </c>
       <c r="B187" t="s">
-        <v>646</v>
+        <v>547</v>
       </c>
       <c r="C187" t="s">
-        <v>647</v>
+        <v>548</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>648</v>
+        <v>549</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6370,13 +6385,13 @@
         <v>188</v>
       </c>
       <c r="B188" t="s">
-        <v>649</v>
+        <v>550</v>
       </c>
       <c r="C188" t="s">
-        <v>651</v>
+        <v>552</v>
       </c>
       <c r="D188" t="s">
-        <v>650</v>
+        <v>551</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6384,13 +6399,13 @@
         <v>189</v>
       </c>
       <c r="B189" t="s">
-        <v>652</v>
+        <v>553</v>
       </c>
       <c r="C189" t="s">
-        <v>654</v>
+        <v>555</v>
       </c>
       <c r="D189" t="s">
-        <v>653</v>
+        <v>554</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6398,13 +6413,13 @@
         <v>190</v>
       </c>
       <c r="B190" t="s">
-        <v>655</v>
+        <v>556</v>
       </c>
       <c r="C190" t="s">
-        <v>656</v>
+        <v>557</v>
       </c>
       <c r="D190" t="s">
-        <v>657</v>
+        <v>558</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6412,31 +6427,29 @@
         <v>191</v>
       </c>
       <c r="B191" t="s">
-        <v>658</v>
+        <v>559</v>
       </c>
       <c r="C191" t="s">
-        <v>659</v>
+        <v>560</v>
       </c>
       <c r="D191" t="s">
-        <v>660</v>
+        <v>561</v>
       </c>
     </row>
     <row r="192" spans="1:8">
       <c r="A192" s="8" t="s">
-        <v>398</v>
+        <v>299</v>
       </c>
       <c r="B192" t="s">
-        <v>391</v>
+        <v>292</v>
       </c>
       <c r="C192" t="s">
-        <v>741</v>
+        <v>562</v>
       </c>
       <c r="D192" t="s">
-        <v>394</v>
-      </c>
-      <c r="H192" s="1" t="s">
-        <v>195</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="H192" s="1"/>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" s="8"/>
@@ -6458,18 +6471,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>

--- a/documentos/Dicionario_de_dados_planilha.xlsx
+++ b/documentos/Dicionario_de_dados_planilha.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="583">
   <si>
     <t>Nome do Campo</t>
   </si>
@@ -676,9 +676,6 @@
   </si>
   <si>
     <t>OUT_MORBI</t>
-  </si>
-  <si>
-    <t>MORD_DESC</t>
   </si>
   <si>
     <t>Paciente apresenta algum fator de risco</t>
@@ -1816,7 +1813,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1841,6 +1838,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1855,7 +1858,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1872,6 +1875,10 @@
     <xf numFmtId="1" fontId="1" fillId="3" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2180,47 +2187,47 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -2235,22 +2242,22 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -2270,7 +2277,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -2280,7 +2287,7 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -2295,12 +2302,12 @@
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -2355,87 +2362,87 @@
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="53" spans="1:1">
@@ -2450,32 +2457,32 @@
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="61" spans="1:1">
@@ -2485,27 +2492,27 @@
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="67" spans="1:1">
@@ -2515,27 +2522,27 @@
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="73" spans="1:1">
@@ -2555,17 +2562,17 @@
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="79" spans="1:1">
@@ -2585,17 +2592,17 @@
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="85" spans="1:1">
@@ -2620,7 +2627,7 @@
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="90" spans="1:1">
@@ -2640,47 +2647,47 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="102" spans="1:1">
@@ -2710,7 +2717,7 @@
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="108" spans="1:1">
@@ -2720,7 +2727,7 @@
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="110" spans="1:1">
@@ -2730,22 +2737,22 @@
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="115" spans="1:1">
@@ -2760,77 +2767,77 @@
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="132" spans="1:1">
@@ -2850,22 +2857,22 @@
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="139" spans="1:1">
@@ -2875,12 +2882,12 @@
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="142" spans="1:1">
@@ -2890,22 +2897,22 @@
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="147" spans="1:1">
@@ -2930,7 +2937,7 @@
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="152" spans="1:1">
@@ -2945,32 +2952,32 @@
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="160" spans="1:1">
@@ -2980,27 +2987,27 @@
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="166" spans="1:1">
@@ -3010,27 +3017,27 @@
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="172" spans="1:1">
@@ -3052,8 +3059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I194"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="B185" sqref="B185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4358,7 +4365,7 @@
         <v>204</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>11</v>
@@ -4380,7 +4387,7 @@
         <v>205</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>11</v>
@@ -4402,7 +4409,7 @@
         <v>206</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>11</v>
@@ -4424,7 +4431,7 @@
         <v>207</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>11</v>
@@ -4446,7 +4453,7 @@
         <v>208</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>11</v>
@@ -4468,7 +4475,7 @@
         <v>209</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>11</v>
@@ -4490,7 +4497,7 @@
         <v>210</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>11</v>
@@ -4512,7 +4519,7 @@
         <v>211</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>11</v>
@@ -4534,7 +4541,7 @@
         <v>212</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>11</v>
@@ -4556,7 +4563,7 @@
         <v>213</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>11</v>
@@ -4578,7 +4585,7 @@
         <v>214</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>11</v>
@@ -4600,7 +4607,7 @@
         <v>215</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>11</v>
@@ -4622,7 +4629,7 @@
         <v>216</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>11</v>
@@ -4644,7 +4651,7 @@
         <v>217</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>11</v>
@@ -4666,7 +4673,7 @@
         <v>218</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>11</v>
@@ -4685,10 +4692,10 @@
         <v>200</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>219</v>
+        <v>577</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>11</v>
@@ -4722,13 +4729,13 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C80" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D80" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E80" t="s">
         <v>8</v>
@@ -4740,13 +4747,13 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C81" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D81" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E81" t="s">
         <v>8</v>
@@ -4758,13 +4765,13 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C82" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D82" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E82" t="s">
         <v>8</v>
@@ -4776,13 +4783,13 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C83" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D83" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E83" t="s">
         <v>8</v>
@@ -4794,13 +4801,13 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C84" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D84" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E84" t="s">
         <v>8</v>
@@ -4812,13 +4819,13 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C85" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D85" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E85" t="s">
         <v>8</v>
@@ -4830,13 +4837,13 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C86" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D86" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E86" t="s">
         <v>8</v>
@@ -4848,13 +4855,13 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C87" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D87" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E87" t="s">
         <v>8</v>
@@ -4866,13 +4873,13 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C88" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D88" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E88" t="s">
         <v>8</v>
@@ -4884,13 +4891,13 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C89" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D89" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E89" t="s">
         <v>8</v>
@@ -4902,13 +4909,13 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C90" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D90" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E90" t="s">
         <v>8</v>
@@ -4920,13 +4927,13 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C91" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D91" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E91" t="s">
         <v>8</v>
@@ -4938,13 +4945,13 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
+        <v>271</v>
+      </c>
+      <c r="C92" t="s">
         <v>272</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>273</v>
-      </c>
-      <c r="D92" t="s">
-        <v>274</v>
       </c>
       <c r="E92" t="s">
         <v>8</v>
@@ -4956,13 +4963,13 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
+        <v>274</v>
+      </c>
+      <c r="C93" t="s">
+        <v>276</v>
+      </c>
+      <c r="D93" t="s">
         <v>275</v>
-      </c>
-      <c r="C93" t="s">
-        <v>277</v>
-      </c>
-      <c r="D93" t="s">
-        <v>276</v>
       </c>
       <c r="E93" t="s">
         <v>11</v>
@@ -4975,13 +4982,13 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
+        <v>277</v>
+      </c>
+      <c r="C94" t="s">
         <v>278</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" s="5" t="s">
         <v>279</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>280</v>
       </c>
       <c r="E94" t="s">
         <v>11</v>
@@ -4994,13 +5001,13 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
+        <v>280</v>
+      </c>
+      <c r="C95" t="s">
         <v>281</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>282</v>
-      </c>
-      <c r="D95" t="s">
-        <v>283</v>
       </c>
       <c r="E95" t="s">
         <v>11</v>
@@ -5013,13 +5020,13 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
+        <v>283</v>
+      </c>
+      <c r="C96" t="s">
+        <v>285</v>
+      </c>
+      <c r="D96" t="s">
         <v>284</v>
-      </c>
-      <c r="C96" t="s">
-        <v>286</v>
-      </c>
-      <c r="D96" t="s">
-        <v>285</v>
       </c>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
@@ -5029,13 +5036,13 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
+        <v>286</v>
+      </c>
+      <c r="C97" t="s">
+        <v>288</v>
+      </c>
+      <c r="D97" t="s">
         <v>287</v>
-      </c>
-      <c r="C97" t="s">
-        <v>289</v>
-      </c>
-      <c r="D97" t="s">
-        <v>288</v>
       </c>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
@@ -5045,13 +5052,13 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C98" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D98" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
@@ -5061,13 +5068,13 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C99" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D99" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I99" s="1"/>
     </row>
@@ -5076,13 +5083,13 @@
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C100" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D100" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E100" t="s">
         <v>11</v>
@@ -5095,13 +5102,13 @@
         <v>101</v>
       </c>
       <c r="B101" t="s">
+        <v>301</v>
+      </c>
+      <c r="C101" t="s">
+        <v>303</v>
+      </c>
+      <c r="D101" t="s">
         <v>302</v>
-      </c>
-      <c r="C101" t="s">
-        <v>304</v>
-      </c>
-      <c r="D101" t="s">
-        <v>303</v>
       </c>
       <c r="H101" s="1"/>
     </row>
@@ -5110,13 +5117,13 @@
         <v>102</v>
       </c>
       <c r="B102" t="s">
+        <v>304</v>
+      </c>
+      <c r="C102" t="s">
+        <v>306</v>
+      </c>
+      <c r="D102" t="s">
         <v>305</v>
-      </c>
-      <c r="C102" t="s">
-        <v>307</v>
-      </c>
-      <c r="D102" t="s">
-        <v>306</v>
       </c>
       <c r="H102" s="1"/>
     </row>
@@ -5125,13 +5132,13 @@
         <v>103</v>
       </c>
       <c r="B103" t="s">
+        <v>307</v>
+      </c>
+      <c r="C103" t="s">
         <v>308</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>309</v>
-      </c>
-      <c r="D103" t="s">
-        <v>310</v>
       </c>
       <c r="H103" s="1"/>
     </row>
@@ -5140,13 +5147,13 @@
         <v>104</v>
       </c>
       <c r="B104" t="s">
+        <v>310</v>
+      </c>
+      <c r="C104" t="s">
+        <v>312</v>
+      </c>
+      <c r="D104" t="s">
         <v>311</v>
-      </c>
-      <c r="C104" t="s">
-        <v>313</v>
-      </c>
-      <c r="D104" t="s">
-        <v>312</v>
       </c>
       <c r="E104" t="s">
         <v>8</v>
@@ -5157,13 +5164,13 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
+        <v>313</v>
+      </c>
+      <c r="C105" t="s">
+        <v>315</v>
+      </c>
+      <c r="D105" t="s">
         <v>314</v>
-      </c>
-      <c r="C105" t="s">
-        <v>316</v>
-      </c>
-      <c r="D105" t="s">
-        <v>315</v>
       </c>
       <c r="E105" t="s">
         <v>8</v>
@@ -5174,13 +5181,13 @@
         <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C106" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D106" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -5188,13 +5195,13 @@
         <v>107</v>
       </c>
       <c r="B107" t="s">
+        <v>318</v>
+      </c>
+      <c r="C107" t="s">
+        <v>320</v>
+      </c>
+      <c r="D107" t="s">
         <v>319</v>
-      </c>
-      <c r="C107" t="s">
-        <v>321</v>
-      </c>
-      <c r="D107" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -5202,13 +5209,13 @@
         <v>108</v>
       </c>
       <c r="B108" t="s">
+        <v>321</v>
+      </c>
+      <c r="C108" t="s">
+        <v>323</v>
+      </c>
+      <c r="D108" t="s">
         <v>322</v>
-      </c>
-      <c r="C108" t="s">
-        <v>324</v>
-      </c>
-      <c r="D108" t="s">
-        <v>323</v>
       </c>
       <c r="E108" t="s">
         <v>11</v>
@@ -5220,13 +5227,13 @@
         <v>109</v>
       </c>
       <c r="B109" t="s">
+        <v>324</v>
+      </c>
+      <c r="C109" t="s">
+        <v>326</v>
+      </c>
+      <c r="D109" t="s">
         <v>325</v>
-      </c>
-      <c r="C109" t="s">
-        <v>327</v>
-      </c>
-      <c r="D109" t="s">
-        <v>326</v>
       </c>
       <c r="H109" s="1"/>
     </row>
@@ -5235,13 +5242,13 @@
         <v>110</v>
       </c>
       <c r="B110" t="s">
+        <v>327</v>
+      </c>
+      <c r="C110" t="s">
+        <v>329</v>
+      </c>
+      <c r="D110" t="s">
         <v>328</v>
-      </c>
-      <c r="C110" t="s">
-        <v>330</v>
-      </c>
-      <c r="D110" t="s">
-        <v>329</v>
       </c>
       <c r="H110" s="1"/>
     </row>
@@ -5250,13 +5257,13 @@
         <v>111</v>
       </c>
       <c r="B111" t="s">
+        <v>333</v>
+      </c>
+      <c r="C111" t="s">
+        <v>331</v>
+      </c>
+      <c r="D111" t="s">
         <v>334</v>
-      </c>
-      <c r="C111" t="s">
-        <v>332</v>
-      </c>
-      <c r="D111" t="s">
-        <v>335</v>
       </c>
       <c r="H111" s="1"/>
     </row>
@@ -5265,13 +5272,13 @@
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C112" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D112" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H112" s="1"/>
     </row>
@@ -5280,13 +5287,13 @@
         <v>113</v>
       </c>
       <c r="B113" t="s">
+        <v>336</v>
+      </c>
+      <c r="C113" t="s">
         <v>337</v>
       </c>
-      <c r="C113" t="s">
-        <v>338</v>
-      </c>
       <c r="D113" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H113" s="1"/>
     </row>
@@ -5295,13 +5302,13 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C114" t="s">
+        <v>338</v>
+      </c>
+      <c r="D114" t="s">
         <v>339</v>
-      </c>
-      <c r="D114" t="s">
-        <v>340</v>
       </c>
       <c r="H114" s="1"/>
     </row>
@@ -5310,13 +5317,13 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
+        <v>341</v>
+      </c>
+      <c r="C115" t="s">
         <v>342</v>
       </c>
-      <c r="C115" t="s">
-        <v>343</v>
-      </c>
       <c r="D115" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5324,13 +5331,13 @@
         <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C116" t="s">
+        <v>343</v>
+      </c>
+      <c r="D116" t="s">
         <v>344</v>
-      </c>
-      <c r="D116" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5338,13 +5345,13 @@
         <v>117</v>
       </c>
       <c r="B117" t="s">
+        <v>345</v>
+      </c>
+      <c r="C117" t="s">
+        <v>347</v>
+      </c>
+      <c r="D117" t="s">
         <v>346</v>
-      </c>
-      <c r="C117" t="s">
-        <v>348</v>
-      </c>
-      <c r="D117" t="s">
-        <v>347</v>
       </c>
       <c r="E117" t="s">
         <v>11</v>
@@ -5356,13 +5363,13 @@
         <v>118</v>
       </c>
       <c r="B118" t="s">
+        <v>348</v>
+      </c>
+      <c r="C118" t="s">
         <v>349</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>350</v>
-      </c>
-      <c r="D118" t="s">
-        <v>351</v>
       </c>
       <c r="H118" s="1"/>
     </row>
@@ -5371,13 +5378,13 @@
         <v>119</v>
       </c>
       <c r="B119" t="s">
+        <v>351</v>
+      </c>
+      <c r="C119" t="s">
         <v>352</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" s="5" t="s">
         <v>353</v>
-      </c>
-      <c r="D119" s="5" t="s">
-        <v>354</v>
       </c>
       <c r="H119" s="1"/>
     </row>
@@ -5386,13 +5393,13 @@
         <v>120</v>
       </c>
       <c r="B120" t="s">
+        <v>354</v>
+      </c>
+      <c r="C120" t="s">
         <v>355</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
         <v>356</v>
-      </c>
-      <c r="D120" t="s">
-        <v>357</v>
       </c>
       <c r="H120" s="1"/>
     </row>
@@ -5401,13 +5408,13 @@
         <v>121</v>
       </c>
       <c r="B121" t="s">
+        <v>357</v>
+      </c>
+      <c r="C121" t="s">
+        <v>359</v>
+      </c>
+      <c r="D121" t="s">
         <v>358</v>
-      </c>
-      <c r="C121" t="s">
-        <v>360</v>
-      </c>
-      <c r="D121" t="s">
-        <v>359</v>
       </c>
       <c r="H121" s="1"/>
     </row>
@@ -5416,13 +5423,13 @@
         <v>122</v>
       </c>
       <c r="B122" t="s">
+        <v>360</v>
+      </c>
+      <c r="C122" t="s">
         <v>361</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
         <v>362</v>
-      </c>
-      <c r="D122" t="s">
-        <v>363</v>
       </c>
       <c r="H122" s="1"/>
     </row>
@@ -5431,13 +5438,13 @@
         <v>123</v>
       </c>
       <c r="B123" t="s">
+        <v>363</v>
+      </c>
+      <c r="C123" t="s">
+        <v>365</v>
+      </c>
+      <c r="D123" t="s">
         <v>364</v>
-      </c>
-      <c r="C123" t="s">
-        <v>366</v>
-      </c>
-      <c r="D123" t="s">
-        <v>365</v>
       </c>
       <c r="H123" s="1"/>
     </row>
@@ -5446,13 +5453,13 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
+        <v>366</v>
+      </c>
+      <c r="C124" t="s">
+        <v>368</v>
+      </c>
+      <c r="D124" t="s">
         <v>367</v>
-      </c>
-      <c r="C124" t="s">
-        <v>369</v>
-      </c>
-      <c r="D124" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5460,13 +5467,13 @@
         <v>125</v>
       </c>
       <c r="B125" t="s">
+        <v>369</v>
+      </c>
+      <c r="C125" t="s">
+        <v>371</v>
+      </c>
+      <c r="D125" t="s">
         <v>370</v>
-      </c>
-      <c r="C125" t="s">
-        <v>372</v>
-      </c>
-      <c r="D125" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5474,13 +5481,13 @@
         <v>126</v>
       </c>
       <c r="B126" t="s">
+        <v>372</v>
+      </c>
+      <c r="C126" t="s">
+        <v>374</v>
+      </c>
+      <c r="D126" t="s">
         <v>373</v>
-      </c>
-      <c r="C126" t="s">
-        <v>375</v>
-      </c>
-      <c r="D126" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5488,13 +5495,13 @@
         <v>127</v>
       </c>
       <c r="B127" t="s">
+        <v>375</v>
+      </c>
+      <c r="C127" t="s">
+        <v>377</v>
+      </c>
+      <c r="D127" t="s">
         <v>376</v>
-      </c>
-      <c r="C127" t="s">
-        <v>378</v>
-      </c>
-      <c r="D127" t="s">
-        <v>377</v>
       </c>
       <c r="E127" t="s">
         <v>11</v>
@@ -5506,13 +5513,13 @@
         <v>128</v>
       </c>
       <c r="B128" t="s">
+        <v>378</v>
+      </c>
+      <c r="C128" t="s">
+        <v>380</v>
+      </c>
+      <c r="D128" t="s">
         <v>379</v>
-      </c>
-      <c r="C128" t="s">
-        <v>381</v>
-      </c>
-      <c r="D128" t="s">
-        <v>380</v>
       </c>
       <c r="H128" s="1"/>
     </row>
@@ -5521,13 +5528,13 @@
         <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C129" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D129" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H129" s="1"/>
     </row>
@@ -5536,13 +5543,13 @@
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C130" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D130" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H130" s="1"/>
     </row>
@@ -5551,13 +5558,13 @@
         <v>131</v>
       </c>
       <c r="B131" t="s">
+        <v>387</v>
+      </c>
+      <c r="C131" t="s">
+        <v>389</v>
+      </c>
+      <c r="D131" t="s">
         <v>388</v>
-      </c>
-      <c r="C131" t="s">
-        <v>390</v>
-      </c>
-      <c r="D131" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5565,13 +5572,13 @@
         <v>132</v>
       </c>
       <c r="B132" t="s">
+        <v>390</v>
+      </c>
+      <c r="C132" t="s">
+        <v>392</v>
+      </c>
+      <c r="D132" t="s">
         <v>391</v>
-      </c>
-      <c r="C132" t="s">
-        <v>393</v>
-      </c>
-      <c r="D132" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5579,13 +5586,13 @@
         <v>133</v>
       </c>
       <c r="B133" t="s">
+        <v>393</v>
+      </c>
+      <c r="C133" t="s">
+        <v>395</v>
+      </c>
+      <c r="D133" t="s">
         <v>394</v>
-      </c>
-      <c r="C133" t="s">
-        <v>396</v>
-      </c>
-      <c r="D133" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5593,13 +5600,13 @@
         <v>134</v>
       </c>
       <c r="B134" t="s">
+        <v>396</v>
+      </c>
+      <c r="C134" t="s">
+        <v>398</v>
+      </c>
+      <c r="D134" t="s">
         <v>397</v>
-      </c>
-      <c r="C134" t="s">
-        <v>399</v>
-      </c>
-      <c r="D134" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5607,13 +5614,13 @@
         <v>135</v>
       </c>
       <c r="B135" t="s">
+        <v>399</v>
+      </c>
+      <c r="C135" t="s">
         <v>400</v>
       </c>
-      <c r="C135" t="s">
-        <v>401</v>
-      </c>
       <c r="D135" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5621,13 +5628,13 @@
         <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C136" t="s">
+        <v>401</v>
+      </c>
+      <c r="D136" t="s">
         <v>402</v>
-      </c>
-      <c r="D136" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5635,13 +5642,13 @@
         <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C137" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D137" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5649,13 +5656,13 @@
         <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C138" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D138" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5663,13 +5670,13 @@
         <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C139" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D139" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5677,13 +5684,13 @@
         <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C140" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D140" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E140" t="s">
         <v>8</v>
@@ -5694,13 +5701,13 @@
         <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C141" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D141" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E141" t="s">
         <v>8</v>
@@ -5711,13 +5718,13 @@
         <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C142" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D142" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E142" t="s">
         <v>8</v>
@@ -5728,13 +5735,13 @@
         <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C143" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D143" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E143" t="s">
         <v>8</v>
@@ -5745,13 +5752,13 @@
         <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C144" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D144" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E144" t="s">
         <v>8</v>
@@ -5762,13 +5769,13 @@
         <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C145" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D145" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E145" t="s">
         <v>8</v>
@@ -5779,13 +5786,13 @@
         <v>146</v>
       </c>
       <c r="B146" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C146" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E146" t="s">
         <v>8</v>
@@ -5796,13 +5803,13 @@
         <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C147" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D147" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5810,13 +5817,13 @@
         <v>148</v>
       </c>
       <c r="B148" t="s">
+        <v>437</v>
+      </c>
+      <c r="C148" t="s">
         <v>438</v>
       </c>
-      <c r="C148" t="s">
+      <c r="D148" t="s">
         <v>439</v>
-      </c>
-      <c r="D148" t="s">
-        <v>440</v>
       </c>
       <c r="H148" s="1"/>
     </row>
@@ -5825,13 +5832,13 @@
         <v>149</v>
       </c>
       <c r="B149" t="s">
+        <v>440</v>
+      </c>
+      <c r="C149" t="s">
         <v>441</v>
       </c>
-      <c r="C149" t="s">
+      <c r="D149" t="s">
         <v>442</v>
-      </c>
-      <c r="D149" t="s">
-        <v>443</v>
       </c>
       <c r="H149" s="1"/>
     </row>
@@ -5840,13 +5847,13 @@
         <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C150" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D150" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H150" s="1"/>
     </row>
@@ -5855,13 +5862,13 @@
         <v>151</v>
       </c>
       <c r="B151" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C151" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D151" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H151" s="1"/>
     </row>
@@ -5870,13 +5877,13 @@
         <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C152" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D152" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H152" s="1"/>
     </row>
@@ -5885,13 +5892,13 @@
         <v>153</v>
       </c>
       <c r="B153" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C153" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D153" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H153" s="1"/>
     </row>
@@ -5900,13 +5907,13 @@
         <v>154</v>
       </c>
       <c r="B154" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C154" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D154" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H154" s="1"/>
     </row>
@@ -5915,13 +5922,13 @@
         <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C155" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D155" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H155" s="1"/>
     </row>
@@ -5930,13 +5937,13 @@
         <v>156</v>
       </c>
       <c r="B156" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C156" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D156" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H156" s="1"/>
     </row>
@@ -5945,13 +5952,13 @@
         <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C157" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D157" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5959,13 +5966,13 @@
         <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C158" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D158" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H158" s="1"/>
     </row>
@@ -5974,13 +5981,13 @@
         <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C159" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D159" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H159" s="1"/>
     </row>
@@ -5989,13 +5996,13 @@
         <v>160</v>
       </c>
       <c r="B160" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C160" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D160" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H160" s="1"/>
     </row>
@@ -6004,13 +6011,13 @@
         <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C161" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D161" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H161" s="2"/>
     </row>
@@ -6019,13 +6026,13 @@
         <v>162</v>
       </c>
       <c r="B162" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C162" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D162" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6033,13 +6040,13 @@
         <v>163</v>
       </c>
       <c r="B163" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C163" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D163" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6047,13 +6054,13 @@
         <v>164</v>
       </c>
       <c r="B164" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C164" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D164" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6061,13 +6068,13 @@
         <v>165</v>
       </c>
       <c r="B165" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C165" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D165" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6075,13 +6082,13 @@
         <v>166</v>
       </c>
       <c r="B166" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C166" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D166" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6089,13 +6096,13 @@
         <v>167</v>
       </c>
       <c r="B167" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C167" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D167" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6103,13 +6110,13 @@
         <v>168</v>
       </c>
       <c r="B168" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C168" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D168" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6117,13 +6124,13 @@
         <v>169</v>
       </c>
       <c r="B169" t="s">
+        <v>499</v>
+      </c>
+      <c r="C169" t="s">
+        <v>501</v>
+      </c>
+      <c r="D169" t="s">
         <v>500</v>
-      </c>
-      <c r="C169" t="s">
-        <v>502</v>
-      </c>
-      <c r="D169" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6131,13 +6138,13 @@
         <v>170</v>
       </c>
       <c r="B170" t="s">
+        <v>499</v>
+      </c>
+      <c r="C170" t="s">
+        <v>502</v>
+      </c>
+      <c r="D170" t="s">
         <v>500</v>
-      </c>
-      <c r="C170" t="s">
-        <v>503</v>
-      </c>
-      <c r="D170" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6145,13 +6152,13 @@
         <v>171</v>
       </c>
       <c r="B171" t="s">
+        <v>503</v>
+      </c>
+      <c r="C171" t="s">
+        <v>505</v>
+      </c>
+      <c r="D171" t="s">
         <v>504</v>
-      </c>
-      <c r="C171" t="s">
-        <v>506</v>
-      </c>
-      <c r="D171" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6159,13 +6166,13 @@
         <v>172</v>
       </c>
       <c r="B172" t="s">
+        <v>506</v>
+      </c>
+      <c r="C172" t="s">
         <v>507</v>
       </c>
-      <c r="C172" t="s">
+      <c r="D172" t="s">
         <v>508</v>
-      </c>
-      <c r="D172" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6173,13 +6180,13 @@
         <v>173</v>
       </c>
       <c r="B173" t="s">
+        <v>509</v>
+      </c>
+      <c r="C173" t="s">
         <v>510</v>
       </c>
-      <c r="C173" t="s">
+      <c r="D173" t="s">
         <v>511</v>
-      </c>
-      <c r="D173" t="s">
-        <v>512</v>
       </c>
       <c r="H173" s="1"/>
     </row>
@@ -6188,13 +6195,13 @@
         <v>174</v>
       </c>
       <c r="B174" t="s">
+        <v>512</v>
+      </c>
+      <c r="C174" t="s">
+        <v>514</v>
+      </c>
+      <c r="D174" t="s">
         <v>513</v>
-      </c>
-      <c r="C174" t="s">
-        <v>515</v>
-      </c>
-      <c r="D174" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6202,13 +6209,13 @@
         <v>175</v>
       </c>
       <c r="B175" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C175" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D175" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6216,13 +6223,13 @@
         <v>176</v>
       </c>
       <c r="B176" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C176" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D176" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6230,13 +6237,13 @@
         <v>177</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C177" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D177" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6244,13 +6251,13 @@
         <v>178</v>
       </c>
       <c r="B178" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C178" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D178" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6258,13 +6265,13 @@
         <v>179</v>
       </c>
       <c r="B179" t="s">
+        <v>519</v>
+      </c>
+      <c r="C179" t="s">
         <v>520</v>
       </c>
-      <c r="C179" t="s">
+      <c r="D179" t="s">
         <v>521</v>
-      </c>
-      <c r="D179" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6272,13 +6279,13 @@
         <v>180</v>
       </c>
       <c r="B180" t="s">
+        <v>525</v>
+      </c>
+      <c r="C180" t="s">
+        <v>527</v>
+      </c>
+      <c r="D180" t="s">
         <v>526</v>
-      </c>
-      <c r="C180" t="s">
-        <v>528</v>
-      </c>
-      <c r="D180" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6286,13 +6293,13 @@
         <v>181</v>
       </c>
       <c r="B181" t="s">
+        <v>528</v>
+      </c>
+      <c r="C181" t="s">
+        <v>530</v>
+      </c>
+      <c r="D181" t="s">
         <v>529</v>
-      </c>
-      <c r="C181" t="s">
-        <v>531</v>
-      </c>
-      <c r="D181" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6300,13 +6307,13 @@
         <v>182</v>
       </c>
       <c r="B182" t="s">
+        <v>531</v>
+      </c>
+      <c r="C182" t="s">
         <v>532</v>
       </c>
-      <c r="C182" t="s">
+      <c r="D182" t="s">
         <v>533</v>
-      </c>
-      <c r="D182" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6314,70 +6321,79 @@
         <v>183</v>
       </c>
       <c r="B183" t="s">
+        <v>534</v>
+      </c>
+      <c r="C183" t="s">
+        <v>536</v>
+      </c>
+      <c r="D183" t="s">
         <v>535</v>
       </c>
-      <c r="C183" t="s">
+      <c r="H183" s="6"/>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184" s="10">
+        <v>184</v>
+      </c>
+      <c r="B184" s="11" t="s">
         <v>537</v>
       </c>
-      <c r="D183" t="s">
-        <v>536</v>
-      </c>
-      <c r="H183" s="6"/>
-    </row>
-    <row r="184" spans="1:8">
-      <c r="A184" s="8">
-        <v>184</v>
-      </c>
-      <c r="B184" t="s">
+      <c r="C184" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="D184" s="11" t="s">
         <v>538</v>
       </c>
-      <c r="C184" t="s">
+      <c r="E184" s="11"/>
+      <c r="F184" s="11"/>
+      <c r="G184" s="11"/>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185" s="10">
+        <v>185</v>
+      </c>
+      <c r="B185" s="11" t="s">
         <v>540</v>
       </c>
-      <c r="D184" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
-      <c r="A185" s="8">
-        <v>185</v>
-      </c>
-      <c r="B185" t="s">
+      <c r="C185" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="D185" s="11" t="s">
         <v>541</v>
       </c>
-      <c r="C185" t="s">
+      <c r="E185" s="11"/>
+      <c r="F185" s="11"/>
+      <c r="G185" s="11"/>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="A186" s="10">
+        <v>186</v>
+      </c>
+      <c r="B186" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="D185" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
-      <c r="A186" s="8">
-        <v>186</v>
-      </c>
-      <c r="B186" t="s">
+      <c r="C186" s="11" t="s">
         <v>544</v>
       </c>
-      <c r="C186" t="s">
+      <c r="D186" s="11" t="s">
         <v>545</v>
       </c>
-      <c r="D186" t="s">
-        <v>546</v>
-      </c>
+      <c r="E186" s="11"/>
+      <c r="F186" s="11"/>
+      <c r="G186" s="11"/>
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="8">
         <v>187</v>
       </c>
       <c r="B187" t="s">
+        <v>546</v>
+      </c>
+      <c r="C187" t="s">
         <v>547</v>
       </c>
-      <c r="C187" t="s">
+      <c r="D187" s="5" t="s">
         <v>548</v>
-      </c>
-      <c r="D187" s="5" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6385,13 +6401,13 @@
         <v>188</v>
       </c>
       <c r="B188" t="s">
+        <v>549</v>
+      </c>
+      <c r="C188" t="s">
+        <v>551</v>
+      </c>
+      <c r="D188" t="s">
         <v>550</v>
-      </c>
-      <c r="C188" t="s">
-        <v>552</v>
-      </c>
-      <c r="D188" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6399,13 +6415,13 @@
         <v>189</v>
       </c>
       <c r="B189" t="s">
+        <v>552</v>
+      </c>
+      <c r="C189" t="s">
+        <v>554</v>
+      </c>
+      <c r="D189" t="s">
         <v>553</v>
-      </c>
-      <c r="C189" t="s">
-        <v>555</v>
-      </c>
-      <c r="D189" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6413,13 +6429,13 @@
         <v>190</v>
       </c>
       <c r="B190" t="s">
+        <v>555</v>
+      </c>
+      <c r="C190" t="s">
         <v>556</v>
       </c>
-      <c r="C190" t="s">
+      <c r="D190" t="s">
         <v>557</v>
-      </c>
-      <c r="D190" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6427,27 +6443,27 @@
         <v>191</v>
       </c>
       <c r="B191" t="s">
+        <v>558</v>
+      </c>
+      <c r="C191" t="s">
         <v>559</v>
       </c>
-      <c r="C191" t="s">
+      <c r="D191" t="s">
         <v>560</v>
-      </c>
-      <c r="D191" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="192" spans="1:8">
       <c r="A192" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B192" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C192" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D192" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H192" s="1"/>
     </row>
